--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C354959-F1F0-CE46-9A51-AD8C3BFCE922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D2A8CA-930B-5F49-9484-CDE1F8154E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t xml:space="preserve">Topic modeling </t>
   </si>
   <si>
-    <t>Topic modeling approach(es)</t>
-  </si>
-  <si>
     <t>RQ2</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>ALTA</t>
+  </si>
+  <si>
+    <t>Underlying topic modeling approach(es)</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -793,17 +793,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,7 +1208,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,299 +1245,314 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
+      <c r="D22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1516,1015 +1618,1015 @@
         <v>29</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="4" t="s">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="4" t="s">
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>92</v>
       </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="5" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="5" t="s">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5" t="s">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="5" t="s">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="5" t="s">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="5" t="s">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="5" t="s">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="5" t="s">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="5" t="s">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="5" t="s">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="5" t="s">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="5" t="s">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="5" t="s">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="5" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="5" t="s">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="5" t="s">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="4" t="s">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" t="s">
         <v>132</v>
       </c>
-      <c r="D68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="4" t="s">
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" t="s">
         <v>144</v>
       </c>
-      <c r="D74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C75" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C76" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C77" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C78" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C79" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C80" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C84" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C87" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C88" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C89" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C91" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C92" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C93" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C96" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D99" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C103" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D104" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C105" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C106" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D106" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C107" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D108" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D109" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D112" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D113" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114" s="5" t="s">
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
         <v>217</v>
       </c>
-      <c r="D114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="5" t="s">
+      <c r="D115" t="s">
         <v>218</v>
       </c>
-      <c r="D115" t="s">
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116" s="5" t="s">
+      <c r="D116" t="s">
         <v>220</v>
       </c>
-      <c r="D116" t="s">
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="5" t="s">
+      <c r="D117" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
         <v>222</v>
       </c>
-      <c r="D117" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118" s="5" t="s">
+      <c r="D118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
         <v>223</v>
       </c>
-      <c r="D118" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="5" t="s">
+      <c r="D119" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
         <v>224</v>
       </c>
-      <c r="D119" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" s="5" t="s">
+      <c r="D120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
         <v>225</v>
       </c>
-      <c r="D120" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121" s="5" t="s">
+      <c r="D121" t="s">
         <v>226</v>
       </c>
-      <c r="D121" t="s">
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122" s="5" t="s">
+      <c r="D122" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
         <v>228</v>
       </c>
-      <c r="D122" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123" s="5" t="s">
+      <c r="D123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
         <v>229</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124" s="5" t="s">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
         <v>230</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125" s="5" t="s">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
         <v>231</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D126" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885092C7-4412-3841-8F8B-C2AEE0BEBE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190D269-0EFA-9340-BC73-70490AA3F118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Parameter names and values used for topic labeling</t>
   </si>
   <si>
-    <t>Approach details</t>
-  </si>
-  <si>
-    <t>Details of the employed approach</t>
-  </si>
-  <si>
     <t xml:space="preserve">Topic modeling </t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Corpus</t>
   </si>
   <si>
-    <t>Origin, format, shape and content of the corpus</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -210,14 +201,89 @@
     <t>Motivation</t>
   </si>
   <si>
-    <t>What was the main motivator behind employing the topic labeling step?</t>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>alokaili_2020_automatic_generation_of_topic_labels</t>
+  </si>
+  <si>
+    <t>Alokaili, Areej and Aletras, Nikolaos and Stevenson, Mark</t>
+  </si>
+  <si>
+    <t>Automatic Generation of Topic Labels</t>
+  </si>
+  <si>
+    <t>Are topic labels mentioned in the title, abstract or introductory section?</t>
+  </si>
+  <si>
+    <t>Motivation for applying a labeling step or for introducing an approach</t>
+  </si>
+  <si>
+    <t>Origin and shape of the corpus</t>
+  </si>
+  <si>
+    <t>Quantitative topic modeling results (nr of topics)</t>
+  </si>
+  <si>
+    <t>Nr. of topics</t>
+  </si>
+  <si>
+    <t>Fully automated</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence-to-sequence model </t>
+  </si>
+  <si>
+    <t>Label generation</t>
+  </si>
+  <si>
+    <t>Label generation process related to the proposed technique</t>
+  </si>
+  <si>
+    <t>Distant supervision</t>
+  </si>
+  <si>
+    <t>chin_2017_totem_personal_tweets_summarization_on_mobile_devices</t>
+  </si>
+  <si>
+    <t>Chin, Jin Yao and Bhowmick, Sourav S. and Jatowt, Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTEM: Personal Tweets Summarization on Mobile Devices </t>
+  </si>
+  <si>
+    <t>SIGIR’17</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Graph-based TextRank algorithm</t>
+  </si>
+  <si>
+    <t>LDA (with symmetric Dirichlet distributions)</t>
+  </si>
+  <si>
+    <t>Social media (Twitter)</t>
+  </si>
+  <si>
+    <t>Blogs, books, news, medical, miscellaneous (Wikipedia)</t>
+  </si>
+  <si>
+    <t>SIGIR'20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,13 +298,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -353,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -368,8 +427,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBE747-7FCC-5A4A-8955-66CF994F327A}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,24 +862,26 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
@@ -870,19 +936,21 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -890,98 +958,95 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>35</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>24</v>
@@ -989,175 +1054,244 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="D24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="144.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>49</v>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190D269-0EFA-9340-BC73-70490AA3F118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FFDC5-5486-FE4D-98AF-1B5D3FE871B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Origin and shape of the corpus</t>
   </si>
   <si>
-    <t>Quantitative topic modeling results (nr of topics)</t>
-  </si>
-  <si>
     <t>Nr. of topics</t>
   </si>
   <si>
@@ -277,6 +274,192 @@
   </si>
   <si>
     <t>SIGIR'20</t>
+  </si>
+  <si>
+    <t>Problem statement</t>
+  </si>
+  <si>
+    <t>Nr of topics generated from the corpus</t>
+  </si>
+  <si>
+    <t>Summary of problem statement</t>
+  </si>
+  <si>
+    <t>mukherjee_2020_read_what_you_need_controllable_aspect_based_opinion_summarization_of_tourist_reviews</t>
+  </si>
+  <si>
+    <t>Mukherjee, Rajdeep and Peruri, Hari Chandana and Vishnu, Uppada and Goyal, Pawan and Bhattacharya, Sourangshu and Ganguly, Niloy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read what you need: Controllable Aspect-based Opinion Summarization of Tourist Reviews </t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Established</t>
+  </si>
+  <si>
+    <t>Two-level manual labeling process</t>
+  </si>
+  <si>
+    <t>Attention-based Aspect Extraction (ABAE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourism and Hospitality </t>
+  </si>
+  <si>
+    <t>doogan_2021_topic_model_or_topic_twaddle_re_evaluating_semantic_interpretability_measures</t>
+  </si>
+  <si>
+    <t>Doogan, Caitlin and Buntine, Wray</t>
+  </si>
+  <si>
+    <t>Topic Model or Topic Twaddle? Re-evaluating Semantic Interpretability Measures</t>
+  </si>
+  <si>
+    <t>NAACL</t>
+  </si>
+  <si>
+    <t>Manual labeling from four SMEs</t>
+  </si>
+  <si>
+    <t>LDA, MetaLDA</t>
+  </si>
+  <si>
+    <t>Domain (Paper)</t>
+  </si>
+  <si>
+    <t>Domain (Dataset)</t>
+  </si>
+  <si>
+    <t>Topic modeling evaluation</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>pergola_2021_a_disentangled_adversarial_neural_topic_model_for_separating_opinions_from_plots_in_user_reviews</t>
+  </si>
+  <si>
+    <t>Pergola, Gabriele  and Gui, Lin  and He, Yulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Disentangled Adversarial Neural Topic Model for Separating Opinions from Plots in User Reviews </t>
+  </si>
+  <si>
+    <t>Novel?</t>
+  </si>
+  <si>
+    <t>Adversarial NTM (based on Variational Autoencoders)</t>
+  </si>
+  <si>
+    <t>Topic disentanglement</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>meng_2020_hierarchical_topic_mining_via_joint_spherical_tree_and_text_embedding</t>
+  </si>
+  <si>
+    <t>Meng, Yu and Zhang, Yunyi and Huang, Jiaxin and Zhang, Yu and Zhang, Chao and Han, Jiawei</t>
+  </si>
+  <si>
+    <t>KDD</t>
+  </si>
+  <si>
+    <t>Manual labeling</t>
+  </si>
+  <si>
+    <t>Weekly supervised hierarchical topic discovery</t>
+  </si>
+  <si>
+    <t>Topic hierarchies</t>
+  </si>
+  <si>
+    <t>News and Scientific Literature</t>
+  </si>
+  <si>
+    <t>zhang_2018_taxogen_unsupervised_topic_taxonomy_construction_by_adaptive_term_embedding_and_clustering</t>
+  </si>
+  <si>
+    <t>Zhang, Chao and Tao, Fangbo and Chen, Xiusi and Shen, Jiaming and Jiang, Meng and Sadler, Brian and Vanni, Michelle and Han, Jiawei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical Topic Mining via Joint Spherical Tree and Text Embedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering </t>
+  </si>
+  <si>
+    <t>TF-IDF combined with topic taxonomy analysis</t>
+  </si>
+  <si>
+    <t>Unsupervised hierarchical clustering</t>
+  </si>
+  <si>
+    <t>Topic taxonomies</t>
+  </si>
+  <si>
+    <t>Computer science research</t>
+  </si>
+  <si>
+    <t>huang_2020_corel_seed_guided_topical_taxonomy_construction_by_concept_learning_and_relation_transferring</t>
+  </si>
+  <si>
+    <t>Huang, Jiaxin and Xie, Yiqing and Meng, Yu and Zhang, Yunyi and Han, Jiawei</t>
+  </si>
+  <si>
+    <t>CoRel: Seed-Guided Topical Taxonomy Construction by Concept Learning and Relation Transferring</t>
+  </si>
+  <si>
+    <t>Partially automated</t>
+  </si>
+  <si>
+    <t>Transformer-based</t>
+  </si>
+  <si>
+    <t>Word embedding learning process guided by (extended) taxonomy</t>
+  </si>
+  <si>
+    <t>Scientific literature and Restaurants</t>
+  </si>
+  <si>
+    <t>zhou_2020_condolence_and_empathy_in_online_communities</t>
+  </si>
+  <si>
+    <t>Zhou, Naitian  and Jurgens, David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condolence and Empathy in Online Communities </t>
+  </si>
+  <si>
+    <t>EMNLP</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>Social media (Reddit)</t>
+  </si>
+  <si>
+    <t>wang_2021_phrase_bert_improved_phrase_embeddings_from_bert_with_an_application_to_corpus_exploration</t>
+  </si>
+  <si>
+    <t>Wang, Shufan  and Thompson, Laure  and Iyyer, Mohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrase-BERT: Improved Phrase Embeddings from BERT with an Application to Corpus Exploration </t>
+  </si>
+  <si>
+    <t>Transformer-based with auto encoder (phrase-based neural topic model)</t>
+  </si>
+  <si>
+    <t>Transformer models</t>
+  </si>
+  <si>
+    <t>Miscellaneous (Wikipedia), fiction, online store reviews</t>
   </si>
 </sst>
 </file>
@@ -300,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -425,15 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBE747-7FCC-5A4A-8955-66CF994F327A}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,20 +1034,20 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -936,19 +1104,19 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3"/>
@@ -989,16 +1157,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="8"/>
@@ -1007,13 +1175,15 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>62</v>
+      <c r="B16" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="3"/>
     </row>
@@ -1021,13 +1191,13 @@
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="8"/>
@@ -1039,13 +1209,13 @@
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1057,13 +1227,13 @@
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1112,10 +1282,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -1127,32 +1297,47 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1162,25 +1347,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" customWidth="1"/>
+    <col min="10" max="10" width="61.1640625" customWidth="1"/>
     <col min="11" max="11" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -1218,7 +1403,10 @@
         <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1238,60 +1426,361 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
       <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>2017</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>2021</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>2021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11">
+        <v>2021</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FFDC5-5486-FE4D-98AF-1B5D3FE871B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B61117E-0D7D-AD4C-8A7B-B0E7E8E070B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -460,6 +460,57 @@
   </si>
   <si>
     <t>Miscellaneous (Wikipedia), fiction, online store reviews</t>
+  </si>
+  <si>
+    <t>multilingual_topic_labelling_of_news_topics_using_ontological_mapping</t>
+  </si>
+  <si>
+    <t>Zosa, Elaine and Pivovarova, Lidia and Boggia, Michele and Ivanova, Sardana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilingual Topic Labelling of News Topics Using Ontological Mapping </t>
+  </si>
+  <si>
+    <t>ECIR</t>
+  </si>
+  <si>
+    <t>Ontology-based</t>
+  </si>
+  <si>
+    <t>Topic labeling</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>aletras_2017_labeling_topics_with_images_using_a_neural_network</t>
+  </si>
+  <si>
+    <t>Aletras, Nikolaos and Mittal, Arpit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labeling Topics with Images Using a Neural Network </t>
+  </si>
+  <si>
+    <t>Deep Neural Network</t>
+  </si>
+  <si>
+    <t>Miscellaneous (Wikipedia), news</t>
+  </si>
+  <si>
+    <t>sorodoc_2017_multimodal_topic_labelling</t>
+  </si>
+  <si>
+    <t>Sorodoc, Ionut  and Lau, Jey Han  and Aletras, Nikolaos  and Baldwin, Timothy</t>
+  </si>
+  <si>
+    <t>Multimodal Topic Labelling</t>
+  </si>
+  <si>
+    <t>EACL</t>
+  </si>
+  <si>
+    <t>Blogs, books, news, medical</t>
   </si>
 </sst>
 </file>
@@ -918,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBE747-7FCC-5A4A-8955-66CF994F327A}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1347,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,6 +1494,9 @@
       <c r="J2" t="s">
         <v>68</v>
       </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
       <c r="L2" t="s">
         <v>77</v>
       </c>
@@ -1783,7 +1837,122 @@
         <v>140</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B61117E-0D7D-AD4C-8A7B-B0E7E8E070B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35AD1AA-F9E6-E449-BA71-469E36A47D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -511,6 +511,36 @@
   </si>
   <si>
     <t>Blogs, books, news, medical</t>
+  </si>
+  <si>
+    <t>popa_2021_bart_tl_weakly_supervised_topic_label_generation</t>
+  </si>
+  <si>
+    <t>Popa, Cristian and Rebedea, Traian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BART-TL: Weakly-Supervised Topic Label Generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">English, Biology, Economics, Law, and Photography </t>
+  </si>
+  <si>
+    <t>zhao_2021_adversarial_learning_of_poisson_factorisation_model_for_gauging_brand_sentiment_in_user_reviews</t>
+  </si>
+  <si>
+    <t>Zhao, Runcong  and Gui, Lin  and Pergola, Gabriele  and He, Yulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adversarial Learning of Poisson Factorisation Model for Gauging Brand Sentiment in User Reviews </t>
+  </si>
+  <si>
+    <t>Poisson Factorisation model with adversarial learning</t>
+  </si>
+  <si>
+    <t>Online store reviews</t>
+  </si>
+  <si>
+    <t>Polarity-bearing topic modeling</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,7 +1443,7 @@
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.1640625" customWidth="1"/>
+    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61.1640625" customWidth="1"/>
     <col min="11" max="11" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48" bestFit="1" customWidth="1"/>
@@ -1951,6 +1981,82 @@
         <v>157</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35AD1AA-F9E6-E449-BA71-469E36A47D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A2084-9A09-D84B-8097-D1C0124BD989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="211">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -541,6 +541,135 @@
   </si>
   <si>
     <t>Polarity-bearing topic modeling</t>
+  </si>
+  <si>
+    <t>nouri_2020_mining_crowdsourcing_problems_from_discussion_forums_of_workers</t>
+  </si>
+  <si>
+    <t>Nouri, Zahra  and Wachsmuth, Henning  and Engels, Gregor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining Crowdsourcing Problems from Discussion Forums of Workers </t>
+  </si>
+  <si>
+    <t>COLING</t>
+  </si>
+  <si>
+    <t>Crowdsourcing</t>
+  </si>
+  <si>
+    <t>Workers' rights</t>
+  </si>
+  <si>
+    <t>yin_2022_improving_deep_embedded_clustering_via_learning_cluster_level_representations</t>
+  </si>
+  <si>
+    <t>Yin, Qing  and Wang, Zhihua  and Song, Yunya  and Xu, Yida  and Niu, Shuai  and Bai, Liang  and Guo, Yike  and Yang, Xian</t>
+  </si>
+  <si>
+    <t>Improving Deep Embedded Clustering via Learning Cluster-level Representations</t>
+  </si>
+  <si>
+    <t>Deep Embedding Clustering (DEC) model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded topic modelling (ETM) </t>
+  </si>
+  <si>
+    <t>Deep Embedded Clustering methods</t>
+  </si>
+  <si>
+    <t>News, online Q&amp;A, Biomedical</t>
+  </si>
+  <si>
+    <t>an_2018_model_free_context_aware_word_composition</t>
+  </si>
+  <si>
+    <t>An, Bo  and Han, Xianpei  and Sun, Le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model-Free Context-Aware Word Composition </t>
+  </si>
+  <si>
+    <t>GibbsLDA++</t>
+  </si>
+  <si>
+    <t>Word composition</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>hosseiny_2022_one_rating_to_rule_them_all_evidence_of_multidimensionality_in_human_assessment_of_topic_labeling_quality</t>
+  </si>
+  <si>
+    <t>Hosseiny Marani, Amin and Levine, Joshua and Baumer, Eric P.S.</t>
+  </si>
+  <si>
+    <t>One Rating to Rule Them All? Evidence of Multidimensionality in Human Assessment of Topic Labeling Quality</t>
+  </si>
+  <si>
+    <t>CIKM</t>
+  </si>
+  <si>
+    <t>Varied approaches</t>
+  </si>
+  <si>
+    <t>Topic labeling evaluation</t>
+  </si>
+  <si>
+    <t>News, Blogs, Diary entries</t>
+  </si>
+  <si>
+    <t>Spatial aggregation (for topic modeling)</t>
+  </si>
+  <si>
+    <t>maiti_2019_spatial_aggregation_facilitates_discovery_of_spatial_topics</t>
+  </si>
+  <si>
+    <t>Maiti, Aniruddha  and Vucetic, Slobodan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spatial Aggregation Facilitates Discovery of Spatial Topics </t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>NMF, LSA, LDA</t>
+  </si>
+  <si>
+    <t>huang_2018_phrasectm_correlated_topic_modeling_on_phrases_within_markov_random_fields</t>
+  </si>
+  <si>
+    <t>Huang, Weijing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhraseCTM: Correlated Topic Modeling on Phrases within Markov Random Fields </t>
+  </si>
+  <si>
+    <t>Phrase-level topic modeling</t>
+  </si>
+  <si>
+    <t>Correlated Topic Model (CTM)</t>
+  </si>
+  <si>
+    <t>News, Mathematics, Chemistry, papers in the medical domain, Miscellaneous (Wikipedia)</t>
+  </si>
+  <si>
+    <t>ibrahim_2019_a_text_analytics_approach_for_online_retailing_service_improvement_evidence_from_twitter</t>
+  </si>
+  <si>
+    <t>Noor Farizah Ibrahim and Xiaojun Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A text analytics approach for online retailing service improvement: Evidence from Twitter </t>
+  </si>
+  <si>
+    <t>Decision Support Systems</t>
+  </si>
+  <si>
+    <t>Online retailing</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1129,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,9 +1290,7 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1428,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,7 +1566,7 @@
     <col min="1" max="1" width="98" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -1494,7 +1621,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B2">
@@ -1532,7 +1659,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B3">
@@ -1567,7 +1694,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B4">
@@ -1602,7 +1729,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B5">
@@ -1640,7 +1767,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B6">
@@ -1678,7 +1805,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B7">
@@ -1716,7 +1843,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B8">
@@ -1754,7 +1881,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B9">
@@ -1830,7 +1957,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B11">
@@ -1868,7 +1995,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B12">
@@ -1906,7 +2033,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B13">
@@ -1944,7 +2071,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B14">
@@ -1982,7 +2109,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B15">
@@ -2055,6 +2182,272 @@
       </c>
       <c r="L16" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A2084-9A09-D84B-8097-D1C0124BD989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770687B0-60ED-4D44-A535-02E24C3C57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="236">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -670,6 +670,81 @@
   </si>
   <si>
     <t>Online retailing</t>
+  </si>
+  <si>
+    <t>sakshi_2022_recent_trends_in_mathematical_expressions_recognition_an_lda_based_analysis</t>
+  </si>
+  <si>
+    <t>Sakshi and Vinay Kukreja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent trends in mathematical expressions recognition: An LDA-based analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert Systems With Applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematical expression recognition (MER) </t>
+  </si>
+  <si>
+    <t>campos_2022_providing_recommendations_for_communities_of_learners_in_moocs_ecosystems</t>
+  </si>
+  <si>
+    <t>Rodrigo Campos and Rodrigo Pereira dos Santos and Jonice Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing recommendations for communities of learners in MOOCs ecosystems </t>
+  </si>
+  <si>
+    <t>Recommender systems (for MOOCs)</t>
+  </si>
+  <si>
+    <t>MOOCs courses</t>
+  </si>
+  <si>
+    <t>NMF, LDA</t>
+  </si>
+  <si>
+    <t>Statistical methods</t>
+  </si>
+  <si>
+    <t>amon_2022_is_it_all_bafflegab_linguistic_and_meta_characteristics_of_research_articles_in_prestigious_economics_journals</t>
+  </si>
+  <si>
+    <t>Julian Amon and Kurt Hornik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Informetrics </t>
+  </si>
+  <si>
+    <t>Article prestige discovery</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>chen_2019_experimental_explorations_on_short_text_topic_mining_between_lda_and_nmf_based_schemes</t>
+  </si>
+  <si>
+    <t>Yong Chen and Hui Zhang and Rui Liu and Zhiwen Ye and Jianying Lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental explorations on short text topic mining between LDA and NMF based Schemes </t>
+  </si>
+  <si>
+    <t>Knowledge-Based Systems</t>
+  </si>
+  <si>
+    <t>LDA, NMF, NMF-based method</t>
+  </si>
+  <si>
+    <t>Short text topic modeling</t>
+  </si>
+  <si>
+    <t>Miscellaneous (Google), News, Online Q&amp;A</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -1566,7 +1641,7 @@
     <col min="1" max="1" width="98" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -2450,6 +2525,158 @@
         <v>76</v>
       </c>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28">
+        <v>2022</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31">
+        <v>2019</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770687B0-60ED-4D44-A535-02E24C3C57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259CD726-F0A0-1E45-90B4-00C145564616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="241">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -745,6 +745,21 @@
   </si>
   <si>
     <t>Miscellaneous (Google), News, Online Q&amp;A</t>
+  </si>
+  <si>
+    <t>ebadi_2020_application_of_machine_learning_techniques_to_assess_the_trends_and_alignment_of_the_funded_research_output</t>
+  </si>
+  <si>
+    <t>Ashkan Ebadi and Stephane Tremblay and Cyril Goutte and Andrea Schiffauerova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application of machine learning techniques to assess the trends and alignment of the funded research output </t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>Funded research</t>
   </si>
 </sst>
 </file>
@@ -1630,15 +1645,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98" customWidth="1"/>
+    <col min="1" max="1" width="107.5" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
@@ -2677,6 +2692,44 @@
         <v>235</v>
       </c>
     </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259CD726-F0A0-1E45-90B4-00C145564616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8DBBA2-935F-B841-BCB7-0AB96DC9E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="253">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -760,6 +760,42 @@
   </si>
   <si>
     <t>Funded research</t>
+  </si>
+  <si>
+    <t>kim_2022_developing_a_topic_driven_method_for_interdisciplinarity_analysis</t>
+  </si>
+  <si>
+    <t>Hyeyoung Kim and Hyelin Park and Min Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing a topic-driven method for interdisciplinarity analysis </t>
+  </si>
+  <si>
+    <t>DMR</t>
+  </si>
+  <si>
+    <t>Interdisciplinarity</t>
+  </si>
+  <si>
+    <t>Literacy</t>
+  </si>
+  <si>
+    <t>xu_2020_topic_linked_innovation_paths_in_science_and_technology</t>
+  </si>
+  <si>
+    <t>Haiyun Xu and Jos Winnink and Zenghui Yue and Ziqiang Liu and Guoting Yuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic-linked innovation paths in science and technology </t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by automatic summarisation</t>
+  </si>
+  <si>
+    <t>Scientific innovation</t>
+  </si>
+  <si>
+    <t>Medical</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2730,6 +2766,82 @@
         <v>240</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33">
+        <v>2022</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8DBBA2-935F-B841-BCB7-0AB96DC9E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D612C36B-3E52-994C-991A-5236993B2D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="263">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -796,6 +796,36 @@
   </si>
   <si>
     <t>Medical</t>
+  </si>
+  <si>
+    <t>zhang_2018_does_deep_learning_help_topic_extraction_a_kernel_k_means_clustering_method_with_word_embedding</t>
+  </si>
+  <si>
+    <t>Yi Zhang and Jie Lu and Feng Liu and Qian Liu and Alan Porter and Hongshu Chen and Guangquan Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does deep learning help topic extraction? A kernel k-means clustering method with word embedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-means clustering method </t>
+  </si>
+  <si>
+    <t>Bibliometrics</t>
+  </si>
+  <si>
+    <t>kim_2022_exploring_scientific_trajectories_of_a_large_scale_dataset_using_topic_integrated_path_extraction</t>
+  </si>
+  <si>
+    <t>Erin H.J. Kim and Yoo Kyung Jeong and YongHwan Kim and Min Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring scientific trajectories of a large-scale dataset using topic-integrated path extraction </t>
+  </si>
+  <si>
+    <t>Healthcare informatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citation analysis </t>
   </si>
 </sst>
 </file>
@@ -1681,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2842,6 +2872,82 @@
         <v>252</v>
       </c>
     </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" t="s">
+        <v>256</v>
+      </c>
+      <c r="K35" t="s">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36">
+        <v>2022</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D612C36B-3E52-994C-991A-5236993B2D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DA0CE-F04C-AA46-86B5-E5D724590BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="272">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -654,9 +654,6 @@
     <t>Correlated Topic Model (CTM)</t>
   </si>
   <si>
-    <t>News, Mathematics, Chemistry, papers in the medical domain, Miscellaneous (Wikipedia)</t>
-  </si>
-  <si>
     <t>ibrahim_2019_a_text_analytics_approach_for_online_retailing_service_improvement_evidence_from_twitter</t>
   </si>
   <si>
@@ -826,6 +823,36 @@
   </si>
   <si>
     <t xml:space="preserve">Citation analysis </t>
+  </si>
+  <si>
+    <t>News, Mathematics, Chemistry, Medical domain, Miscellaneous (Wikipedia)</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>cassi_2017_improving_fitness_mapping_research_priorities_against_societal_needs_on_obesity</t>
+  </si>
+  <si>
+    <t>Lorenzo Cassi and Agenor Lahatte and Ismael Rafols and Pierre Sautier and Elisabeth de Turckheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving fitness: Mapping research priorities against societal needs on obesity </t>
+  </si>
+  <si>
+    <t>Probability-based method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social media analysis </t>
+  </si>
+  <si>
+    <t>alp_2019_influence_factorization_for_identifying_authorities_in_twitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeynep Zengin Alp, Şule Gündüz Öğüdücü </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence Factorization for identifying authorities in Twitter </t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2106,7 +2133,7 @@
         <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="L10" t="s">
         <v>134</v>
@@ -2565,24 +2592,24 @@
         <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
         <v>207</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>208</v>
-      </c>
-      <c r="E27" t="s">
-        <v>209</v>
       </c>
       <c r="F27" t="s">
         <v>85</v>
@@ -2600,7 +2627,7 @@
         <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
         <v>76</v>
@@ -2608,19 +2635,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28">
         <v>2022</v>
       </c>
       <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
         <v>212</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>213</v>
-      </c>
-      <c r="E28" t="s">
-        <v>214</v>
       </c>
       <c r="F28" t="s">
         <v>85</v>
@@ -2638,27 +2665,27 @@
         <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29">
         <v>2022</v>
       </c>
       <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
         <v>217</v>
       </c>
-      <c r="D29" t="s">
-        <v>218</v>
-      </c>
       <c r="E29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -2670,33 +2697,33 @@
         <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
         <v>219</v>
-      </c>
-      <c r="L29" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30">
         <v>2022</v>
       </c>
       <c r="C30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" t="s">
         <v>224</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>225</v>
-      </c>
-      <c r="E30" t="s">
-        <v>226</v>
       </c>
       <c r="F30" t="s">
         <v>85</v>
@@ -2714,27 +2741,27 @@
         <v>133</v>
       </c>
       <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
         <v>227</v>
-      </c>
-      <c r="L30" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31">
         <v>2019</v>
       </c>
       <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" t="s">
         <v>230</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>231</v>
-      </c>
-      <c r="E31" t="s">
-        <v>232</v>
       </c>
       <c r="F31" t="s">
         <v>85</v>
@@ -2749,30 +2776,30 @@
         <v>110</v>
       </c>
       <c r="J31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s">
         <v>233</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>234</v>
-      </c>
-      <c r="L31" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" t="s">
         <v>237</v>
       </c>
-      <c r="D32" t="s">
-        <v>238</v>
-      </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
         <v>85</v>
@@ -2787,30 +2814,30 @@
         <v>110</v>
       </c>
       <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
         <v>239</v>
       </c>
-      <c r="K32" t="s">
-        <v>240</v>
-      </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33">
         <v>2022</v>
       </c>
       <c r="C33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" t="s">
         <v>242</v>
       </c>
-      <c r="D33" t="s">
-        <v>243</v>
-      </c>
       <c r="E33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
         <v>85</v>
@@ -2825,30 +2852,30 @@
         <v>110</v>
       </c>
       <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
         <v>244</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>245</v>
-      </c>
-      <c r="L33" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34">
         <v>2020</v>
       </c>
       <c r="C34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" t="s">
         <v>248</v>
       </c>
-      <c r="D34" t="s">
-        <v>249</v>
-      </c>
       <c r="E34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
         <v>125</v>
@@ -2860,33 +2887,33 @@
         <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
         <v>133</v>
       </c>
       <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
         <v>251</v>
-      </c>
-      <c r="L34" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35">
         <v>2018</v>
       </c>
       <c r="C35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" t="s">
         <v>254</v>
       </c>
-      <c r="D35" t="s">
-        <v>255</v>
-      </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F35" t="s">
         <v>85</v>
@@ -2901,30 +2928,30 @@
         <v>110</v>
       </c>
       <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
         <v>256</v>
       </c>
-      <c r="K35" t="s">
-        <v>257</v>
-      </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36">
         <v>2022</v>
       </c>
       <c r="C36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" t="s">
         <v>259</v>
       </c>
-      <c r="D36" t="s">
-        <v>260</v>
-      </c>
       <c r="E36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
         <v>85</v>
@@ -2942,10 +2969,86 @@
         <v>133</v>
       </c>
       <c r="K36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <v>2017</v>
+      </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38">
+        <v>2019</v>
+      </c>
+      <c r="C38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" t="s">
+        <v>133</v>
+      </c>
+      <c r="K38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DA0CE-F04C-AA46-86B5-E5D724590BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF59A4-171E-D947-92C3-A6C491B4F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="295">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -853,6 +853,75 @@
   </si>
   <si>
     <t xml:space="preserve">Influence Factorization for identifying authorities in Twitter </t>
+  </si>
+  <si>
+    <t>alp_2018_identifying_topical_influencers_on_twitter_based_on_user_behavior_and_network_topology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying topical influencers on twitter based on user behavior and network topology </t>
+  </si>
+  <si>
+    <t>Computer science and AI</t>
+  </si>
+  <si>
+    <t>Detecting and predicting the topic change of Knowledge-based Systems: A topic-based bibliometric analysis from 1991 to 2016</t>
+  </si>
+  <si>
+    <t>Yi Zhang and Hongshu Chen and Jie Lu and Guangquan Zhang</t>
+  </si>
+  <si>
+    <t>zhang_2017_detecting_and_predicting_the_topic_change_of_knowledge_based_systems_a_topic_based_bibliometric_analysis_from_1991_to_2016</t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by topic polarity &amp; associated documents</t>
+  </si>
+  <si>
+    <t>gregoriades_2021_supporting_digital_content_marketing_and_messaging_through_topic_modelling_and_decision_trees</t>
+  </si>
+  <si>
+    <t>Andreas Gregoriades and Maria Pampaka and Herodotos Herodotou and Evripides Christodoulou</t>
+  </si>
+  <si>
+    <t>Supporting digital content marketing and messaging through topic modelling and decision trees</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>korencic_2018_document_based_topic_coherence_measures_for_news_media_text</t>
+  </si>
+  <si>
+    <t>Damir Korencic and Strahil Ristov and Jan Snajder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document-based topic coherence measures for news media text </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by associated documents</t>
+  </si>
+  <si>
+    <t>Topic coherence</t>
+  </si>
+  <si>
+    <t>MOOCs courses &amp; reviews</t>
+  </si>
+  <si>
+    <t>Top-words selection and manual category assignment</t>
+  </si>
+  <si>
+    <t>Fully automated &amp; Partially automated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large scale analysis of open MOOC reviews to support learners’ course selection </t>
+  </si>
+  <si>
+    <t>Manuel J. Gomez and Mario Calderon and Victor Sanchez and Felix J. Garcia Clemente and Jose A. Ruiperez-Valiente</t>
+  </si>
+  <si>
+    <t>gomez_2022_large_scale_analysis_of_open_mooc_reviews_to_support_learners_course_selection</t>
   </si>
 </sst>
 </file>
@@ -1738,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3051,6 +3120,201 @@
         <v>76</v>
       </c>
     </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" t="s">
+        <v>268</v>
+      </c>
+      <c r="L39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40">
+        <v>2017</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" t="s">
+        <v>256</v>
+      </c>
+      <c r="L40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42">
+        <v>2018</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J42" t="s">
+        <v>133</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43">
+        <v>2022</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" t="s">
+        <v>218</v>
+      </c>
+      <c r="L43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF59A4-171E-D947-92C3-A6C491B4F90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E628B-CFDD-BD4E-B454-701AD2CC3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="312">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -897,9 +897,6 @@
     <t xml:space="preserve">Document-based topic coherence measures for news media text </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Manual labeling assisted by associated documents</t>
   </si>
   <si>
@@ -922,6 +919,60 @@
   </si>
   <si>
     <t>gomez_2022_large_scale_analysis_of_open_mooc_reviews_to_support_learners_course_selection</t>
+  </si>
+  <si>
+    <t>pablos_2018_w2vlda_almost_unsupervised_system_for_aspect_based_sentiment_analysis</t>
+  </si>
+  <si>
+    <t>Aitor Garcia-Pablos and Montse Cuadros and German Rigau</t>
+  </si>
+  <si>
+    <t>W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>LDA-based</t>
+  </si>
+  <si>
+    <t>Opinion mining</t>
+  </si>
+  <si>
+    <t>Partially automated &amp; Manual</t>
+  </si>
+  <si>
+    <t>(MaxEnt) based classification model, Manual labeling</t>
+  </si>
+  <si>
+    <t>Hotels &amp; Restaurants (Reviews)</t>
+  </si>
+  <si>
+    <t>Restaurant (Reviews)</t>
+  </si>
+  <si>
+    <t>fang_2021_criteria_determination_of_analytic_hierarchy_process_using_a_topic_model</t>
+  </si>
+  <si>
+    <t>Jin Fang and Fariborz Y. Partovi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria determination of analytic hierarchy process using a topic model </t>
+  </si>
+  <si>
+    <t>Manual assignment of pre-existing aspect labels</t>
+  </si>
+  <si>
+    <t>korfiatis_2019_measuring_service_quality_from_unstructured_data_a_topic_modeling_application_on_airline_passengers_online_reviews</t>
+  </si>
+  <si>
+    <t>Nikolaos Korfiatis and Panagiotis Stamolampros and Panos Kourouthanassis and Vasileios Sagiadinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring service quality from unstructured data: A topic modeling application on airline passengers’ online reviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service quality </t>
+  </si>
+  <si>
+    <t>Airline reviews</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="I23" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3260,13 +3311,13 @@
         <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J42" t="s">
         <v>133</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s">
         <v>147</v>
@@ -3274,22 +3325,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B43">
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E43" t="s">
         <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G43" t="s">
         <v>73</v>
@@ -3298,7 +3349,7 @@
         <v>86</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J43" t="s">
         <v>133</v>
@@ -3307,12 +3358,118 @@
         <v>218</v>
       </c>
       <c r="L43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44">
+        <v>2018</v>
+      </c>
+      <c r="C44" t="s">
+        <v>295</v>
+      </c>
       <c r="D44" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" t="s">
+        <v>298</v>
+      </c>
+      <c r="L44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45">
+        <v>2021</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" t="s">
+        <v>306</v>
+      </c>
+      <c r="J45" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>307</v>
+      </c>
+      <c r="B46">
+        <v>2019</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" t="s">
         <v>286</v>
+      </c>
+      <c r="J46" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" t="s">
+        <v>310</v>
+      </c>
+      <c r="L46" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E628B-CFDD-BD4E-B454-701AD2CC3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBA423-AF37-014F-947F-11847A225574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="320">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -973,6 +973,30 @@
   </si>
   <si>
     <t>Airline reviews</t>
+  </si>
+  <si>
+    <t>bastani_2019_latent_dirichlet_allocation_lda_for_topic_modeling_of_the_cfpb_consumer_complaints</t>
+  </si>
+  <si>
+    <t>Kaveh Bastani and Hamed Namavari and Jeffrey Shaffer</t>
+  </si>
+  <si>
+    <t>Consumer complaints</t>
+  </si>
+  <si>
+    <t>Climate change</t>
+  </si>
+  <si>
+    <t>The climate change Twitter dataset</t>
+  </si>
+  <si>
+    <t>Dimitrios Effrosynidis and Alexandros I. Karasakalidis and Georgios Sylaios and Avi Arampatzis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latent Dirichlet allocation (LDA) for topic modeling of the CFPB consumer complaints </t>
+  </si>
+  <si>
+    <t>effrosynidis_2022_the_climate_change_twitter_dataset</t>
   </si>
 </sst>
 </file>
@@ -1858,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3472,6 +3496,82 @@
         <v>311</v>
       </c>
     </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B47">
+        <v>2019</v>
+      </c>
+      <c r="C47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48">
+        <v>2022</v>
+      </c>
+      <c r="C48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48" t="s">
+        <v>133</v>
+      </c>
+      <c r="K48" t="s">
+        <v>315</v>
+      </c>
+      <c r="L48" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBA423-AF37-014F-947F-11847A225574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA038FEA-E941-6646-8FF6-165A5DD8A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="333">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -997,6 +997,45 @@
   </si>
   <si>
     <t>effrosynidis_2022_the_climate_change_twitter_dataset</t>
+  </si>
+  <si>
+    <t>kim_2020_word2vec_based_latent_semantic_analysis_w2v_lsa_for_topic_modeling_a_study_on_blockchain_technology_trend_analysis</t>
+  </si>
+  <si>
+    <t>Suhyeon Kim and Haecheong Park and Junghye Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word2vec-based latent semantic analysis (W2V-LSA) for topic modeling: A study on blockchain technology trend analysis </t>
+  </si>
+  <si>
+    <t>Expert Systems with Applications</t>
+  </si>
+  <si>
+    <t>Word2vec and Spherical k-means clustering based technique</t>
+  </si>
+  <si>
+    <t>Topic modeling</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
+  </si>
+  <si>
+    <t>roeder_2022_data_driven_decision_making_in_credit_risk_management_the_information_value_of_analyst_reports</t>
+  </si>
+  <si>
+    <t>Jan Roeder and Matthias Palmer and Jan Muntermann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data-driven decision-making in credit risk management: The information value of analyst reports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Support Systems </t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by topic prevalence information</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -1882,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3572,6 +3611,82 @@
         <v>76</v>
       </c>
     </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49">
+        <v>2020</v>
+      </c>
+      <c r="C49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D49" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" t="s">
+        <v>323</v>
+      </c>
+      <c r="F49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50">
+        <v>2022</v>
+      </c>
+      <c r="C50" t="s">
+        <v>328</v>
+      </c>
+      <c r="D50" t="s">
+        <v>329</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" t="s">
+        <v>331</v>
+      </c>
+      <c r="J50" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" t="s">
+        <v>332</v>
+      </c>
+      <c r="L50" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA038FEA-E941-6646-8FF6-165A5DD8A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F23EAC9-9DA2-5D41-9A1B-5E5E5B723BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="343">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1036,13 +1036,43 @@
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>goldberg_2022_sourcing_product_innovation_intelligence_from_online_reviews</t>
+  </si>
+  <si>
+    <t>David M. Goldberg and Alan S. Abrahams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourcing product innovation intelligence from online reviews </t>
+  </si>
+  <si>
+    <t>Online reviews (Amazon)</t>
+  </si>
+  <si>
+    <t>Text mining</t>
+  </si>
+  <si>
+    <t>Tourism and Hospitality, Sharing economy</t>
+  </si>
+  <si>
+    <t>LSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do consumers in the sharing economy value sharing? Evidence from online reviews </t>
+  </si>
+  <si>
+    <t>Xun Xu</t>
+  </si>
+  <si>
+    <t>xu_2020_how_do_consumers_in_the_sharing_economy_value_sharing_evidence_from_online_reviews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1054,6 +1084,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1165,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1178,6 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1921,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3687,6 +3725,82 @@
         <v>332</v>
       </c>
     </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51">
+        <v>2022</v>
+      </c>
+      <c r="C51" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" t="s">
+        <v>335</v>
+      </c>
+      <c r="E51" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s">
+        <v>110</v>
+      </c>
+      <c r="J51" t="s">
+        <v>133</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52">
+        <v>2020</v>
+      </c>
+      <c r="C52" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" t="s">
+        <v>330</v>
+      </c>
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="L52" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F23EAC9-9DA2-5D41-9A1B-5E5E5B723BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604310F0-223F-F141-8A91-C79E23999D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="362">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1066,6 +1066,63 @@
   </si>
   <si>
     <t>xu_2020_how_do_consumers_in_the_sharing_economy_value_sharing_evidence_from_online_reviews</t>
+  </si>
+  <si>
+    <t>wahid_2022_topic2labels_a_framework_to_annotate_and_classify_the_social_media_data_through_lda_topics_and_deep_learning_models_for_crisis_response</t>
+  </si>
+  <si>
+    <t>Junaid Abdul Wahid and Lei Shi and Yufei Gao and Bei Yang and Lin Wei and Yongcai Tao and Shabir Hussain and Muhammad Ayoub and Imam Yagoub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic2Labels: A framework to annotate and classify the social media data through LDA topics and deep learning models for crisis response </t>
+  </si>
+  <si>
+    <t>lebena_2022_preliminary_exploration_of_topic_modelling_representations_for_electronic_health_records_coding_according_to_the_international_classification_of_diseases_in_spanish</t>
+  </si>
+  <si>
+    <t>Nuria Lebena and Alberto Blanco and Alicia Perez and Arantza Casillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preliminary exploration of topic modelling representations for Electronic Health Records coding according to the International Classification of Diseases in Spanish </t>
+  </si>
+  <si>
+    <t>PLDA</t>
+  </si>
+  <si>
+    <t>Medical (HERs)</t>
+  </si>
+  <si>
+    <t>Result of supervised topic modeling (PLDA)</t>
+  </si>
+  <si>
+    <t>altinel_2022_social_media_analysis_by_innovative_hybrid_algorithms_with_label_propagation</t>
+  </si>
+  <si>
+    <t>Ayse Berna Altınel</t>
+  </si>
+  <si>
+    <t>Social media analysis by innovative hybrid algorithms with label propagation</t>
+  </si>
+  <si>
+    <t>zhang_2019_learning_document_representation_via_topic_enhanced_lstm_model</t>
+  </si>
+  <si>
+    <t>Wenyue Zhang and Yang Li and Suge Wang</t>
+  </si>
+  <si>
+    <t>Learning document representation via topic-enhanced LSTM model</t>
+  </si>
+  <si>
+    <t>Result of supervised topic modeling (Latent topic modeling layer)</t>
+  </si>
+  <si>
+    <t>Latent topic modeling layer</t>
+  </si>
+  <si>
+    <t>News, Miscellaneous (Wikipedia, SemEval2007), Online store reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document representation </t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1216,6 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1959,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3801,6 +3865,158 @@
         <v>89</v>
       </c>
     </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>343</v>
+      </c>
+      <c r="B53">
+        <v>2022</v>
+      </c>
+      <c r="C53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D53" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" t="s">
+        <v>323</v>
+      </c>
+      <c r="F53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" t="s">
+        <v>133</v>
+      </c>
+      <c r="K53" t="s">
+        <v>268</v>
+      </c>
+      <c r="L53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E54" t="s">
+        <v>323</v>
+      </c>
+      <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" t="s">
+        <v>351</v>
+      </c>
+      <c r="J54" t="s">
+        <v>349</v>
+      </c>
+      <c r="K54" t="s">
+        <v>263</v>
+      </c>
+      <c r="L54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55">
+        <v>2022</v>
+      </c>
+      <c r="C55" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" t="s">
+        <v>354</v>
+      </c>
+      <c r="E55" t="s">
+        <v>323</v>
+      </c>
+      <c r="F55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" t="s">
+        <v>286</v>
+      </c>
+      <c r="J55" t="s">
+        <v>133</v>
+      </c>
+      <c r="K55" t="s">
+        <v>268</v>
+      </c>
+      <c r="L55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56">
+        <v>2019</v>
+      </c>
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" t="s">
+        <v>357</v>
+      </c>
+      <c r="E56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" t="s">
+        <v>359</v>
+      </c>
+      <c r="K56" t="s">
+        <v>361</v>
+      </c>
+      <c r="L56" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604310F0-223F-F141-8A91-C79E23999D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137CFA2-AEF1-B144-A5FC-19764F8ECC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="386">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -255,9 +255,6 @@
     <t xml:space="preserve">TOTEM: Personal Tweets Summarization on Mobile Devices </t>
   </si>
   <si>
-    <t>SIGIR’17</t>
-  </si>
-  <si>
     <t>Secondary</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>Blogs, books, news, medical, miscellaneous (Wikipedia)</t>
   </si>
   <si>
-    <t>SIGIR'20</t>
-  </si>
-  <si>
     <t>Problem statement</t>
   </si>
   <si>
@@ -1123,6 +1117,84 @@
   </si>
   <si>
     <t xml:space="preserve">Document representation </t>
+  </si>
+  <si>
+    <t>chen_2020_a_topic_sensitive_trust_evaluation_approach_for_users_in_online_communities</t>
+  </si>
+  <si>
+    <t>Xu Chen and Yuyu Yuan and Mehmet Ali Orgun and Lilei Lu</t>
+  </si>
+  <si>
+    <t>A topic-sensitive trust evaluation approach for users in online communities</t>
+  </si>
+  <si>
+    <t>Result of supervised topic modeling (LLDA)</t>
+  </si>
+  <si>
+    <t>LLDA</t>
+  </si>
+  <si>
+    <t>Trust evaluation</t>
+  </si>
+  <si>
+    <t>Online Q&amp;A</t>
+  </si>
+  <si>
+    <t>SIGIR</t>
+  </si>
+  <si>
+    <t>Result of supervised topic modeling (sToMCAT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Topic Modeling with Cycle-Consistent Adversarial Training </t>
+  </si>
+  <si>
+    <t>News, miscellaneous (Wikipedia)</t>
+  </si>
+  <si>
+    <t>Hu, Xuemeng  and Wang, Rui  and Zhou, Deyu  and Xiong, Yuxuan</t>
+  </si>
+  <si>
+    <t>hu_2020_neural_topic_modeling_with_cycle_consistent_adversarial_training</t>
+  </si>
+  <si>
+    <t>Neural topic model (with cycle-consistent adversarial training and MLP classifier), sLDA, SCHOLAR</t>
+  </si>
+  <si>
+    <t>yang_2017_adapting_topic_models_using_lexical_associations_with_tree_priors</t>
+  </si>
+  <si>
+    <t>Yang, Weiwei  and Boyd-Graber, Jordan  and Resnik, Philip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapting Topic Models using Lexical Associations with Tree Priors </t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by gold standard labels from dataset</t>
+  </si>
+  <si>
+    <t>tLDA, LDA</t>
+  </si>
+  <si>
+    <t>(Neural) topic modeling</t>
+  </si>
+  <si>
+    <t>Topic modeling (with tree priors)</t>
+  </si>
+  <si>
+    <t>lau_2017_topically_driven_neural_language_model</t>
+  </si>
+  <si>
+    <t>Lau, Jey Han  and Baldwin, Timothy  and Cohn, Trevor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topically Driven Neural Language Model </t>
+  </si>
+  <si>
+    <t>Result of supervised topic modeling (supervised tdlm), LSTM-based</t>
+  </si>
+  <si>
+    <t>Neural topic model (associated with LSTM-based language model), ntm, sLDA</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1280,6 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,7 +1928,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
@@ -1958,10 +2031,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -2023,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2079,10 +2152,10 @@
         <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -2102,7 +2175,7 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
@@ -2120,10 +2193,10 @@
         <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2140,156 +2213,156 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>367</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
         <v>64</v>
       </c>
       <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
         <v>74</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>86</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>87</v>
-      </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>2021</v>
       </c>
       <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>2021</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
         <v>103</v>
       </c>
-      <c r="I6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>104</v>
-      </c>
-      <c r="K6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>2020</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -2298,74 +2371,74 @@
         <v>64</v>
       </c>
       <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
         <v>110</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
         <v>64</v>
       </c>
       <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s">
         <v>118</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>2020</v>
       </c>
       <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
         <v>123</v>
-      </c>
-      <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>125</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
@@ -2374,109 +2447,109 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" t="s">
         <v>126</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
         <v>130</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
         <v>131</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" t="s">
         <v>132</v>
-      </c>
-      <c r="F10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>2021</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" t="s">
         <v>138</v>
-      </c>
-      <c r="K11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>2022</v>
       </c>
       <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
         <v>142</v>
-      </c>
-      <c r="D12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" t="s">
-        <v>144</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
@@ -2488,33 +2561,33 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s">
         <v>145</v>
-      </c>
-      <c r="J12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
@@ -2526,33 +2599,33 @@
         <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>2017</v>
       </c>
       <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
         <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" t="s">
-        <v>156</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -2564,33 +2637,33 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15">
         <v>2021</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -2602,185 +2675,185 @@
         <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16">
         <v>2021</v>
       </c>
       <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" t="s">
         <v>163</v>
       </c>
-      <c r="D16" t="s">
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
         <v>164</v>
-      </c>
-      <c r="E16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" t="s">
-        <v>167</v>
-      </c>
-      <c r="L16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17">
         <v>2020</v>
       </c>
       <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
         <v>170</v>
       </c>
-      <c r="E17" t="s">
+      <c r="L17" t="s">
         <v>171</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18">
         <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
         <v>64</v>
       </c>
       <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
         <v>177</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>178</v>
-      </c>
-      <c r="K18" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>2018</v>
       </c>
       <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
         <v>182</v>
       </c>
-      <c r="D19" t="s">
+      <c r="K19" t="s">
         <v>183</v>
       </c>
-      <c r="E19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>184</v>
-      </c>
-      <c r="K19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20">
         <v>2022</v>
       </c>
       <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" t="s">
         <v>188</v>
-      </c>
-      <c r="D20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" t="s">
-        <v>190</v>
       </c>
       <c r="F20" t="s">
         <v>62</v>
@@ -2789,188 +2862,302 @@
         <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
         <v>191</v>
-      </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21">
         <v>2019</v>
       </c>
       <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" t="s">
         <v>196</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" t="s">
         <v>197</v>
       </c>
-      <c r="E21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" t="s">
-        <v>199</v>
-      </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22">
         <v>2018</v>
       </c>
       <c r="C22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
         <v>201</v>
       </c>
-      <c r="D22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" t="s">
-        <v>203</v>
-      </c>
       <c r="L22" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" t="s">
+        <v>368</v>
+      </c>
+      <c r="J23" t="s">
+        <v>373</v>
+      </c>
+      <c r="K23" t="s">
+        <v>379</v>
+      </c>
+      <c r="L23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" t="s">
+        <v>377</v>
+      </c>
+      <c r="J24" t="s">
+        <v>378</v>
+      </c>
+      <c r="K24" t="s">
+        <v>380</v>
+      </c>
+      <c r="L24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>384</v>
+      </c>
+      <c r="J25" t="s">
+        <v>385</v>
+      </c>
+      <c r="K25" t="s">
+        <v>379</v>
+      </c>
+      <c r="L25" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
         <v>206</v>
       </c>
-      <c r="D27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" t="s">
-        <v>208</v>
-      </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
         <v>64</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>2022</v>
       </c>
       <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
         <v>211</v>
       </c>
-      <c r="D28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" t="s">
-        <v>213</v>
-      </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29">
         <v>2022</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -2979,495 +3166,495 @@
         <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B30">
         <v>2022</v>
       </c>
       <c r="C30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" t="s">
         <v>223</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" t="s">
         <v>224</v>
       </c>
-      <c r="E30" t="s">
+      <c r="L30" t="s">
         <v>225</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" t="s">
-        <v>226</v>
-      </c>
-      <c r="L30" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B31">
         <v>2019</v>
       </c>
       <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" t="s">
         <v>229</v>
       </c>
-      <c r="D31" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" t="s">
-        <v>231</v>
-      </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
         <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
         <v>232</v>
-      </c>
-      <c r="K31" t="s">
-        <v>233</v>
-      </c>
-      <c r="L31" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" t="s">
         <v>236</v>
       </c>
-      <c r="D32" t="s">
+      <c r="K32" t="s">
         <v>237</v>
       </c>
-      <c r="E32" t="s">
-        <v>225</v>
-      </c>
-      <c r="F32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" t="s">
-        <v>238</v>
-      </c>
-      <c r="K32" t="s">
-        <v>239</v>
-      </c>
       <c r="L32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33">
         <v>2022</v>
       </c>
       <c r="C33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" t="s">
         <v>241</v>
       </c>
-      <c r="D33" t="s">
+      <c r="K33" t="s">
         <v>242</v>
       </c>
-      <c r="E33" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>243</v>
-      </c>
-      <c r="K33" t="s">
-        <v>244</v>
-      </c>
-      <c r="L33" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B34">
         <v>2020</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
         <v>64</v>
       </c>
       <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
         <v>249</v>
-      </c>
-      <c r="J34" t="s">
-        <v>133</v>
-      </c>
-      <c r="K34" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B35">
         <v>2018</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
         <v>64</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B36">
         <v>2022</v>
       </c>
       <c r="C36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s">
         <v>258</v>
-      </c>
-      <c r="D36" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" t="s">
-        <v>261</v>
-      </c>
-      <c r="L36" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B37">
         <v>2017</v>
       </c>
       <c r="C37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F37" t="s">
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B38">
         <v>2019</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B39">
         <v>2018</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B40">
         <v>2017</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B41">
         <v>2021</v>
       </c>
       <c r="C41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" t="s">
+        <v>276</v>
+      </c>
+      <c r="J41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" t="s">
         <v>280</v>
       </c>
-      <c r="D41" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" t="s">
-        <v>278</v>
-      </c>
-      <c r="J41" t="s">
-        <v>238</v>
-      </c>
-      <c r="K41" t="s">
-        <v>282</v>
-      </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B42">
         <v>2018</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G42" t="s">
         <v>63</v>
@@ -3476,74 +3663,74 @@
         <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B43">
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B44">
         <v>2018</v>
       </c>
       <c r="C44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G44" t="s">
         <v>63</v>
@@ -3552,469 +3739,507 @@
         <v>64</v>
       </c>
       <c r="I44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" t="s">
         <v>300</v>
-      </c>
-      <c r="J44" t="s">
-        <v>297</v>
-      </c>
-      <c r="K44" t="s">
-        <v>298</v>
-      </c>
-      <c r="L44" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B45">
         <v>2021</v>
       </c>
       <c r="C45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" t="s">
+        <v>303</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" t="s">
         <v>304</v>
       </c>
-      <c r="D45" t="s">
-        <v>305</v>
-      </c>
-      <c r="E45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" t="s">
-        <v>125</v>
-      </c>
-      <c r="G45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" t="s">
-        <v>306</v>
-      </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B46">
         <v>2019</v>
       </c>
       <c r="C46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" t="s">
+        <v>284</v>
+      </c>
+      <c r="J46" t="s">
+        <v>236</v>
+      </c>
+      <c r="K46" t="s">
         <v>308</v>
       </c>
-      <c r="D46" t="s">
+      <c r="L46" t="s">
         <v>309</v>
-      </c>
-      <c r="E46" t="s">
-        <v>213</v>
-      </c>
-      <c r="F46" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I46" t="s">
-        <v>286</v>
-      </c>
-      <c r="J46" t="s">
-        <v>238</v>
-      </c>
-      <c r="K46" t="s">
-        <v>310</v>
-      </c>
-      <c r="L46" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B47">
         <v>2019</v>
       </c>
       <c r="C47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B48">
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B49">
         <v>2020</v>
       </c>
       <c r="C49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" t="s">
         <v>321</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" t="s">
         <v>322</v>
       </c>
-      <c r="E49" t="s">
+      <c r="K49" t="s">
         <v>323</v>
       </c>
-      <c r="F49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" t="s">
-        <v>110</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>324</v>
-      </c>
-      <c r="K49" t="s">
-        <v>325</v>
-      </c>
-      <c r="L49" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50">
         <v>2022</v>
       </c>
       <c r="C50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" t="s">
         <v>328</v>
       </c>
-      <c r="D50" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" t="s">
-        <v>330</v>
-      </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
         <v>64</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B51">
         <v>2022</v>
       </c>
       <c r="C51" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" t="s">
+        <v>328</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" t="s">
+        <v>108</v>
+      </c>
+      <c r="J51" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" t="s">
+        <v>335</v>
+      </c>
+      <c r="L51" t="s">
         <v>334</v>
-      </c>
-      <c r="D51" t="s">
-        <v>335</v>
-      </c>
-      <c r="E51" t="s">
-        <v>330</v>
-      </c>
-      <c r="F51" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" t="s">
-        <v>110</v>
-      </c>
-      <c r="J51" t="s">
-        <v>133</v>
-      </c>
-      <c r="K51" t="s">
-        <v>337</v>
-      </c>
-      <c r="L51" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B52">
         <v>2020</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E52" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B53">
         <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B54">
         <v>2022</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F54" t="s">
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L54" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B55">
         <v>2022</v>
       </c>
       <c r="C55" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B56">
         <v>2019</v>
       </c>
       <c r="C56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
         <v>62</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
         <v>64</v>
       </c>
       <c r="I56" t="s">
+        <v>356</v>
+      </c>
+      <c r="J56" t="s">
+        <v>357</v>
+      </c>
+      <c r="K56" t="s">
+        <v>359</v>
+      </c>
+      <c r="L56" t="s">
         <v>358</v>
       </c>
-      <c r="J56" t="s">
-        <v>359</v>
-      </c>
-      <c r="K56" t="s">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57">
+        <v>2020</v>
+      </c>
+      <c r="C57" t="s">
         <v>361</v>
       </c>
-      <c r="L56" t="s">
-        <v>360</v>
+      <c r="D57" t="s">
+        <v>362</v>
+      </c>
+      <c r="E57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s">
+        <v>365</v>
+      </c>
+      <c r="L57" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137CFA2-AEF1-B144-A5FC-19764F8ECC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346661B1-89DF-B846-9803-3781B4B709BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="399">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1195,6 +1195,45 @@
   </si>
   <si>
     <t>Neural topic model (associated with LSTM-based language model), ntm, sLDA</t>
+  </si>
+  <si>
+    <t>INITIAL - JOURNALS</t>
+  </si>
+  <si>
+    <t>INITIAL - CONFERENCES</t>
+  </si>
+  <si>
+    <t>BACKWARD SNOWBALLING</t>
+  </si>
+  <si>
+    <t>2017_allahyari_a_knowledge_based_topic_modeling_approach_for_automatic_topic_labeling</t>
+  </si>
+  <si>
+    <t>liu_2017_an_investigation_of_brand_related_user_generated_content_on_twitter</t>
+  </si>
+  <si>
+    <t>Xia Liu and Alvin C. Burns and Yingjian Hou</t>
+  </si>
+  <si>
+    <t>An Investigation of Brand-Related User-Generated Content on Twitter</t>
+  </si>
+  <si>
+    <t>Journal of Advertising</t>
+  </si>
+  <si>
+    <t>Manual labeling (assisted by pre-defined label set)</t>
+  </si>
+  <si>
+    <t>huang_2017_analyst_information_discovery_and_interpretation_roles_a_topic_modeling_approach</t>
+  </si>
+  <si>
+    <t>Huang, Allen and Lehavy, Reuven and Zang, Amy and Zheng, Rong</t>
+  </si>
+  <si>
+    <t>Analyst Information Discovery and Interpretation Roles: A Topic Modeling Approach</t>
+  </si>
+  <si>
+    <t>Management Science</t>
   </si>
 </sst>
 </file>
@@ -2096,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="H47" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,205 +2200,134 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3">
-        <v>2017</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>75</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>367</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>144</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B5">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>367</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>83</v>
@@ -2368,36 +2336,36 @@
         <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B8">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2406,39 +2374,39 @@
         <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>2020</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
         <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
@@ -2447,77 +2415,77 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>127</v>
+      <c r="A10" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
@@ -2526,106 +2494,106 @@
         <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>139</v>
+      <c r="A12" t="s">
+        <v>127</v>
       </c>
       <c r="B12">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
         <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B13">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
         <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B14">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -2637,7 +2605,7 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
         <v>131</v>
@@ -2646,24 +2614,24 @@
         <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B15">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -2675,7 +2643,7 @@
         <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
         <v>131</v>
@@ -2684,135 +2652,135 @@
         <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>160</v>
+      <c r="A16" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
         <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>166</v>
+      <c r="A17" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
         <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B18">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B19">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
         <v>169</v>
@@ -2830,68 +2798,68 @@
         <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>185</v>
+      <c r="A20" t="s">
+        <v>172</v>
       </c>
       <c r="B20">
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B21">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -2906,109 +2874,109 @@
         <v>108</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B22">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
         <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>193</v>
       </c>
       <c r="B23">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C23" t="s">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>368</v>
+        <v>108</v>
       </c>
       <c r="J23" t="s">
-        <v>373</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>379</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>370</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>374</v>
+      <c r="A24" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B24">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
         <v>72</v>
@@ -3017,74 +2985,112 @@
         <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>381</v>
+      <c r="A25" t="s">
+        <v>372</v>
       </c>
       <c r="B25">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C25" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
         <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J25" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K25" t="s">
         <v>379</v>
       </c>
       <c r="L25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" t="s">
+        <v>377</v>
+      </c>
+      <c r="J26" t="s">
+        <v>378</v>
+      </c>
+      <c r="K26" t="s">
+        <v>380</v>
+      </c>
+      <c r="L26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>203</v>
+      <c r="A27" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="B27">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
         <v>72</v>
@@ -3093,147 +3099,38 @@
         <v>64</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>384</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28">
-        <v>2022</v>
-      </c>
-      <c r="C28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>212</v>
-      </c>
-      <c r="L28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29">
-        <v>2022</v>
-      </c>
-      <c r="C29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" t="s">
-        <v>218</v>
-      </c>
-      <c r="K29" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30">
-        <v>2022</v>
-      </c>
-      <c r="C30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" t="s">
-        <v>225</v>
+      <c r="A30" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>226</v>
+      <c r="A31" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B31">
         <v>2019</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
         <v>83</v>
@@ -3248,36 +3145,36 @@
         <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>233</v>
+      <c r="A32" t="s">
+        <v>208</v>
       </c>
       <c r="B32">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
         <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>84</v>
@@ -3286,106 +3183,106 @@
         <v>108</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B33">
         <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="J33" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>244</v>
+      <c r="A34" t="s">
+        <v>220</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E34" t="s">
         <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
         <v>72</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s">
         <v>131</v>
       </c>
       <c r="K34" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>250</v>
+      <c r="A35" t="s">
+        <v>226</v>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
         <v>83</v>
@@ -3400,27 +3297,27 @@
         <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>255</v>
+      <c r="A36" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B36">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
         <v>223</v>
@@ -3438,33 +3335,33 @@
         <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B37">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
         <v>223</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
         <v>72</v>
@@ -3473,71 +3370,71 @@
         <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>267</v>
+      <c r="A38" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="B38">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
         <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="J38" t="s">
         <v>131</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>270</v>
+      <c r="A39" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="B39">
         <v>2018</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D39" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
         <v>83</v>
@@ -3546,36 +3443,36 @@
         <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s">
         <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="K39" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B40">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F40" t="s">
         <v>83</v>
@@ -3593,30 +3490,30 @@
         <v>131</v>
       </c>
       <c r="K40" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B41">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
         <v>72</v>
@@ -3625,74 +3522,74 @@
         <v>84</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J41" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>281</v>
+      <c r="A42" t="s">
+        <v>267</v>
       </c>
       <c r="B42">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s">
         <v>131</v>
       </c>
       <c r="K42" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>291</v>
+      <c r="A43" t="s">
+        <v>270</v>
       </c>
       <c r="B43">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C43" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
         <v>72</v>
@@ -3701,68 +3598,68 @@
         <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="J43" t="s">
         <v>131</v>
       </c>
       <c r="K43" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="L43" t="s">
-        <v>286</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>292</v>
+      <c r="A44" t="s">
+        <v>275</v>
       </c>
       <c r="B44">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="L44" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B45">
         <v>2021</v>
       </c>
       <c r="C45" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
         <v>211</v>
@@ -3777,71 +3674,74 @@
         <v>84</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>236</v>
+      </c>
+      <c r="K45" t="s">
+        <v>280</v>
       </c>
       <c r="L45" t="s">
-        <v>299</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>305</v>
+      <c r="A46" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="B46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E46" t="s">
         <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s">
         <v>284</v>
       </c>
       <c r="J46" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>310</v>
+      <c r="A47" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B47">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D47" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
         <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="G47" t="s">
         <v>72</v>
@@ -3850,74 +3750,74 @@
         <v>84</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="J47" t="s">
         <v>131</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B48">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C48" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E48" t="s">
         <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="K48" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="L48" t="s">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>318</v>
+      <c r="A49" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B49">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E49" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G49" t="s">
         <v>72</v>
@@ -3926,71 +3826,68 @@
         <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
-      </c>
-      <c r="K49" t="s">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>325</v>
+      <c r="A50" t="s">
+        <v>305</v>
       </c>
       <c r="B50">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C50" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E50" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
         <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="J50" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K50" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="L50" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>331</v>
+      <c r="A51" t="s">
+        <v>310</v>
       </c>
       <c r="B51">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C51" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E51" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="F51" t="s">
         <v>83</v>
@@ -4008,27 +3905,27 @@
         <v>131</v>
       </c>
       <c r="K51" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="L51" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>340</v>
+      <c r="A52" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="B52">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C52" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D52" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E52" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
         <v>83</v>
@@ -4043,27 +3940,27 @@
         <v>108</v>
       </c>
       <c r="J52" t="s">
-        <v>337</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>336</v>
+        <v>131</v>
+      </c>
+      <c r="K52" t="s">
+        <v>313</v>
       </c>
       <c r="L52" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B53">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D53" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="E53" t="s">
         <v>321</v>
@@ -4081,68 +3978,68 @@
         <v>108</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="K53" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>344</v>
+      <c r="A54" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="B54">
         <v>2022</v>
       </c>
       <c r="C54" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D54" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="E54" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
         <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="J54" t="s">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>350</v>
+      <c r="A55" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="B55">
         <v>2022</v>
       </c>
       <c r="C55" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E55" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F55" t="s">
         <v>83</v>
@@ -4154,74 +4051,74 @@
         <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="J55" t="s">
         <v>131</v>
       </c>
       <c r="K55" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="L55" t="s">
-        <v>75</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>353</v>
+      <c r="A56" t="s">
+        <v>340</v>
       </c>
       <c r="B56">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D56" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
         <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="J56" t="s">
-        <v>357</v>
-      </c>
-      <c r="K56" t="s">
-        <v>359</v>
+        <v>337</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="L56" t="s">
-        <v>358</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B57">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C57" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
         <v>72</v>
@@ -4230,16 +4127,254 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" t="s">
+        <v>266</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58">
+        <v>2022</v>
+      </c>
+      <c r="C58" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>349</v>
+      </c>
+      <c r="J58" t="s">
+        <v>347</v>
+      </c>
+      <c r="K58" t="s">
+        <v>261</v>
+      </c>
+      <c r="L58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>350</v>
+      </c>
+      <c r="B59">
+        <v>2022</v>
+      </c>
+      <c r="C59" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" t="s">
+        <v>352</v>
+      </c>
+      <c r="E59" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" t="s">
+        <v>284</v>
+      </c>
+      <c r="J59" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s">
+        <v>266</v>
+      </c>
+      <c r="L59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B60">
+        <v>2019</v>
+      </c>
+      <c r="C60" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" t="s">
+        <v>356</v>
+      </c>
+      <c r="J60" t="s">
+        <v>357</v>
+      </c>
+      <c r="K60" t="s">
+        <v>359</v>
+      </c>
+      <c r="L60" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61">
+        <v>2020</v>
+      </c>
+      <c r="C61" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" t="s">
         <v>363</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J61" t="s">
         <v>364</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K61" t="s">
         <v>365</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L61" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66">
+        <v>2017</v>
+      </c>
+      <c r="C66" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" t="s">
+        <v>393</v>
+      </c>
+      <c r="F66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" t="s">
+        <v>394</v>
+      </c>
+      <c r="J66" t="s">
+        <v>131</v>
+      </c>
+      <c r="K66" t="s">
+        <v>266</v>
+      </c>
+      <c r="L66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B67">
+        <v>2017</v>
+      </c>
+      <c r="C67" t="s">
+        <v>396</v>
+      </c>
+      <c r="D67" t="s">
+        <v>397</v>
+      </c>
+      <c r="E67" t="s">
+        <v>398</v>
+      </c>
+      <c r="F67" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+      <c r="J67" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67" t="s">
+        <v>330</v>
+      </c>
+      <c r="L67" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346661B1-89DF-B846-9803-3781B4B709BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC0BDB-A648-DD49-9F82-5C2568BCF536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}</author>
+  </authors>
+  <commentList>
+    <comment ref="A72" authorId="0" shapeId="0" xr:uid="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Appendix access?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="438">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1234,6 +1252,123 @@
   </si>
   <si>
     <t>Management Science</t>
+  </si>
+  <si>
+    <t>MOOCs reviews</t>
+  </si>
+  <si>
+    <t>MOOCs</t>
+  </si>
+  <si>
+    <t>chen_2020_what_are_moocs_learners_concerns_text_analysis_of_reviews_for_computer_science_courses</t>
+  </si>
+  <si>
+    <t>Xieling Chen and Di Zou and Haoran Xie and Gary Cheng</t>
+  </si>
+  <si>
+    <t>What Are MOOCs Learners’ Concerns? Text Analysis of Reviews for Computer Science Courses</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Computer Science</t>
+  </si>
+  <si>
+    <t>grajzl_2019_toward_understanding_17th_century_english_culture_a_structural_topic_model_of_francis_bacons_ideas</t>
+  </si>
+  <si>
+    <t>Peter Grajzl and Peter Murrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toward understanding 17th century English culture: A structural topic model of Francis Bacon’s ideas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Comparative Economics </t>
+  </si>
+  <si>
+    <t>Law, History</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Zheng Xiang and Qianzhou Du and Yufeng Ma and Weiguo Fan</t>
+  </si>
+  <si>
+    <t>Tourism Management</t>
+  </si>
+  <si>
+    <t>xiang_2017_a_comparative_analysis_of_major_online_review_platforms_implications_for_social_media_analytics_in_hospitality_and_tourism</t>
+  </si>
+  <si>
+    <t>Tourism and Hospitality</t>
+  </si>
+  <si>
+    <t>Hotels (Reviews)</t>
+  </si>
+  <si>
+    <t>karami_2019_twitter_speaks_a_case_of_national_disaster_situational_awareness</t>
+  </si>
+  <si>
+    <t>Amir Karami and Vishal Shah and Reza Vaezi and Amit Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comparative analysis of major online review platforms: Implications for social media analytics in hospitality and tourism </t>
+  </si>
+  <si>
+    <t>Journal of Information Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter speaks: A case of national disaster situational awareness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual category assignment </t>
+  </si>
+  <si>
+    <t>Natural disasters</t>
+  </si>
+  <si>
+    <t>Manual category assignment; manual labeling</t>
+  </si>
+  <si>
+    <t>International Journal of Information Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterizing diabetes, diet, exercise, and obesity comments on Twitter </t>
+  </si>
+  <si>
+    <t>karami_2018_characterizing_diabetes_diet_exercise_and_obesity_comments_on_twitter</t>
+  </si>
+  <si>
+    <t>Amir Karami and Alicia A. Dahl and Gabrielle Turner-McGrievy and Hadi Kharrazi and George Shaw</t>
+  </si>
+  <si>
+    <t>Ecological Economics</t>
+  </si>
+  <si>
+    <t>Free associations of citizens and scientists with economic and green growth: A computational-linguistics analysis</t>
+  </si>
+  <si>
+    <t>Ivan Savin and Stefan Drews and Jeroen van den Bergh</t>
+  </si>
+  <si>
+    <t>savin_2021_free_associations_of_citizens_and_scientists_with_economic_and_green_growth_a_computational_linguistics_analysis</t>
+  </si>
+  <si>
+    <t>kuhn_2018_using_structural_topic_modeling_to_identify_latent_topics_and_trends_in_aviation_incident_reports</t>
+  </si>
+  <si>
+    <t>Kenneth D. Kuhn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using structural topic modeling to identify latent topics and trends in aviation incident reports </t>
+  </si>
+  <si>
+    <t>Transportation Research Part C</t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by top words provided by multiple metrics</t>
+  </si>
+  <si>
+    <t>Aviation</t>
   </si>
 </sst>
 </file>
@@ -1407,6 +1542,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ceol Samuele (Student Com21)" id="{74590BBD-5819-AB42-A4D3-506E02485AC1}" userId="S::samceol@unibz.it::e1788db1-afc8-45ab-8b81-e2717f168101" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,6 +1845,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A72" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
+    <text>Appendix access?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBE747-7FCC-5A4A-8955-66CF994F327A}">
   <dimension ref="A1:F25"/>
@@ -2134,11 +2283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H47" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3664,7 +3813,7 @@
       <c r="E45" t="s">
         <v>211</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G45" t="s">
@@ -3702,7 +3851,7 @@
       <c r="E46" t="s">
         <v>211</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G46" t="s">
@@ -4377,8 +4526,275 @@
         <v>330</v>
       </c>
     </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>401</v>
+      </c>
+      <c r="B68">
+        <v>2020</v>
+      </c>
+      <c r="C68" t="s">
+        <v>402</v>
+      </c>
+      <c r="D68" t="s">
+        <v>403</v>
+      </c>
+      <c r="E68" t="s">
+        <v>404</v>
+      </c>
+      <c r="F68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" t="s">
+        <v>108</v>
+      </c>
+      <c r="J68" t="s">
+        <v>236</v>
+      </c>
+      <c r="K68" t="s">
+        <v>400</v>
+      </c>
+      <c r="L68" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B69">
+        <v>2019</v>
+      </c>
+      <c r="C69" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" t="s">
+        <v>408</v>
+      </c>
+      <c r="F69" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" t="s">
+        <v>284</v>
+      </c>
+      <c r="J69" t="s">
+        <v>236</v>
+      </c>
+      <c r="K69" t="s">
+        <v>409</v>
+      </c>
+      <c r="L69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>413</v>
+      </c>
+      <c r="B70">
+        <v>2017</v>
+      </c>
+      <c r="C70" t="s">
+        <v>411</v>
+      </c>
+      <c r="D70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E70" t="s">
+        <v>412</v>
+      </c>
+      <c r="F70" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" t="s">
+        <v>108</v>
+      </c>
+      <c r="J70" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="L70" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>416</v>
+      </c>
+      <c r="B71">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="s">
+        <v>417</v>
+      </c>
+      <c r="D71" t="s">
+        <v>420</v>
+      </c>
+      <c r="E71" t="s">
+        <v>419</v>
+      </c>
+      <c r="F71" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" t="s">
+        <v>421</v>
+      </c>
+      <c r="J71" t="s">
+        <v>131</v>
+      </c>
+      <c r="K71" t="s">
+        <v>422</v>
+      </c>
+      <c r="L71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B72">
+        <v>2018</v>
+      </c>
+      <c r="C72" t="s">
+        <v>427</v>
+      </c>
+      <c r="D72" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" t="s">
+        <v>424</v>
+      </c>
+      <c r="F72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s">
+        <v>423</v>
+      </c>
+      <c r="J72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K72" t="s">
+        <v>261</v>
+      </c>
+      <c r="L72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>431</v>
+      </c>
+      <c r="B73">
+        <v>2021</v>
+      </c>
+      <c r="C73" t="s">
+        <v>430</v>
+      </c>
+      <c r="D73" t="s">
+        <v>429</v>
+      </c>
+      <c r="E73" t="s">
+        <v>428</v>
+      </c>
+      <c r="F73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" t="s">
+        <v>284</v>
+      </c>
+      <c r="J73" t="s">
+        <v>236</v>
+      </c>
+      <c r="K73" t="s">
+        <v>225</v>
+      </c>
+      <c r="L73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74" t="s">
+        <v>433</v>
+      </c>
+      <c r="D74" t="s">
+        <v>434</v>
+      </c>
+      <c r="E74" t="s">
+        <v>435</v>
+      </c>
+      <c r="F74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" t="s">
+        <v>436</v>
+      </c>
+      <c r="J74" t="s">
+        <v>236</v>
+      </c>
+      <c r="K74" t="s">
+        <v>437</v>
+      </c>
+      <c r="L74" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC0BDB-A648-DD49-9F82-5C2568BCF536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFA913-6F72-704A-998F-CBE095D4876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="449">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1369,6 +1369,39 @@
   </si>
   <si>
     <t>Aviation</t>
+  </si>
+  <si>
+    <t>syed_2017_full_text_or_abstract_examining_topic_coherence_scores_using_latent_dirichlet_allocation</t>
+  </si>
+  <si>
+    <t>Syed, Shaheen and Spruit, Marco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-Text or Abstract? Examining Topic Coherence Scores Using Latent Dirichlet Allocation </t>
+  </si>
+  <si>
+    <t>DSAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual labeling assisted by associated documents </t>
+  </si>
+  <si>
+    <t>Fisheries and Aquatic Science</t>
+  </si>
+  <si>
+    <t>Media and Communication</t>
+  </si>
+  <si>
+    <t>Narratives of the Refugee Crisis: A Comparative Study of Mainstream-Media and Twitter</t>
+  </si>
+  <si>
+    <t>Nerghes, Adina and Lee, Ju-Sung</t>
+  </si>
+  <si>
+    <t>nerghes_2019_narratives_of_the_refugee_crisis_a_comparative_study_of_mainstream_media_and_twitter</t>
+  </si>
+  <si>
+    <t>Social media (Twitter), News</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="H53" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4792,6 +4825,82 @@
         <v>437</v>
       </c>
     </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75">
+        <v>2017</v>
+      </c>
+      <c r="C75" t="s">
+        <v>439</v>
+      </c>
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+      <c r="E75" t="s">
+        <v>441</v>
+      </c>
+      <c r="F75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" t="s">
+        <v>442</v>
+      </c>
+      <c r="J75" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75" t="s">
+        <v>96</v>
+      </c>
+      <c r="L75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>447</v>
+      </c>
+      <c r="B76">
+        <v>2019</v>
+      </c>
+      <c r="C76" t="s">
+        <v>446</v>
+      </c>
+      <c r="D76" t="s">
+        <v>445</v>
+      </c>
+      <c r="E76" t="s">
+        <v>444</v>
+      </c>
+      <c r="F76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s">
+        <v>84</v>
+      </c>
+      <c r="I76" t="s">
+        <v>442</v>
+      </c>
+      <c r="J76" t="s">
+        <v>131</v>
+      </c>
+      <c r="K76" t="s">
+        <v>266</v>
+      </c>
+      <c r="L76" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFA913-6F72-704A-998F-CBE095D4876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CABF1-358B-BA42-BBCA-ECCB9A4D3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}</author>
+    <author>tc={FA06E228-5451-5E47-8EB3-FD79C4BFA55A}</author>
   </authors>
   <commentList>
     <comment ref="A72" authorId="0" shapeId="0" xr:uid="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
@@ -50,12 +51,20 @@
     Appendix access?</t>
       </text>
     </comment>
+    <comment ref="A79" authorId="1" shapeId="0" xr:uid="{FA06E228-5451-5E47-8EB3-FD79C4BFA55A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some fields to complete</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="472">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -708,9 +717,6 @@
     <t>Recommender systems (for MOOCs)</t>
   </si>
   <si>
-    <t>MOOCs courses</t>
-  </si>
-  <si>
     <t>NMF, LDA</t>
   </si>
   <si>
@@ -1402,13 +1408,85 @@
   </si>
   <si>
     <t>Social media (Twitter), News</t>
+  </si>
+  <si>
+    <t>kim_2019_an_ontology_based_labeling_of_influential_topics_using_topic_network_analysis</t>
+  </si>
+  <si>
+    <t>Hyon Hee Kim and Hey Young Rhee</t>
+  </si>
+  <si>
+    <t>An Ontology-Based Labeling of Influential Topics Using Topic Network Analysis</t>
+  </si>
+  <si>
+    <t>Journal of Information Processing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology-based labeling </t>
+  </si>
+  <si>
+    <t>Data mining</t>
+  </si>
+  <si>
+    <t>bechara_2021_transfer_learning_for_topic_labeling_analysis_of_the_uk_house_of_commons_speeches_1935_2014</t>
+  </si>
+  <si>
+    <t>Hannah Bechara and Alexander Herzog and Slava Jankin and Peter John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Topic Labeling with Domain-Specific Knowledge Base: An Analysis of UK House of Commons Speeches 1935–2014 </t>
+  </si>
+  <si>
+    <t>Research &amp; Politics</t>
+  </si>
+  <si>
+    <t>Transfer topic labeling</t>
+  </si>
+  <si>
+    <t>DTM</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>campos_2020_recommendation_system_for_knowledge_acquisition_in_moocs_ecosystems</t>
+  </si>
+  <si>
+    <t>Rodrigo Campos and Rodrigo Santos and Jonice Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommendation System for Knowledge Acquisition in MOOCs Ecosystems </t>
+  </si>
+  <si>
+    <t>SBSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-negative Matrix Factorization (NMF) </t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by associated documents and generated summaries</t>
+  </si>
+  <si>
+    <t>maier_2018_applying_lda_topic_modeling_in_communication_research_toward_a_valid_and_reliable_methodology</t>
+  </si>
+  <si>
+    <t>Daniel Maier and A. Waldherr and P. Miltner and G. Wiedemann and A. Niekler and A. Keinert and B. Pfetsch and G. Heyer and U. Reber and T. H{\"a}ussler and H. Schmid-Petri and S. Adam</t>
+  </si>
+  <si>
+    <t>Applying LDA topic modeling in communication research: Toward a valid and reliable methodology</t>
+  </si>
+  <si>
+    <t>Communication Methods and Measures</t>
+  </si>
+  <si>
+    <t>Food safety</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1430,6 +1508,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1883,6 +1967,9 @@
   <threadedComment ref="A72" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
     <text>Appendix access?</text>
   </threadedComment>
+  <threadedComment ref="A79" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{FA06E228-5451-5E47-8EB3-FD79C4BFA55A}">
+    <text>Some fields to complete</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2317,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H53" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2384,7 +2471,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2401,7 +2488,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -2439,7 +2526,7 @@
         <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2474,7 +2561,7 @@
         <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F6" t="s">
         <v>83</v>
@@ -2717,7 +2804,7 @@
         <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L12" t="s">
         <v>132</v>
@@ -3176,21 +3263,21 @@
         <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25">
         <v>2020</v>
       </c>
       <c r="C25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E25" t="s">
         <v>130</v>
@@ -3205,30 +3292,30 @@
         <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B26">
         <v>2017</v>
       </c>
       <c r="C26" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" t="s">
         <v>375</v>
-      </c>
-      <c r="D26" t="s">
-        <v>376</v>
       </c>
       <c r="E26" t="s">
         <v>130</v>
@@ -3243,13 +3330,13 @@
         <v>84</v>
       </c>
       <c r="I26" t="s">
+        <v>376</v>
+      </c>
+      <c r="J26" t="s">
         <v>377</v>
       </c>
-      <c r="J26" t="s">
-        <v>378</v>
-      </c>
       <c r="K26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L26" t="s">
         <v>145</v>
@@ -3257,16 +3344,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B27">
         <v>2017</v>
       </c>
       <c r="C27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
         <v>382</v>
-      </c>
-      <c r="D27" t="s">
-        <v>383</v>
       </c>
       <c r="E27" t="s">
         <v>196</v>
@@ -3281,13 +3368,13 @@
         <v>64</v>
       </c>
       <c r="I27" t="s">
+        <v>383</v>
+      </c>
+      <c r="J27" t="s">
         <v>384</v>
       </c>
-      <c r="J27" t="s">
-        <v>385</v>
-      </c>
       <c r="K27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L27" t="s">
         <v>145</v>
@@ -3295,7 +3382,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3400,33 +3487,33 @@
         <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K33" t="s">
         <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>217</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34">
         <v>2022</v>
       </c>
       <c r="C34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" t="s">
         <v>221</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>222</v>
-      </c>
-      <c r="E34" t="s">
-        <v>223</v>
       </c>
       <c r="F34" t="s">
         <v>83</v>
@@ -3444,27 +3531,27 @@
         <v>131</v>
       </c>
       <c r="K34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s">
         <v>224</v>
-      </c>
-      <c r="L34" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35">
         <v>2019</v>
       </c>
       <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" t="s">
         <v>227</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>228</v>
-      </c>
-      <c r="E35" t="s">
-        <v>229</v>
       </c>
       <c r="F35" t="s">
         <v>83</v>
@@ -3479,30 +3566,30 @@
         <v>108</v>
       </c>
       <c r="J35" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" t="s">
         <v>230</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>231</v>
-      </c>
-      <c r="L35" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36">
         <v>2020</v>
       </c>
       <c r="C36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" t="s">
         <v>234</v>
       </c>
-      <c r="D36" t="s">
-        <v>235</v>
-      </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" t="s">
         <v>83</v>
@@ -3517,30 +3604,30 @@
         <v>108</v>
       </c>
       <c r="J36" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" t="s">
         <v>236</v>
       </c>
-      <c r="K36" t="s">
-        <v>237</v>
-      </c>
       <c r="L36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37">
         <v>2022</v>
       </c>
       <c r="C37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" t="s">
         <v>239</v>
       </c>
-      <c r="D37" t="s">
-        <v>240</v>
-      </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
         <v>83</v>
@@ -3555,30 +3642,30 @@
         <v>108</v>
       </c>
       <c r="J37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K37" t="s">
         <v>241</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>242</v>
-      </c>
-      <c r="L37" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38">
         <v>2020</v>
       </c>
       <c r="C38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" t="s">
         <v>245</v>
       </c>
-      <c r="D38" t="s">
-        <v>246</v>
-      </c>
       <c r="E38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" t="s">
         <v>123</v>
@@ -3590,33 +3677,33 @@
         <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J38" t="s">
         <v>131</v>
       </c>
       <c r="K38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" t="s">
         <v>248</v>
-      </c>
-      <c r="L38" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39">
         <v>2018</v>
       </c>
       <c r="C39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" t="s">
         <v>251</v>
       </c>
-      <c r="D39" t="s">
-        <v>252</v>
-      </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
         <v>83</v>
@@ -3631,30 +3718,30 @@
         <v>108</v>
       </c>
       <c r="J39" t="s">
+        <v>252</v>
+      </c>
+      <c r="K39" t="s">
         <v>253</v>
       </c>
-      <c r="K39" t="s">
-        <v>254</v>
-      </c>
       <c r="L39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" t="s">
         <v>256</v>
       </c>
-      <c r="D40" t="s">
-        <v>257</v>
-      </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" t="s">
         <v>83</v>
@@ -3672,27 +3759,27 @@
         <v>131</v>
       </c>
       <c r="K40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41">
         <v>2017</v>
       </c>
       <c r="C41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" t="s">
         <v>263</v>
       </c>
-      <c r="D41" t="s">
-        <v>264</v>
-      </c>
       <c r="E41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" t="s">
         <v>62</v>
@@ -3704,33 +3791,33 @@
         <v>84</v>
       </c>
       <c r="I41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J41" t="s">
         <v>131</v>
       </c>
       <c r="K41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42">
         <v>2019</v>
       </c>
       <c r="C42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" t="s">
         <v>268</v>
       </c>
-      <c r="D42" t="s">
-        <v>269</v>
-      </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
@@ -3748,7 +3835,7 @@
         <v>131</v>
       </c>
       <c r="K42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s">
         <v>75</v>
@@ -3756,19 +3843,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43">
         <v>2018</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s">
         <v>83</v>
@@ -3786,7 +3873,7 @@
         <v>131</v>
       </c>
       <c r="K43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s">
         <v>75</v>
@@ -3794,19 +3881,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44">
         <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F44" t="s">
         <v>83</v>
@@ -3824,24 +3911,24 @@
         <v>131</v>
       </c>
       <c r="K44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45">
         <v>2021</v>
       </c>
       <c r="C45" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" t="s">
         <v>278</v>
-      </c>
-      <c r="D45" t="s">
-        <v>279</v>
       </c>
       <c r="E45" t="s">
         <v>211</v>
@@ -3856,13 +3943,13 @@
         <v>84</v>
       </c>
       <c r="I45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L45" t="s">
         <v>87</v>
@@ -3870,16 +3957,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B46">
         <v>2018</v>
       </c>
       <c r="C46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" t="s">
         <v>282</v>
-      </c>
-      <c r="D46" t="s">
-        <v>283</v>
       </c>
       <c r="E46" t="s">
         <v>211</v>
@@ -3894,13 +3981,13 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J46" t="s">
         <v>131</v>
       </c>
       <c r="K46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s">
         <v>145</v>
@@ -3908,22 +3995,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B47">
         <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
         <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G47" t="s">
         <v>72</v>
@@ -3932,7 +4019,7 @@
         <v>84</v>
       </c>
       <c r="I47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J47" t="s">
         <v>131</v>
@@ -3941,27 +4028,27 @@
         <v>216</v>
       </c>
       <c r="L47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48">
         <v>2018</v>
       </c>
       <c r="C48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" t="s">
         <v>293</v>
-      </c>
-      <c r="D48" t="s">
-        <v>294</v>
       </c>
       <c r="E48" t="s">
         <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G48" t="s">
         <v>63</v>
@@ -3970,30 +4057,30 @@
         <v>64</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J48" t="s">
+        <v>294</v>
+      </c>
+      <c r="K48" t="s">
         <v>295</v>
       </c>
-      <c r="K48" t="s">
-        <v>296</v>
-      </c>
       <c r="L48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B49">
         <v>2021</v>
       </c>
       <c r="C49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" t="s">
         <v>302</v>
-      </c>
-      <c r="D49" t="s">
-        <v>303</v>
       </c>
       <c r="E49" t="s">
         <v>211</v>
@@ -4008,27 +4095,27 @@
         <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J49" t="s">
         <v>131</v>
       </c>
       <c r="L49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50">
         <v>2019</v>
       </c>
       <c r="C50" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" t="s">
         <v>306</v>
-      </c>
-      <c r="D50" t="s">
-        <v>307</v>
       </c>
       <c r="E50" t="s">
         <v>211</v>
@@ -4043,30 +4130,30 @@
         <v>84</v>
       </c>
       <c r="I50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K50" t="s">
+        <v>307</v>
+      </c>
+      <c r="L50" t="s">
         <v>308</v>
-      </c>
-      <c r="L50" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B51">
         <v>2019</v>
       </c>
       <c r="C51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E51" t="s">
         <v>211</v>
@@ -4087,24 +4174,24 @@
         <v>131</v>
       </c>
       <c r="K51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B52">
         <v>2022</v>
       </c>
       <c r="C52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E52" t="s">
         <v>211</v>
@@ -4125,7 +4212,7 @@
         <v>131</v>
       </c>
       <c r="K52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L52" t="s">
         <v>75</v>
@@ -4133,19 +4220,19 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B53">
         <v>2020</v>
       </c>
       <c r="C53" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" t="s">
         <v>319</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>320</v>
-      </c>
-      <c r="E53" t="s">
-        <v>321</v>
       </c>
       <c r="F53" t="s">
         <v>83</v>
@@ -4160,30 +4247,30 @@
         <v>108</v>
       </c>
       <c r="J53" t="s">
+        <v>321</v>
+      </c>
+      <c r="K53" t="s">
         <v>322</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>323</v>
-      </c>
-      <c r="L53" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B54">
         <v>2022</v>
       </c>
       <c r="C54" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" t="s">
         <v>326</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>327</v>
-      </c>
-      <c r="E54" t="s">
-        <v>328</v>
       </c>
       <c r="F54" t="s">
         <v>123</v>
@@ -4195,33 +4282,33 @@
         <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J54" t="s">
         <v>131</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55">
         <v>2022</v>
       </c>
       <c r="C55" t="s">
+        <v>331</v>
+      </c>
+      <c r="D55" t="s">
         <v>332</v>
       </c>
-      <c r="D55" t="s">
-        <v>333</v>
-      </c>
       <c r="E55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F55" t="s">
         <v>83</v>
@@ -4239,27 +4326,27 @@
         <v>131</v>
       </c>
       <c r="K55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B56">
         <v>2020</v>
       </c>
       <c r="C56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F56" t="s">
         <v>83</v>
@@ -4274,10 +4361,10 @@
         <v>108</v>
       </c>
       <c r="J56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s">
         <v>87</v>
@@ -4285,19 +4372,19 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B57">
         <v>2022</v>
       </c>
       <c r="C57" t="s">
+        <v>341</v>
+      </c>
+      <c r="D57" t="s">
         <v>342</v>
       </c>
-      <c r="D57" t="s">
-        <v>343</v>
-      </c>
       <c r="E57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F57" t="s">
         <v>83</v>
@@ -4315,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="K57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L57" t="s">
         <v>75</v>
@@ -4323,19 +4410,19 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B58">
         <v>2022</v>
       </c>
       <c r="C58" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" t="s">
         <v>345</v>
       </c>
-      <c r="D58" t="s">
-        <v>346</v>
-      </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F58" t="s">
         <v>62</v>
@@ -4347,33 +4434,33 @@
         <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J58" t="s">
+        <v>346</v>
+      </c>
+      <c r="K58" t="s">
+        <v>260</v>
+      </c>
+      <c r="L58" t="s">
         <v>347</v>
-      </c>
-      <c r="K58" t="s">
-        <v>261</v>
-      </c>
-      <c r="L58" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B59">
         <v>2022</v>
       </c>
       <c r="C59" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" t="s">
         <v>351</v>
       </c>
-      <c r="D59" t="s">
-        <v>352</v>
-      </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F59" t="s">
         <v>83</v>
@@ -4385,13 +4472,13 @@
         <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J59" t="s">
         <v>131</v>
       </c>
       <c r="K59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L59" t="s">
         <v>75</v>
@@ -4399,19 +4486,19 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B60">
         <v>2019</v>
       </c>
       <c r="C60" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" t="s">
         <v>354</v>
       </c>
-      <c r="D60" t="s">
-        <v>355</v>
-      </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F60" t="s">
         <v>62</v>
@@ -4423,33 +4510,33 @@
         <v>64</v>
       </c>
       <c r="I60" t="s">
+        <v>355</v>
+      </c>
+      <c r="J60" t="s">
         <v>356</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
+        <v>358</v>
+      </c>
+      <c r="L60" t="s">
         <v>357</v>
-      </c>
-      <c r="K60" t="s">
-        <v>359</v>
-      </c>
-      <c r="L60" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B61">
         <v>2020</v>
       </c>
       <c r="C61" t="s">
+        <v>360</v>
+      </c>
+      <c r="D61" t="s">
         <v>361</v>
       </c>
-      <c r="D61" t="s">
-        <v>362</v>
-      </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F61" t="s">
         <v>62</v>
@@ -4461,43 +4548,43 @@
         <v>84</v>
       </c>
       <c r="I61" t="s">
+        <v>362</v>
+      </c>
+      <c r="J61" t="s">
         <v>363</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>364</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>365</v>
-      </c>
-      <c r="L61" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B66">
         <v>2017</v>
       </c>
       <c r="C66" t="s">
+        <v>390</v>
+      </c>
+      <c r="D66" t="s">
         <v>391</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>392</v>
-      </c>
-      <c r="E66" t="s">
-        <v>393</v>
       </c>
       <c r="F66" t="s">
         <v>83</v>
@@ -4509,13 +4596,13 @@
         <v>84</v>
       </c>
       <c r="I66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J66" t="s">
         <v>131</v>
       </c>
       <c r="K66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L66" t="s">
         <v>75</v>
@@ -4523,19 +4610,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
       <c r="C67" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" t="s">
         <v>396</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>397</v>
-      </c>
-      <c r="E67" t="s">
-        <v>398</v>
       </c>
       <c r="F67" t="s">
         <v>83</v>
@@ -4553,27 +4640,27 @@
         <v>131</v>
       </c>
       <c r="K67" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L67" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B68">
         <v>2020</v>
       </c>
       <c r="C68" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" t="s">
         <v>402</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>403</v>
-      </c>
-      <c r="E68" t="s">
-        <v>404</v>
       </c>
       <c r="F68" t="s">
         <v>83</v>
@@ -4588,30 +4675,30 @@
         <v>108</v>
       </c>
       <c r="J68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B69">
         <v>2019</v>
       </c>
       <c r="C69" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" t="s">
         <v>406</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>407</v>
-      </c>
-      <c r="E69" t="s">
-        <v>408</v>
       </c>
       <c r="F69" t="s">
         <v>83</v>
@@ -4623,33 +4710,33 @@
         <v>84</v>
       </c>
       <c r="I69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K69" t="s">
+        <v>408</v>
+      </c>
+      <c r="L69" t="s">
         <v>409</v>
-      </c>
-      <c r="L69" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B70">
         <v>2017</v>
       </c>
       <c r="C70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" t="s">
         <v>411</v>
-      </c>
-      <c r="D70" t="s">
-        <v>418</v>
-      </c>
-      <c r="E70" t="s">
-        <v>412</v>
       </c>
       <c r="F70" t="s">
         <v>83</v>
@@ -4667,27 +4754,27 @@
         <v>131</v>
       </c>
       <c r="K70" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="L70" t="s">
         <v>414</v>
-      </c>
-      <c r="L70" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B71">
         <v>2019</v>
       </c>
       <c r="C71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F71" t="s">
         <v>123</v>
@@ -4699,13 +4786,13 @@
         <v>84</v>
       </c>
       <c r="I71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J71" t="s">
         <v>131</v>
       </c>
       <c r="K71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L71" t="s">
         <v>75</v>
@@ -4713,19 +4800,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B72">
         <v>2018</v>
       </c>
       <c r="C72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
@@ -4737,13 +4824,13 @@
         <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J72" t="s">
         <v>131</v>
       </c>
       <c r="K72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L72" t="s">
         <v>75</v>
@@ -4751,19 +4838,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B73">
         <v>2021</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F73" t="s">
         <v>83</v>
@@ -4775,33 +4862,33 @@
         <v>84</v>
       </c>
       <c r="I73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B74">
         <v>2018</v>
       </c>
       <c r="C74" t="s">
+        <v>432</v>
+      </c>
+      <c r="D74" t="s">
         <v>433</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>434</v>
-      </c>
-      <c r="E74" t="s">
-        <v>435</v>
       </c>
       <c r="F74" t="s">
         <v>83</v>
@@ -4813,33 +4900,33 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
+        <v>435</v>
+      </c>
+      <c r="J74" t="s">
+        <v>235</v>
+      </c>
+      <c r="K74" t="s">
         <v>436</v>
       </c>
-      <c r="J74" t="s">
-        <v>236</v>
-      </c>
-      <c r="K74" t="s">
-        <v>437</v>
-      </c>
       <c r="L74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B75">
         <v>2017</v>
       </c>
       <c r="C75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D75" t="s">
         <v>439</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>440</v>
-      </c>
-      <c r="E75" t="s">
-        <v>441</v>
       </c>
       <c r="F75" t="s">
         <v>83</v>
@@ -4851,7 +4938,7 @@
         <v>84</v>
       </c>
       <c r="I75" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J75" t="s">
         <v>131</v>
@@ -4860,24 +4947,24 @@
         <v>96</v>
       </c>
       <c r="L75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B76">
         <v>2019</v>
       </c>
       <c r="C76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F76" t="s">
         <v>83</v>
@@ -4889,16 +4976,162 @@
         <v>84</v>
       </c>
       <c r="I76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J76" t="s">
         <v>131</v>
       </c>
       <c r="K76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>448</v>
+      </c>
+      <c r="B77">
+        <v>2019</v>
+      </c>
+      <c r="C77" t="s">
+        <v>449</v>
+      </c>
+      <c r="D77" t="s">
+        <v>450</v>
+      </c>
+      <c r="E77" t="s">
+        <v>451</v>
+      </c>
+      <c r="F77" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" t="s">
+        <v>452</v>
+      </c>
+      <c r="J77" t="s">
+        <v>131</v>
+      </c>
+      <c r="K77" t="s">
+        <v>144</v>
+      </c>
+      <c r="L77" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B78">
+        <v>2021</v>
+      </c>
+      <c r="C78" t="s">
+        <v>455</v>
+      </c>
+      <c r="D78" t="s">
+        <v>456</v>
+      </c>
+      <c r="E78" t="s">
+        <v>457</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" t="s">
+        <v>458</v>
+      </c>
+      <c r="J78" t="s">
+        <v>459</v>
+      </c>
+      <c r="K78" t="s">
+        <v>144</v>
+      </c>
+      <c r="L78" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B79">
+        <v>2020</v>
+      </c>
+      <c r="C79" t="s">
+        <v>462</v>
+      </c>
+      <c r="D79" t="s">
+        <v>463</v>
+      </c>
+      <c r="E79" t="s">
+        <v>464</v>
+      </c>
+      <c r="F79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>64</v>
+      </c>
+      <c r="J79" t="s">
+        <v>465</v>
+      </c>
+      <c r="K79" t="s">
+        <v>216</v>
+      </c>
+      <c r="L79" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80" t="s">
+        <v>468</v>
+      </c>
+      <c r="D80" t="s">
+        <v>469</v>
+      </c>
+      <c r="E80" t="s">
+        <v>470</v>
+      </c>
+      <c r="F80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80" t="s">
+        <v>466</v>
+      </c>
+      <c r="K80" t="s">
+        <v>322</v>
+      </c>
+      <c r="L80" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CABF1-358B-BA42-BBCA-ECCB9A4D3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE6732-F1E1-4E4B-8D31-D259E3A17EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -41,6 +41,7 @@
   <authors>
     <author>tc={3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}</author>
     <author>tc={FA06E228-5451-5E47-8EB3-FD79C4BFA55A}</author>
+    <author>tc={A0B7F135-549A-8F4D-913F-6AE614EB6BFC}</author>
   </authors>
   <commentList>
     <comment ref="A72" authorId="0" shapeId="0" xr:uid="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
@@ -59,12 +60,20 @@
     Some fields to complete</t>
       </text>
     </comment>
+    <comment ref="A81" authorId="2" shapeId="0" xr:uid="{A0B7F135-549A-8F4D-913F-6AE614EB6BFC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consider removing due to lack of detail</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="481">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1422,9 +1431,6 @@
     <t>Journal of Information Processing Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">Ontology-based labeling </t>
-  </si>
-  <si>
     <t>Data mining</t>
   </si>
   <si>
@@ -1480,6 +1486,36 @@
   </si>
   <si>
     <t>Food safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology-based </t>
+  </si>
+  <si>
+    <t>adhitama_2017_topic_labeling_towards_news_document_collection_based_on_latent_dirichlet_allocation_and_ontology</t>
+  </si>
+  <si>
+    <t>Adhitama, Rifki and Kusumaningrum, Retno and Gernowo, Rahmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Labeling Towards News Document Collection Based on Latent Dirichlet Allocation and Ontology </t>
+  </si>
+  <si>
+    <t>ICICoS</t>
+  </si>
+  <si>
+    <t>gourru_2018_united_we_stand_using_multiple_strategies_for_topic_labeling</t>
+  </si>
+  <si>
+    <t>Gourru, Antoine and Velcin, Julien and Roche, Mathieu and Gravier, Christophe and Poncelet, Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United We Stand: Using Multiple Strategies for Topic Labeling </t>
+  </si>
+  <si>
+    <t>Natural Language Processing and Information Systems</t>
+  </si>
+  <si>
+    <t>n-gram and sentence labelers based on statistical ranking measures</t>
   </si>
 </sst>
 </file>
@@ -1970,6 +2006,9 @@
   <threadedComment ref="A79" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{FA06E228-5451-5E47-8EB3-FD79C4BFA55A}">
     <text>Some fields to complete</text>
   </threadedComment>
+  <threadedComment ref="A81" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{A0B7F135-549A-8F4D-913F-6AE614EB6BFC}">
+    <text>Consider removing due to lack of detail</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2404,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5014,7 +5053,7 @@
         <v>64</v>
       </c>
       <c r="I77" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="J77" t="s">
         <v>131</v>
@@ -5023,24 +5062,24 @@
         <v>144</v>
       </c>
       <c r="L77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B78">
         <v>2021</v>
       </c>
       <c r="C78" t="s">
+        <v>454</v>
+      </c>
+      <c r="D78" t="s">
         <v>455</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>456</v>
-      </c>
-      <c r="E78" t="s">
-        <v>457</v>
       </c>
       <c r="F78" t="s">
         <v>62</v>
@@ -5052,33 +5091,33 @@
         <v>64</v>
       </c>
       <c r="I78" t="s">
+        <v>457</v>
+      </c>
+      <c r="J78" t="s">
         <v>458</v>
-      </c>
-      <c r="J78" t="s">
-        <v>459</v>
       </c>
       <c r="K78" t="s">
         <v>144</v>
       </c>
       <c r="L78" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B79">
         <v>2020</v>
       </c>
       <c r="C79" t="s">
+        <v>461</v>
+      </c>
+      <c r="D79" t="s">
         <v>462</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>463</v>
-      </c>
-      <c r="E79" t="s">
-        <v>464</v>
       </c>
       <c r="F79" t="s">
         <v>62</v>
@@ -5090,7 +5129,7 @@
         <v>64</v>
       </c>
       <c r="J79" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K79" t="s">
         <v>216</v>
@@ -5101,19 +5140,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B80">
         <v>2018</v>
       </c>
       <c r="C80" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" t="s">
         <v>468</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>469</v>
-      </c>
-      <c r="E80" t="s">
-        <v>470</v>
       </c>
       <c r="F80" t="s">
         <v>83</v>
@@ -5125,13 +5164,92 @@
         <v>84</v>
       </c>
       <c r="I80" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+      <c r="J80" t="s">
+        <v>131</v>
       </c>
       <c r="K80" t="s">
         <v>322</v>
       </c>
       <c r="L80" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B81">
+        <v>2017</v>
+      </c>
+      <c r="C81" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" t="s">
+        <v>474</v>
+      </c>
+      <c r="E81" t="s">
+        <v>475</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
+      <c r="H81" t="s">
+        <v>64</v>
+      </c>
+      <c r="I81" t="s">
         <v>471</v>
+      </c>
+      <c r="J81" t="s">
+        <v>131</v>
+      </c>
+      <c r="K81" t="s">
+        <v>144</v>
+      </c>
+      <c r="L81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B82">
+        <v>2018</v>
+      </c>
+      <c r="C82" t="s">
+        <v>477</v>
+      </c>
+      <c r="D82" t="s">
+        <v>478</v>
+      </c>
+      <c r="E82" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" t="s">
+        <v>64</v>
+      </c>
+      <c r="I82" t="s">
+        <v>480</v>
+      </c>
+      <c r="J82" t="s">
+        <v>131</v>
+      </c>
+      <c r="K82" t="s">
+        <v>144</v>
+      </c>
+      <c r="L82" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE6732-F1E1-4E4B-8D31-D259E3A17EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF000B62-534B-354B-ACCB-32FEF525F36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="528">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1236,9 +1236,6 @@
     <t>INITIAL - CONFERENCES</t>
   </si>
   <si>
-    <t>BACKWARD SNOWBALLING</t>
-  </si>
-  <si>
     <t>2017_allahyari_a_knowledge_based_topic_modeling_approach_for_automatic_topic_labeling</t>
   </si>
   <si>
@@ -1485,9 +1482,6 @@
     <t>Communication Methods and Measures</t>
   </si>
   <si>
-    <t>Food safety</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ontology-based </t>
   </si>
   <si>
@@ -1516,13 +1510,160 @@
   </si>
   <si>
     <t>n-gram and sentence labelers based on statistical ranking measures</t>
+  </si>
+  <si>
+    <t>dahal_2019_topic_modeling_and_sentiment_analysis_of_global_climate_change_tweets</t>
+  </si>
+  <si>
+    <t>Dahal, Biraj and Kumar, Sathish A. P. and Li, Zhenlong</t>
+  </si>
+  <si>
+    <t>Topic modeling and sentiment analysis of global climate change tweets</t>
+  </si>
+  <si>
+    <t>Social Network Analysis and Mining</t>
+  </si>
+  <si>
+    <t>Patent analytics</t>
+  </si>
+  <si>
+    <t>Patent data</t>
+  </si>
+  <si>
+    <t>FORWARD SNOWBALLING</t>
+  </si>
+  <si>
+    <t>wang_2020_a_topic_based_patent_analytics_approach_for_exploring_technological_trends_in_smart_manufacturing</t>
+  </si>
+  <si>
+    <t>Juite Wang and Chih-Chi Hsu</t>
+  </si>
+  <si>
+    <t>A topic-based patent analytics approach for exploring technological trends in smart manufacturing </t>
+  </si>
+  <si>
+    <t>Journal of Manufacturing Technology Management</t>
+  </si>
+  <si>
+    <t>Nutrition (Food safety)</t>
+  </si>
+  <si>
+    <t>Nutrition (organic food)</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Journal of Big Data</t>
+  </si>
+  <si>
+    <t>Modeling the public attitude towards organic foods: a big data and text mining approach </t>
+  </si>
+  <si>
+    <t>Anupam Singh and Aldona Glinska-Newes</t>
+  </si>
+  <si>
+    <t>singh_2022_modeling_the_public_attitude_towards_organic_foods_a_big_data_and_text_mining_approach</t>
+  </si>
+  <si>
+    <t>luo_2020_topic_modelling_for_theme_park_online_reviews_analysis_of_disneyland</t>
+  </si>
+  <si>
+    <t>Jian Ming Luo and Huy Quan Vu and Gang Li and Rob Law</t>
+  </si>
+  <si>
+    <t>Topic modelling for theme park online reviews: analysis of Disneyland</t>
+  </si>
+  <si>
+    <t>Journal of Travel &amp; Tourism Marketing</t>
+  </si>
+  <si>
+    <t>Theme parks (Reviews)</t>
+  </si>
+  <si>
+    <t>yang_2021_revealing_industry_challenge_and_business_response_to_covid_19_a_text_mining_approach</t>
+  </si>
+  <si>
+    <t>Mu Yang and Chunjia Han</t>
+  </si>
+  <si>
+    <t>Revealing industry challenge and business response to Covid-19: a text mining approach </t>
+  </si>
+  <si>
+    <t>International Journal of Contemporary Hospitality Management</t>
+  </si>
+  <si>
+    <t>jebari_2021_the_use_of_citation_context_to_detect_the_evolution_of_research_topics_a_large_scale_analysis</t>
+  </si>
+  <si>
+    <t>Scientometrics</t>
+  </si>
+  <si>
+    <t>Jebari, Chaker and Herrera-Viedma, Enrique and Cobo, Manuel Jesus</t>
+  </si>
+  <si>
+    <t>The use of citation context to detect the evolution of research topics: a large‐scale analysis </t>
+  </si>
+  <si>
+    <t>Biomedical &amp; Life Science</t>
+  </si>
+  <si>
+    <t>Sentiment analysis research (Bibliometric)</t>
+  </si>
+  <si>
+    <t>Sentiment analysis research</t>
+  </si>
+  <si>
+    <t>chen_2020_a_structural_topic_modeling_based_bibliometric_study_of_sentiment_analysis_literature</t>
+  </si>
+  <si>
+    <t>Chen, Xieling and Xie, Haoran</t>
+  </si>
+  <si>
+    <t>A Structural Topic Modeling-Based Bibliometric Study of Sentiment Analysis Literature </t>
+  </si>
+  <si>
+    <t>Cognitive Computation</t>
+  </si>
+  <si>
+    <t>monselise_2021_topics_and_sentiments_of_public_concerns_regarding_covid_19_vaccines_social_media_trend_analysis</t>
+  </si>
+  <si>
+    <t>Michal Monselise and Chia-Hsuan Chang and Gustavo Ferreira and Rita Yang and Christopher C Yang</t>
+  </si>
+  <si>
+    <t>Topics and Sentiments of Public Concerns Regarding COVID-19 Vaccines: Social Media Trend Analysis </t>
+  </si>
+  <si>
+    <t>Journal of Medical Internet Research</t>
+  </si>
+  <si>
+    <t>Health (COVID-19)</t>
+  </si>
+  <si>
+    <t>amat_2022_quality_4_0_big_data_analytics_to_explore_service_quality_attributes_and_their_relation_to_user_sentiment_in_airbnb_reviews</t>
+  </si>
+  <si>
+    <t>Natalia Amat-Lefort and Federico Barravecchia and Luca Mastrogiacomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality 4.0: big data analytics to explore service quality attributes and their relation to user sentiment in Airbnb reviews </t>
+  </si>
+  <si>
+    <t>International Journal of Quality &amp; Reliability Management</t>
+  </si>
+  <si>
+    <t>Quality management</t>
+  </si>
+  <si>
+    <t>Label from previous studies or Manual labeling assisted by associated documents </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1544,12 +1685,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2443,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3535,7 +3670,7 @@
         <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4599,31 +4734,26 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B66">
         <v>2017</v>
       </c>
       <c r="C66" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" t="s">
         <v>390</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>391</v>
-      </c>
-      <c r="E66" t="s">
-        <v>392</v>
       </c>
       <c r="F66" t="s">
         <v>83</v>
@@ -4635,7 +4765,7 @@
         <v>84</v>
       </c>
       <c r="I66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J66" t="s">
         <v>131</v>
@@ -4649,19 +4779,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
       <c r="C67" t="s">
+        <v>394</v>
+      </c>
+      <c r="D67" t="s">
         <v>395</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>396</v>
-      </c>
-      <c r="E67" t="s">
-        <v>397</v>
       </c>
       <c r="F67" t="s">
         <v>83</v>
@@ -4687,19 +4817,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68">
         <v>2020</v>
       </c>
       <c r="C68" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" t="s">
         <v>401</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>402</v>
-      </c>
-      <c r="E68" t="s">
-        <v>403</v>
       </c>
       <c r="F68" t="s">
         <v>83</v>
@@ -4717,27 +4847,27 @@
         <v>235</v>
       </c>
       <c r="K68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B69">
         <v>2019</v>
       </c>
       <c r="C69" t="s">
+        <v>404</v>
+      </c>
+      <c r="D69" t="s">
         <v>405</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>406</v>
-      </c>
-      <c r="E69" t="s">
-        <v>407</v>
       </c>
       <c r="F69" t="s">
         <v>83</v>
@@ -4755,27 +4885,27 @@
         <v>235</v>
       </c>
       <c r="K69" t="s">
+        <v>407</v>
+      </c>
+      <c r="L69" t="s">
         <v>408</v>
-      </c>
-      <c r="L69" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B70">
         <v>2017</v>
       </c>
       <c r="C70" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" t="s">
+        <v>416</v>
+      </c>
+      <c r="E70" t="s">
         <v>410</v>
-      </c>
-      <c r="D70" t="s">
-        <v>417</v>
-      </c>
-      <c r="E70" t="s">
-        <v>411</v>
       </c>
       <c r="F70" t="s">
         <v>83</v>
@@ -4793,27 +4923,27 @@
         <v>131</v>
       </c>
       <c r="K70" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L70" t="s">
         <v>413</v>
-      </c>
-      <c r="L70" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B71">
         <v>2019</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F71" t="s">
         <v>123</v>
@@ -4825,13 +4955,13 @@
         <v>84</v>
       </c>
       <c r="I71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J71" t="s">
         <v>131</v>
       </c>
       <c r="K71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s">
         <v>75</v>
@@ -4839,19 +4969,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B72">
         <v>2018</v>
       </c>
       <c r="C72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
@@ -4863,7 +4993,7 @@
         <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J72" t="s">
         <v>131</v>
@@ -4877,19 +5007,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B73">
         <v>2021</v>
       </c>
       <c r="C73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F73" t="s">
         <v>83</v>
@@ -4915,19 +5045,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B74">
         <v>2018</v>
       </c>
       <c r="C74" t="s">
+        <v>431</v>
+      </c>
+      <c r="D74" t="s">
         <v>432</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>433</v>
-      </c>
-      <c r="E74" t="s">
-        <v>434</v>
       </c>
       <c r="F74" t="s">
         <v>83</v>
@@ -4939,33 +5069,33 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J74" t="s">
         <v>235</v>
       </c>
       <c r="K74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B75">
         <v>2017</v>
       </c>
       <c r="C75" t="s">
+        <v>437</v>
+      </c>
+      <c r="D75" t="s">
         <v>438</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>439</v>
-      </c>
-      <c r="E75" t="s">
-        <v>440</v>
       </c>
       <c r="F75" t="s">
         <v>83</v>
@@ -4977,7 +5107,7 @@
         <v>84</v>
       </c>
       <c r="I75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J75" t="s">
         <v>131</v>
@@ -4986,24 +5116,24 @@
         <v>96</v>
       </c>
       <c r="L75" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B76">
         <v>2019</v>
       </c>
       <c r="C76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F76" t="s">
         <v>83</v>
@@ -5015,7 +5145,7 @@
         <v>84</v>
       </c>
       <c r="I76" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J76" t="s">
         <v>131</v>
@@ -5024,24 +5154,24 @@
         <v>265</v>
       </c>
       <c r="L76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B77">
         <v>2019</v>
       </c>
       <c r="C77" t="s">
+        <v>448</v>
+      </c>
+      <c r="D77" t="s">
         <v>449</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>450</v>
-      </c>
-      <c r="E77" t="s">
-        <v>451</v>
       </c>
       <c r="F77" t="s">
         <v>62</v>
@@ -5053,7 +5183,7 @@
         <v>64</v>
       </c>
       <c r="I77" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J77" t="s">
         <v>131</v>
@@ -5062,24 +5192,24 @@
         <v>144</v>
       </c>
       <c r="L77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B78">
         <v>2021</v>
       </c>
       <c r="C78" t="s">
+        <v>453</v>
+      </c>
+      <c r="D78" t="s">
         <v>454</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>455</v>
-      </c>
-      <c r="E78" t="s">
-        <v>456</v>
       </c>
       <c r="F78" t="s">
         <v>62</v>
@@ -5091,33 +5221,33 @@
         <v>64</v>
       </c>
       <c r="I78" t="s">
+        <v>456</v>
+      </c>
+      <c r="J78" t="s">
         <v>457</v>
-      </c>
-      <c r="J78" t="s">
-        <v>458</v>
       </c>
       <c r="K78" t="s">
         <v>144</v>
       </c>
       <c r="L78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B79">
         <v>2020</v>
       </c>
       <c r="C79" t="s">
+        <v>460</v>
+      </c>
+      <c r="D79" t="s">
         <v>461</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>462</v>
-      </c>
-      <c r="E79" t="s">
-        <v>463</v>
       </c>
       <c r="F79" t="s">
         <v>62</v>
@@ -5129,30 +5259,30 @@
         <v>64</v>
       </c>
       <c r="J79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K79" t="s">
         <v>216</v>
       </c>
       <c r="L79" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B80">
         <v>2018</v>
       </c>
       <c r="C80" t="s">
+        <v>466</v>
+      </c>
+      <c r="D80" t="s">
         <v>467</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>468</v>
-      </c>
-      <c r="E80" t="s">
-        <v>469</v>
       </c>
       <c r="F80" t="s">
         <v>83</v>
@@ -5164,7 +5294,7 @@
         <v>84</v>
       </c>
       <c r="I80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J80" t="s">
         <v>131</v>
@@ -5173,24 +5303,24 @@
         <v>322</v>
       </c>
       <c r="L80" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B81">
         <v>2017</v>
       </c>
       <c r="C81" t="s">
+        <v>471</v>
+      </c>
+      <c r="D81" t="s">
+        <v>472</v>
+      </c>
+      <c r="E81" t="s">
         <v>473</v>
-      </c>
-      <c r="D81" t="s">
-        <v>474</v>
-      </c>
-      <c r="E81" t="s">
-        <v>475</v>
       </c>
       <c r="F81" t="s">
         <v>62</v>
@@ -5202,7 +5332,7 @@
         <v>64</v>
       </c>
       <c r="I81" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J81" t="s">
         <v>131</v>
@@ -5216,19 +5346,19 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B82">
         <v>2018</v>
       </c>
       <c r="C82" t="s">
+        <v>475</v>
+      </c>
+      <c r="D82" t="s">
+        <v>476</v>
+      </c>
+      <c r="E82" t="s">
         <v>477</v>
-      </c>
-      <c r="D82" t="s">
-        <v>478</v>
-      </c>
-      <c r="E82" t="s">
-        <v>479</v>
       </c>
       <c r="F82" t="s">
         <v>62</v>
@@ -5240,7 +5370,7 @@
         <v>64</v>
       </c>
       <c r="I82" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J82" t="s">
         <v>131</v>
@@ -5250,6 +5380,353 @@
       </c>
       <c r="L82" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>479</v>
+      </c>
+      <c r="B83">
+        <v>2019</v>
+      </c>
+      <c r="C83" t="s">
+        <v>480</v>
+      </c>
+      <c r="D83" t="s">
+        <v>481</v>
+      </c>
+      <c r="E83" t="s">
+        <v>482</v>
+      </c>
+      <c r="F83" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" t="s">
+        <v>283</v>
+      </c>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+      <c r="K83" t="s">
+        <v>312</v>
+      </c>
+      <c r="L83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>486</v>
+      </c>
+      <c r="B87">
+        <v>2020</v>
+      </c>
+      <c r="C87" t="s">
+        <v>487</v>
+      </c>
+      <c r="D87" t="s">
+        <v>488</v>
+      </c>
+      <c r="E87" t="s">
+        <v>489</v>
+      </c>
+      <c r="F87" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" t="s">
+        <v>440</v>
+      </c>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+      <c r="K87" t="s">
+        <v>483</v>
+      </c>
+      <c r="L87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>496</v>
+      </c>
+      <c r="B88">
+        <v>2022</v>
+      </c>
+      <c r="C88" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" t="s">
+        <v>494</v>
+      </c>
+      <c r="E88" t="s">
+        <v>493</v>
+      </c>
+      <c r="F88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s">
+        <v>84</v>
+      </c>
+      <c r="I88" t="s">
+        <v>108</v>
+      </c>
+      <c r="J88" t="s">
+        <v>131</v>
+      </c>
+      <c r="K88" t="s">
+        <v>492</v>
+      </c>
+      <c r="L88" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>497</v>
+      </c>
+      <c r="B89">
+        <v>2020</v>
+      </c>
+      <c r="C89" t="s">
+        <v>498</v>
+      </c>
+      <c r="D89" t="s">
+        <v>499</v>
+      </c>
+      <c r="E89" t="s">
+        <v>500</v>
+      </c>
+      <c r="F89" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" t="s">
+        <v>108</v>
+      </c>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L89" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>502</v>
+      </c>
+      <c r="B90">
+        <v>2021</v>
+      </c>
+      <c r="C90" t="s">
+        <v>503</v>
+      </c>
+      <c r="D90" t="s">
+        <v>504</v>
+      </c>
+      <c r="E90" t="s">
+        <v>505</v>
+      </c>
+      <c r="F90" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>84</v>
+      </c>
+      <c r="I90" t="s">
+        <v>440</v>
+      </c>
+      <c r="J90" t="s">
+        <v>235</v>
+      </c>
+      <c r="K90" t="s">
+        <v>412</v>
+      </c>
+      <c r="L90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>506</v>
+      </c>
+      <c r="B91">
+        <v>2021</v>
+      </c>
+      <c r="C91" t="s">
+        <v>508</v>
+      </c>
+      <c r="D91" t="s">
+        <v>509</v>
+      </c>
+      <c r="E91" t="s">
+        <v>507</v>
+      </c>
+      <c r="F91" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91" t="s">
+        <v>392</v>
+      </c>
+      <c r="J91" t="s">
+        <v>457</v>
+      </c>
+      <c r="K91" t="s">
+        <v>510</v>
+      </c>
+      <c r="L91" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>513</v>
+      </c>
+      <c r="B92">
+        <v>2020</v>
+      </c>
+      <c r="C92" t="s">
+        <v>514</v>
+      </c>
+      <c r="D92" t="s">
+        <v>515</v>
+      </c>
+      <c r="E92" t="s">
+        <v>516</v>
+      </c>
+      <c r="F92" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" t="s">
+        <v>440</v>
+      </c>
+      <c r="J92" t="s">
+        <v>235</v>
+      </c>
+      <c r="K92" t="s">
+        <v>511</v>
+      </c>
+      <c r="L92" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>517</v>
+      </c>
+      <c r="B93">
+        <v>2021</v>
+      </c>
+      <c r="C93" t="s">
+        <v>518</v>
+      </c>
+      <c r="D93" t="s">
+        <v>519</v>
+      </c>
+      <c r="E93" t="s">
+        <v>520</v>
+      </c>
+      <c r="F93" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" t="s">
+        <v>108</v>
+      </c>
+      <c r="J93" t="s">
+        <v>463</v>
+      </c>
+      <c r="K93" t="s">
+        <v>521</v>
+      </c>
+      <c r="L93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B94">
+        <v>2022</v>
+      </c>
+      <c r="C94" t="s">
+        <v>523</v>
+      </c>
+      <c r="D94" t="s">
+        <v>524</v>
+      </c>
+      <c r="E94" t="s">
+        <v>525</v>
+      </c>
+      <c r="F94" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" t="s">
+        <v>527</v>
+      </c>
+      <c r="J94" t="s">
+        <v>235</v>
+      </c>
+      <c r="K94" t="s">
+        <v>526</v>
+      </c>
+      <c r="L94" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF000B62-534B-354B-ACCB-32FEF525F36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596C2914-B9E5-C04B-9209-0FB478F6BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="532">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1657,6 +1657,18 @@
   </si>
   <si>
     <t>Label from previous studies or Manual labeling assisted by associated documents </t>
+  </si>
+  <si>
+    <t>cornelissen_2019_a_computational_analysis_of_news_media_bias_a_south_african_case_study</t>
+  </si>
+  <si>
+    <t>Laurenz A. Cornelissen and Lucia I. Daly and Qhama Sinandile and Heinrich de Lange and Richard J. Barnett</t>
+  </si>
+  <si>
+    <t>A Computational Analysis of News Media Bias: A South African Case Study </t>
+  </si>
+  <si>
+    <t>SAICSIT</t>
   </si>
 </sst>
 </file>
@@ -2578,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="H78" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5729,6 +5741,44 @@
         <v>412</v>
       </c>
     </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>528</v>
+      </c>
+      <c r="B95">
+        <v>2019</v>
+      </c>
+      <c r="C95" t="s">
+        <v>529</v>
+      </c>
+      <c r="D95" t="s">
+        <v>530</v>
+      </c>
+      <c r="E95" t="s">
+        <v>531</v>
+      </c>
+      <c r="F95" t="s">
+        <v>83</v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" t="s">
+        <v>108</v>
+      </c>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+      <c r="K95" t="s">
+        <v>145</v>
+      </c>
+      <c r="L95" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596C2914-B9E5-C04B-9209-0FB478F6BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBAC95-8714-434A-A974-FF5C0E73C2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="546">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1669,6 +1669,48 @@
   </si>
   <si>
     <t>SAICSIT</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Bibliometrics?</t>
+  </si>
+  <si>
+    <t>chen_2020_detecting_latent_topics_and_trends_in_educational_technologies_over_four_decades_using_structural_topic_modeling_a_retrospective_of_all_volumes_of_computers_and_education</t>
+  </si>
+  <si>
+    <t>Xieling Chen and Di Zou and Gary Cheng and Haoran Xie</t>
+  </si>
+  <si>
+    <t>Detecting latent topics and trends in educational technologies over four decades using structural topic modeling: A retrospective of all volumes of Computers &amp; Education</t>
+  </si>
+  <si>
+    <t>Computers &amp; Education</t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by: labels from previous literature, top words provided by multiple metrics and associated documents</t>
+  </si>
+  <si>
+    <t>International Journal of Hospitality Management</t>
+  </si>
+  <si>
+    <t>Employing structural topic modelling to explore perceived service quality attributes in Airbnb accommodation </t>
+  </si>
+  <si>
+    <t>Kai Ding and Wei Chong Choo and Keng Yap Ng and Siew Imm Ng</t>
+  </si>
+  <si>
+    <t>ding_2020_employing_structural_topic_modelling_to_explore_perceived_service_quality_attributes_in_airbnb_accommodation</t>
+  </si>
+  <si>
+    <t>ebadi_2021_understanding_the_temporal_evolution_of_COVID_19_research_through_machine_learning_and_natural_language_processing</t>
+  </si>
+  <si>
+    <t>Ebadi, Ashkan and Xi, Pengcheng and Tremblay, St{'e}phane and Spencer, Bruce and Pall, Raman and Wong, Alexander</t>
+  </si>
+  <si>
+    <t>Understanding the temporal evolution of COVID-19 research through machine learning and natural language processing</t>
   </si>
 </sst>
 </file>
@@ -2590,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H78" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="H72" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5779,6 +5821,120 @@
         <v>145</v>
       </c>
     </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>534</v>
+      </c>
+      <c r="B96">
+        <v>2020</v>
+      </c>
+      <c r="C96" t="s">
+        <v>535</v>
+      </c>
+      <c r="D96" t="s">
+        <v>536</v>
+      </c>
+      <c r="E96" t="s">
+        <v>537</v>
+      </c>
+      <c r="F96" t="s">
+        <v>83</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" t="s">
+        <v>440</v>
+      </c>
+      <c r="J96" t="s">
+        <v>235</v>
+      </c>
+      <c r="K96" t="s">
+        <v>533</v>
+      </c>
+      <c r="L96" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>542</v>
+      </c>
+      <c r="B97">
+        <v>2020</v>
+      </c>
+      <c r="C97" t="s">
+        <v>541</v>
+      </c>
+      <c r="D97" t="s">
+        <v>540</v>
+      </c>
+      <c r="E97" t="s">
+        <v>539</v>
+      </c>
+      <c r="F97" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" t="s">
+        <v>84</v>
+      </c>
+      <c r="I97" t="s">
+        <v>538</v>
+      </c>
+      <c r="J97" t="s">
+        <v>235</v>
+      </c>
+      <c r="K97" t="s">
+        <v>412</v>
+      </c>
+      <c r="L97" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>543</v>
+      </c>
+      <c r="B98">
+        <v>2021</v>
+      </c>
+      <c r="C98" t="s">
+        <v>544</v>
+      </c>
+      <c r="D98" t="s">
+        <v>545</v>
+      </c>
+      <c r="E98" t="s">
+        <v>507</v>
+      </c>
+      <c r="F98" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" t="s">
+        <v>108</v>
+      </c>
+      <c r="J98" t="s">
+        <v>235</v>
+      </c>
+      <c r="K98" t="s">
+        <v>521</v>
+      </c>
+      <c r="L98" t="s">
+        <v>521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBAC95-8714-434A-A974-FF5C0E73C2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6E335-3A64-8240-B0AE-959D09AE47C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="555">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1711,6 +1711,33 @@
   </si>
   <si>
     <t>Understanding the temporal evolution of COVID-19 research through machine learning and natural language processing</t>
+  </si>
+  <si>
+    <t>Journal of Retailing and Consumer Services</t>
+  </si>
+  <si>
+    <t>Online food delivery companies’ performance and consumers expectations during Covid-19: An investigation using machine learning approach </t>
+  </si>
+  <si>
+    <t>Purushottam Meena and Gopal Kumar</t>
+  </si>
+  <si>
+    <t>meena_2022_online_food_delivery_companies_performance_and_consumers_expectations_during_Covid_19_an_investigation_using_machine_learning_approach</t>
+  </si>
+  <si>
+    <t>chen_2022_a_decade_of_sentic_computing_topic_modeling_and_bibliometric_analysis</t>
+  </si>
+  <si>
+    <t>Chen, Xieling and Xie, Haoran and Cheng, Gary and Li, Zongxi</t>
+  </si>
+  <si>
+    <t>A Decade of Sentic Computing: Topic Modeling and Bibliometric Analysis </t>
+  </si>
+  <si>
+    <t>Bibliometrics (Sentic Computing)</t>
+  </si>
+  <si>
+    <t>Sentic Computing</t>
   </si>
 </sst>
 </file>
@@ -2632,10 +2659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H72" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView tabSelected="1" topLeftCell="H65" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5935,6 +5962,79 @@
         <v>521</v>
       </c>
     </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>549</v>
+      </c>
+      <c r="B99">
+        <v>2022</v>
+      </c>
+      <c r="C99" t="s">
+        <v>548</v>
+      </c>
+      <c r="D99" t="s">
+        <v>547</v>
+      </c>
+      <c r="E99" t="s">
+        <v>546</v>
+      </c>
+      <c r="F99" t="s">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99" t="s">
+        <v>108</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+      <c r="L99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>550</v>
+      </c>
+      <c r="B100">
+        <v>2022</v>
+      </c>
+      <c r="C100" t="s">
+        <v>551</v>
+      </c>
+      <c r="D100" t="s">
+        <v>552</v>
+      </c>
+      <c r="E100" t="s">
+        <v>516</v>
+      </c>
+      <c r="F100" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100" t="s">
+        <v>440</v>
+      </c>
+      <c r="J100" t="s">
+        <v>235</v>
+      </c>
+      <c r="K100" t="s">
+        <v>553</v>
+      </c>
+      <c r="L100" t="s">
+        <v>554</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6E335-3A64-8240-B0AE-959D09AE47C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32D897-C773-6745-B3B7-73814C976575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="570">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1738,6 +1738,51 @@
   </si>
   <si>
     <t>Sentic Computing</t>
+  </si>
+  <si>
+    <t>Probability-based method (LDAvis relevance threshold)</t>
+  </si>
+  <si>
+    <t>hagen_2019_open_data_visualizations_and_analytics_as_tools_for_policy_making</t>
+  </si>
+  <si>
+    <t>Loni Hagen and Thomas E. Keller and Xiaoyi Yerden and Luis Felipe Luna-Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open data visualizations and analytics as tools for policy-making </t>
+  </si>
+  <si>
+    <t>Government Information Quarterly</t>
+  </si>
+  <si>
+    <t>yoo_2022_exploring_the_nexus_between_food_and_vegan_lifestyle_via_text_mining_based_online_community_analytics</t>
+  </si>
+  <si>
+    <t>Ra Yoo and Seo-Young Kim and Do-Hee Kim and Jiyoung Kim and Ye Ji Jeon and Jung Han Yoon Park and Ki Won Lee and Hee Yan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the nexus between food and veg*n lifestyle via text mining-based online community analytics </t>
+  </si>
+  <si>
+    <t>Food Quality and Preference</t>
+  </si>
+  <si>
+    <t>aman_2021_listen_to_e_scooter_riders_mining_rider_satisfaction_factors_from_app_store_reviews</t>
+  </si>
+  <si>
+    <t>Javad J.C. Aman and Janille Smith-Colin and Wenwen Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen to E-scooter riders: Mining rider satisfaction factors from app store reviews </t>
+  </si>
+  <si>
+    <t>Transportation Research Part D: Transport and Environment</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Transportation (Reviews)</t>
   </si>
 </sst>
 </file>
@@ -2659,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H65" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6035,6 +6080,117 @@
         <v>554</v>
       </c>
     </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>556</v>
+      </c>
+      <c r="B101">
+        <v>2019</v>
+      </c>
+      <c r="C101" t="s">
+        <v>557</v>
+      </c>
+      <c r="D101" t="s">
+        <v>558</v>
+      </c>
+      <c r="E101" t="s">
+        <v>559</v>
+      </c>
+      <c r="F101" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101" t="s">
+        <v>555</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+      <c r="K101" t="s">
+        <v>458</v>
+      </c>
+      <c r="L101" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>560</v>
+      </c>
+      <c r="B102">
+        <v>2022</v>
+      </c>
+      <c r="C102" t="s">
+        <v>561</v>
+      </c>
+      <c r="D102" t="s">
+        <v>562</v>
+      </c>
+      <c r="E102" t="s">
+        <v>563</v>
+      </c>
+      <c r="F102" t="s">
+        <v>83</v>
+      </c>
+      <c r="G102" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102" t="s">
+        <v>108</v>
+      </c>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+      <c r="K102" t="s">
+        <v>492</v>
+      </c>
+      <c r="L102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B103">
+        <v>2021</v>
+      </c>
+      <c r="C103" t="s">
+        <v>565</v>
+      </c>
+      <c r="D103" t="s">
+        <v>566</v>
+      </c>
+      <c r="E103" t="s">
+        <v>567</v>
+      </c>
+      <c r="G103" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103" t="s">
+        <v>108</v>
+      </c>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+      <c r="K103" t="s">
+        <v>568</v>
+      </c>
+      <c r="L103" t="s">
+        <v>569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32D897-C773-6745-B3B7-73814C976575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00665C4-2E71-D345-9719-B0A20A74A6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="580">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1783,6 +1783,36 @@
   </si>
   <si>
     <t>Transportation (Reviews)</t>
+  </si>
+  <si>
+    <t>chung_2022_understanding_music_streaming_services_via_text_mining_of_online_customer_reviews</t>
+  </si>
+  <si>
+    <t>Jaemin Chung and Jiho Lee and Janghyeok Yoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding music streaming services via text mining of online customer reviews </t>
+  </si>
+  <si>
+    <t>Electronic Commerce Research and Applications</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>ojo_2021_what_matters_most_to_patients_on_the_core_determinants_of_patient_experience_from_free_text_feedback</t>
+  </si>
+  <si>
+    <t>Adegboyega Ojo and Nina Rizun</t>
+  </si>
+  <si>
+    <t>What matters most to patients? On the Core Determinants of Patient Experience from Free Text Feedback</t>
+  </si>
+  <si>
+    <t>ICIS</t>
+  </si>
+  <si>
+    <t>Two phase approach (Manual labeling, Manual labeling assisted by associated documents)</t>
   </si>
 </sst>
 </file>
@@ -2704,10 +2734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="H81" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6191,6 +6221,82 @@
         <v>569</v>
       </c>
     </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>570</v>
+      </c>
+      <c r="B104">
+        <v>2022</v>
+      </c>
+      <c r="C104" t="s">
+        <v>571</v>
+      </c>
+      <c r="D104" t="s">
+        <v>572</v>
+      </c>
+      <c r="E104" t="s">
+        <v>573</v>
+      </c>
+      <c r="F104" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104" t="s">
+        <v>108</v>
+      </c>
+      <c r="J104" t="s">
+        <v>336</v>
+      </c>
+      <c r="K104" t="s">
+        <v>574</v>
+      </c>
+      <c r="L104" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B105">
+        <v>2021</v>
+      </c>
+      <c r="C105" t="s">
+        <v>576</v>
+      </c>
+      <c r="D105" t="s">
+        <v>577</v>
+      </c>
+      <c r="E105" t="s">
+        <v>578</v>
+      </c>
+      <c r="F105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" t="s">
+        <v>579</v>
+      </c>
+      <c r="J105" t="s">
+        <v>235</v>
+      </c>
+      <c r="K105" t="s">
+        <v>260</v>
+      </c>
+      <c r="L105" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00665C4-2E71-D345-9719-B0A20A74A6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB0886E-0044-2F4A-803B-8497763092F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="590">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1813,6 +1813,36 @@
   </si>
   <si>
     <t>Two phase approach (Manual labeling, Manual labeling assisted by associated documents)</t>
+  </si>
+  <si>
+    <t>symitsi_2021_the_informational_value_of_employee_online_reviews</t>
+  </si>
+  <si>
+    <t>Efthymia Symitsi and Panagiotis Stamolampros and George Daskalakis and Nikolaos Korfiatis</t>
+  </si>
+  <si>
+    <t>The Informational Value of Employee Online Reviews</t>
+  </si>
+  <si>
+    <t>European Journal of Operational Research</t>
+  </si>
+  <si>
+    <t>stamolampros_2020_harnessing_the_wisdom_of_employees_from_online_reviews</t>
+  </si>
+  <si>
+    <t>Panagiotis Stamolampros and Nikolaos Korfiatis and Konstantinos Chalvatzis and Dimitrios Buhalis</t>
+  </si>
+  <si>
+    <t>Harnessing the “Wisdom of Employees” from Online Reviews</t>
+  </si>
+  <si>
+    <t>Annals of Tourism Research</t>
+  </si>
+  <si>
+    <t>stamolampros_2019_job_satisfaction_and_employee_turnover_determinants_in_high_contact_services_insights_from_employees_online_reviews</t>
+  </si>
+  <si>
+    <t>Job Satisfaction and Employee Turnover Determinants in High Contact Services: Insights from Employees’Online Reviews</t>
   </si>
 </sst>
 </file>
@@ -2734,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H81" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6297,6 +6327,114 @@
         <v>260</v>
       </c>
     </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>580</v>
+      </c>
+      <c r="B106">
+        <v>2021</v>
+      </c>
+      <c r="C106" t="s">
+        <v>581</v>
+      </c>
+      <c r="D106" t="s">
+        <v>582</v>
+      </c>
+      <c r="E106" t="s">
+        <v>583</v>
+      </c>
+      <c r="F106" t="s">
+        <v>83</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106" t="s">
+        <v>440</v>
+      </c>
+      <c r="J106" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B107">
+        <v>2020</v>
+      </c>
+      <c r="C107" t="s">
+        <v>585</v>
+      </c>
+      <c r="D107" t="s">
+        <v>586</v>
+      </c>
+      <c r="E107" t="s">
+        <v>587</v>
+      </c>
+      <c r="F107" t="s">
+        <v>83</v>
+      </c>
+      <c r="G107" t="s">
+        <v>72</v>
+      </c>
+      <c r="H107" t="s">
+        <v>84</v>
+      </c>
+      <c r="I107" t="s">
+        <v>108</v>
+      </c>
+      <c r="J107" t="s">
+        <v>235</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L107" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B108">
+        <v>2019</v>
+      </c>
+      <c r="C108" t="s">
+        <v>585</v>
+      </c>
+      <c r="D108" t="s">
+        <v>589</v>
+      </c>
+      <c r="E108" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108" t="s">
+        <v>83</v>
+      </c>
+      <c r="G108" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" t="s">
+        <v>84</v>
+      </c>
+      <c r="I108" t="s">
+        <v>440</v>
+      </c>
+      <c r="J108" t="s">
+        <v>235</v>
+      </c>
+      <c r="K108" t="s">
+        <v>412</v>
+      </c>
+      <c r="L108" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB0886E-0044-2F4A-803B-8497763092F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE718C8-20D5-7341-9EC8-29A511A72319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="595">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1843,6 +1843,21 @@
   </si>
   <si>
     <t>Job Satisfaction and Employee Turnover Determinants in High Contact Services: Insights from Employees’Online Reviews</t>
+  </si>
+  <si>
+    <t>he_2021_automatic_topic_labeling_model_with_paired_attention_based_on_pre_trained_deep_neural_network</t>
+  </si>
+  <si>
+    <t>He, Dongbin and Ren, Yanzhao and Khattak, Abdul Mateen and Liu, Xinliang and Tao, Sha and Gao, Wanlin</t>
+  </si>
+  <si>
+    <t>IJCNN</t>
+  </si>
+  <si>
+    <t>Transformer-based (BERT)</t>
+  </si>
+  <si>
+    <t>Automatic Topic Labeling model with Paired- Attention based on Pre-trained Deep Neural Network</t>
   </si>
 </sst>
 </file>
@@ -2764,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6435,6 +6450,69 @@
         <v>412</v>
       </c>
     </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B109">
+        <v>2021</v>
+      </c>
+      <c r="C109" t="s">
+        <v>591</v>
+      </c>
+      <c r="D109" t="s">
+        <v>594</v>
+      </c>
+      <c r="E109" t="s">
+        <v>592</v>
+      </c>
+      <c r="F109" t="s">
+        <v>62</v>
+      </c>
+      <c r="G109" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" t="s">
+        <v>64</v>
+      </c>
+      <c r="I109" t="s">
+        <v>593</v>
+      </c>
+      <c r="J109" t="s">
+        <v>131</v>
+      </c>
+      <c r="K109" t="s">
+        <v>144</v>
+      </c>
+      <c r="L109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE718C8-20D5-7341-9EC8-29A511A72319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E8464-0B26-1447-8DB3-5A9DBB21287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="602">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1858,6 +1859,27 @@
   </si>
   <si>
     <t>Automatic Topic Labeling model with Paired- Attention based on Pre-trained Deep Neural Network</t>
+  </si>
+  <si>
+    <t>truic_2021_tlatr_automatic_topic_labeling_using_automatic_domain_specific_term_recognition</t>
+  </si>
+  <si>
+    <t>Ciprian-Octavian Truică and Elena Simona Apostol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLATR: Automatic Topic Labeling Using Automatic (Domain-Specific) Term Recognition </t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>Automatic (domain-specific) term recognition algorithm (ATR)</t>
+  </si>
+  <si>
+    <t>LDA, NMF</t>
+  </si>
+  <si>
+    <t>Scientific literature</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1904,6 +1926,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,7 +2028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2016,6 +2044,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2781,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="G84" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4308,8 +4337,8 @@
       <c r="E45" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>123</v>
+      <c r="F45" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="G45" t="s">
         <v>72</v>
@@ -4346,8 +4375,8 @@
       <c r="E46" t="s">
         <v>211</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>123</v>
+      <c r="F46" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="G46" t="s">
         <v>63</v>
@@ -6489,8 +6518,41 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B110">
+        <v>2021</v>
+      </c>
+      <c r="C110" t="s">
+        <v>596</v>
+      </c>
+      <c r="D110" t="s">
+        <v>597</v>
+      </c>
+      <c r="E110" t="s">
+        <v>598</v>
+      </c>
       <c r="F110" t="s">
         <v>62</v>
+      </c>
+      <c r="G110" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" t="s">
+        <v>64</v>
+      </c>
+      <c r="I110" t="s">
+        <v>599</v>
+      </c>
+      <c r="J110" t="s">
+        <v>600</v>
+      </c>
+      <c r="K110" t="s">
+        <v>144</v>
+      </c>
+      <c r="L110" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -6518,4 +6580,527 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFADCCF-61A0-944D-B185-2E91824E28A3}">
+  <dimension ref="A1:A108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E8464-0B26-1447-8DB3-5A9DBB21287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE09FF4-9167-7144-AE88-80C1C5C4506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={1D0CCD78-35D8-A44B-A872-8EB6BB2DFBBE}</author>
     <author>tc={3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}</author>
     <author>tc={FA06E228-5451-5E47-8EB3-FD79C4BFA55A}</author>
     <author>tc={A0B7F135-549A-8F4D-913F-6AE614EB6BFC}</author>
+    <author>tc={309F9DB9-6FBF-6649-89E6-6864975F5458}</author>
   </authors>
   <commentList>
-    <comment ref="A72" authorId="0" shapeId="0" xr:uid="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{1D0CCD78-35D8-A44B-A872-8EB6BB2DFBBE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Re-check manual classification</t>
+      </text>
+    </comment>
+    <comment ref="A72" authorId="1" shapeId="0" xr:uid="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +63,7 @@
     Appendix access?</t>
       </text>
     </comment>
-    <comment ref="A79" authorId="1" shapeId="0" xr:uid="{FA06E228-5451-5E47-8EB3-FD79C4BFA55A}">
+    <comment ref="A79" authorId="2" shapeId="0" xr:uid="{FA06E228-5451-5E47-8EB3-FD79C4BFA55A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +71,7 @@
     Some fields to complete</t>
       </text>
     </comment>
-    <comment ref="A81" authorId="2" shapeId="0" xr:uid="{A0B7F135-549A-8F4D-913F-6AE614EB6BFC}">
+    <comment ref="A81" authorId="3" shapeId="0" xr:uid="{A0B7F135-549A-8F4D-913F-6AE614EB6BFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,12 +79,20 @@
     Consider removing due to lack of detail</t>
       </text>
     </comment>
+    <comment ref="A113" authorId="4" shapeId="0" xr:uid="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="636">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1880,13 +1898,115 @@
   </si>
   <si>
     <t>Scientific literature</t>
+  </si>
+  <si>
+    <t>scelsi_2021_principled_analysis_of_energy_discourse_across_domains_with_thesaurus_based_automatic_topic_labeling</t>
+  </si>
+  <si>
+    <t>Scelsi, Thomas and Arranz, Alfonso Martinez and Frermann, Lea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principled Analysis of Energy Discourse across Domains with Thesaurus-based Automatic Topic Labeling </t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>Thesaurus-based automatic labeling</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>rosati_2022_moving_beyond_word_lists_towards_abstractive_topic_labels_for_human_like_topics_of_scientific_documents</t>
+  </si>
+  <si>
+    <t>Rosati, Domenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving beyond word lists: towards abstractive topic labels for human-like topics of scientific documents </t>
+  </si>
+  <si>
+    <t>WIESP</t>
+  </si>
+  <si>
+    <t>Abstractive multi-document summarization (MDS)</t>
+  </si>
+  <si>
+    <t>CTM</t>
+  </si>
+  <si>
+    <t>he_2021_automatic_topic_labeling_using_graph_based_pre_trained_neural_embedding</t>
+  </si>
+  <si>
+    <t>Dongbin He and Yanzhao Ren and Abdul Mateen Khattak and Xinliang Liu and Sha Tao and Wanlin Gao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic topic labeling using graph-based pre-trained neural embedding </t>
+  </si>
+  <si>
+    <t>Neurocomputing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph-based pre-trained neural embedding </t>
+  </si>
+  <si>
+    <t>Scientific literature, News</t>
+  </si>
+  <si>
+    <t>huang_2022_identification_of_topic_evolution_network_analytics_with_piecewise_linear_representation_and_word_embedding</t>
+  </si>
+  <si>
+    <t>Huang, Lu and Chen, Xiang and Zhang, Yi and Wang, Changtian and Cao, Xiaoli and Liu, Jiarun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification of topic evolution: network analytics with piecewise linear representation and word embedding </t>
+  </si>
+  <si>
+    <t>Network community labeling based on Z score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community detection based on Fast Unfolding </t>
+  </si>
+  <si>
+    <t>Information Science</t>
+  </si>
+  <si>
+    <t>zhang_2021_topic_evolution_disruption_and_resilience_in_early_covid_19_research</t>
+  </si>
+  <si>
+    <t>Zhang, Yi and Cai, Xiaojing and Fry, Caroline V. and Wu, Mengjia and Wagner, Caroline S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic evolution, disruption and resilience in early COVID‐19 research </t>
+  </si>
+  <si>
+    <t>K-means approach</t>
+  </si>
+  <si>
+    <t>Established?</t>
+  </si>
+  <si>
+    <t>Cosine similarity topic-term extraction</t>
+  </si>
+  <si>
+    <t>he_2019_automatic_labeling_of_topic_models_using_graph_based_ranking</t>
+  </si>
+  <si>
+    <t>He, Dongbin and Wang, Minjuan and Khattak, Abdul Mateen and Zhang, Li and Gao, Wanlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Labeling of Topic Models Using Graph-Based Ranking </t>
+  </si>
+  <si>
+    <t>Redundancy-aware graph-based ranking model (TLRank)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1909,8 +2029,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1932,6 +2058,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,7 +2160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2045,6 +2177,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2064,6 +2198,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ceol Samuele (Student ENG 21)" id="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" userId="S::SamCeol@unibz.it::e1788db1-afc8-45ab-8b81-e2717f168101" providerId="AD"/>
   <person displayName="Ceol Samuele (Student Com21)" id="{74590BBD-5819-AB42-A4D3-506E02485AC1}" userId="S::samceol@unibz.it::e1788db1-afc8-45ab-8b81-e2717f168101" providerId="AD"/>
 </personList>
 </file>
@@ -2365,6 +2500,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A9" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{1D0CCD78-35D8-A44B-A872-8EB6BB2DFBBE}">
+    <text>Re-check manual classification</text>
+  </threadedComment>
   <threadedComment ref="A72" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{3E3CC3B4-9F66-7A40-9572-8CE5171BB0B4}">
     <text>Appendix access?</text>
   </threadedComment>
@@ -2373,6 +2511,9 @@
   </threadedComment>
   <threadedComment ref="A81" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{A0B7F135-549A-8F4D-913F-6AE614EB6BFC}">
     <text>Consider removing due to lack of detail</text>
+  </threadedComment>
+  <threadedComment ref="A113" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
+    <text>Incomplete summary</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2808,10 +2949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G84" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="G91" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3063,7 +3204,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B9">
@@ -6276,6 +6417,9 @@
       <c r="E103" t="s">
         <v>567</v>
       </c>
+      <c r="F103" t="s">
+        <v>83</v>
+      </c>
       <c r="G103" t="s">
         <v>72</v>
       </c>
@@ -6556,23 +6700,231 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B111">
+        <v>2021</v>
+      </c>
+      <c r="C111" t="s">
+        <v>603</v>
+      </c>
+      <c r="D111" t="s">
+        <v>604</v>
+      </c>
+      <c r="E111" t="s">
+        <v>605</v>
+      </c>
       <c r="F111" t="s">
         <v>62</v>
       </c>
+      <c r="G111" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" t="s">
+        <v>64</v>
+      </c>
+      <c r="I111" t="s">
+        <v>606</v>
+      </c>
+      <c r="J111" t="s">
+        <v>457</v>
+      </c>
+      <c r="K111" t="s">
+        <v>607</v>
+      </c>
+      <c r="L111" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B112">
+        <v>2022</v>
+      </c>
+      <c r="C112" t="s">
+        <v>609</v>
+      </c>
+      <c r="D112" t="s">
+        <v>610</v>
+      </c>
+      <c r="E112" t="s">
+        <v>611</v>
+      </c>
       <c r="F112" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" t="s">
+        <v>612</v>
+      </c>
+      <c r="J112" t="s">
+        <v>613</v>
+      </c>
+      <c r="K112" t="s">
+        <v>144</v>
+      </c>
+      <c r="L112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B113">
+        <v>2021</v>
+      </c>
+      <c r="C113" t="s">
+        <v>615</v>
+      </c>
+      <c r="D113" t="s">
+        <v>616</v>
+      </c>
+      <c r="E113" t="s">
+        <v>617</v>
+      </c>
       <c r="F113" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>63</v>
+      </c>
+      <c r="H113" t="s">
+        <v>64</v>
+      </c>
+      <c r="I113" t="s">
+        <v>618</v>
+      </c>
+      <c r="J113" t="s">
+        <v>131</v>
+      </c>
+      <c r="K113" t="s">
+        <v>144</v>
+      </c>
+      <c r="L113" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B114">
+        <v>2022</v>
+      </c>
+      <c r="C114" t="s">
+        <v>621</v>
+      </c>
+      <c r="D114" t="s">
+        <v>622</v>
+      </c>
+      <c r="E114" t="s">
+        <v>507</v>
+      </c>
       <c r="F114" t="s">
         <v>62</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>84</v>
+      </c>
+      <c r="I114" t="s">
+        <v>623</v>
+      </c>
+      <c r="J114" t="s">
+        <v>624</v>
+      </c>
+      <c r="K114" t="s">
+        <v>253</v>
+      </c>
+      <c r="L114" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B115">
+        <v>2021</v>
+      </c>
+      <c r="C115" t="s">
+        <v>627</v>
+      </c>
+      <c r="D115" t="s">
+        <v>628</v>
+      </c>
+      <c r="E115" t="s">
+        <v>507</v>
+      </c>
+      <c r="F115" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>630</v>
+      </c>
+      <c r="I115" t="s">
+        <v>631</v>
+      </c>
+      <c r="J115" t="s">
+        <v>629</v>
+      </c>
+      <c r="K115" t="s">
+        <v>521</v>
+      </c>
+      <c r="L115" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B116">
+        <v>2019</v>
+      </c>
+      <c r="C116" t="s">
+        <v>633</v>
+      </c>
+      <c r="D116" t="s">
+        <v>634</v>
+      </c>
+      <c r="E116" t="s">
+        <v>598</v>
+      </c>
+      <c r="F116" t="s">
+        <v>62</v>
+      </c>
+      <c r="G116" t="s">
+        <v>63</v>
+      </c>
+      <c r="H116" t="s">
+        <v>64</v>
+      </c>
+      <c r="I116" t="s">
+        <v>635</v>
+      </c>
+      <c r="J116" t="s">
+        <v>131</v>
+      </c>
+      <c r="K116" t="s">
+        <v>144</v>
+      </c>
+      <c r="L116" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -6584,523 +6936,870 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFADCCF-61A0-944D-B185-2E91824E28A3}">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A101"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9">
+        <v>55</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>63</v>
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B102">
+    <sortCondition ref="A1:A102"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE09FF4-9167-7144-AE88-80C1C5C4506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5645B3-4077-2E46-A8D3-790B4423623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +79,7 @@
     Consider removing due to lack of detail</t>
       </text>
     </comment>
-    <comment ref="A113" authorId="4" shapeId="0" xr:uid="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
+    <comment ref="A121" authorId="4" shapeId="0" xr:uid="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,8 +91,89 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AA0DF8DF-95C8-6B49-82E8-E08F507857F8}</author>
+    <author>tc={F7E1CA3D-7F62-5D41-84AB-68A489F6B499}</author>
+    <author>tc={9B6CEA2F-39AF-B840-95E3-62503BF079E7}</author>
+    <author>tc={EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}</author>
+    <author>tc={CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}</author>
+    <author>tc={62DF1917-5B0E-CB43-A766-2EABDFF594E3}</author>
+    <author>tc={7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}</author>
+    <author>tc={334E1AD6-622C-3F45-884D-6B09C4B888E4}</author>
+  </authors>
+  <commentList>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{AA0DF8DF-95C8-6B49-82E8-E08F507857F8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="1" shapeId="0" xr:uid="{F7E1CA3D-7F62-5D41-84AB-68A489F6B499}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
+    <comment ref="Q20" authorId="2" shapeId="0" xr:uid="{9B6CEA2F-39AF-B840-95E3-62503BF079E7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consider removing due to lack of detail</t>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="3" shapeId="0" xr:uid="{EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consider removing due to lack of detail</t>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="4" shapeId="0" xr:uid="{CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some fields to complete</t>
+      </text>
+    </comment>
+    <comment ref="A76" authorId="5" shapeId="0" xr:uid="{62DF1917-5B0E-CB43-A766-2EABDFF594E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Appendix access?</t>
+      </text>
+    </comment>
+    <comment ref="A99" authorId="6" shapeId="0" xr:uid="{7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Re-check manual classification</t>
+      </text>
+    </comment>
+    <comment ref="A109" authorId="7" shapeId="0" xr:uid="{334E1AD6-622C-3F45-884D-6B09C4B888E4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Appendix access?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="685">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -1255,9 +1336,6 @@
     <t>INITIAL - CONFERENCES</t>
   </si>
   <si>
-    <t>2017_allahyari_a_knowledge_based_topic_modeling_approach_for_automatic_topic_labeling</t>
-  </si>
-  <si>
     <t>liu_2017_an_investigation_of_brand_related_user_generated_content_on_twitter</t>
   </si>
   <si>
@@ -2000,13 +2078,163 @@
   </si>
   <si>
     <t>Redundancy-aware graph-based ranking model (TLRank)</t>
+  </si>
+  <si>
+    <t>allahyari_2017_a_knowledge_based_topic_modeling_approach_for_automatic_topic_labeling</t>
+  </si>
+  <si>
+    <t>BACKWARDS SNOWBALLING</t>
+  </si>
+  <si>
+    <t>Mehdi Allahyari and Seyedamin Pouriyeh and Krys Kochut and Hamid Reza Arabnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Knowledge-based Topic Modeling Approach for Automatic Topic Labeling </t>
+  </si>
+  <si>
+    <t>International Journal of Advanced Computer Science and Applications</t>
+  </si>
+  <si>
+    <t>Knowledge (Ontology)-based topic model (KB-LDA)</t>
+  </si>
+  <si>
+    <t>KB-LDA</t>
+  </si>
+  <si>
+    <t>News, Literature</t>
+  </si>
+  <si>
+    <t>smith_2017_evaluating_visual_representations_for_topic_understanding_and_their_effects_on_manually_generated_topic_labels</t>
+  </si>
+  <si>
+    <t>Smith, Alison  and Lee, Tak Yeon  and Poursabzi-Sangdeh, Forough  and Boyd-Graber, Jordan  and Elmqvist, Niklas  and Findlater, Leah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating Visual Representations for Topic Understanding and Their Effects on Manually Generated Topic Labels </t>
+  </si>
+  <si>
+    <t>TACL</t>
+  </si>
+  <si>
+    <t>Manual &amp; Fully automated</t>
+  </si>
+  <si>
+    <t>Manual labeling, TF-IDF vector cosine similarity</t>
+  </si>
+  <si>
+    <t>Topic labeling, Topic modeling (visualisations)</t>
+  </si>
+  <si>
+    <t>aletras_2017_evaluating_topic_representations_for_exploring_document_collections</t>
+  </si>
+  <si>
+    <t>Nikolaos Aletras and Timothy Baldwin and Jey Han Lau and Mark Stevenson</t>
+  </si>
+  <si>
+    <t>Evaluating Topic Representations for Exploring Document Collections</t>
+  </si>
+  <si>
+    <t>Journal of the Association for Information Science and Technology</t>
+  </si>
+  <si>
+    <t>1. label extraction from Wikipedia titles and label ranking based on multiple lexical association feature 2. Image extraction from Wikipedia and ranking using a graph-based method</t>
+  </si>
+  <si>
+    <t>Manual &amp; Partially automated</t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by associated documents </t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by generated summaries</t>
+  </si>
+  <si>
+    <t>Multi-document summarization (MDS)</t>
+  </si>
+  <si>
+    <t>Automatic term recognition algorithm (ATR)</t>
+  </si>
+  <si>
+    <t>Ontology-based - Knowledge (Ontology)-based topic model (KB-LDA)</t>
+  </si>
+  <si>
+    <t>Graph-based - Redundancy-aware graph-based ranking model (TLRank)</t>
+  </si>
+  <si>
+    <t>Supervised topic modeling (Latent topic modeling layer)</t>
+  </si>
+  <si>
+    <t>Supervised topic modeling (sToMCAT)</t>
+  </si>
+  <si>
+    <t>Supervised topic modeling (supervised tdlm), LSTM-based</t>
+  </si>
+  <si>
+    <t>FULLY AUTOMATED</t>
+  </si>
+  <si>
+    <t>NOVEL</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Supervised topic modeling (LLDA)</t>
+  </si>
+  <si>
+    <t>Supervised topic modeling (PLDA)</t>
+  </si>
+  <si>
+    <t>Graph-based</t>
+  </si>
+  <si>
+    <t>Supervised Topic modeling</t>
+  </si>
+  <si>
+    <t>Deep embedded clustering</t>
+  </si>
+  <si>
+    <t>Probability-based method - Top-words selection</t>
+  </si>
+  <si>
+    <t>Cosine similarity - topic-term extraction</t>
+  </si>
+  <si>
+    <t>Cosine similarity - TF-IDF vector</t>
+  </si>
+  <si>
+    <t>Manual labeling (assisted by pre-defined label set) - Label from previous studies</t>
+  </si>
+  <si>
+    <t>Manual labeling (assisted by pre-defined label set) - Manual assignment of pre-existing aspect labels</t>
+  </si>
+  <si>
+    <t>Maximum entropy (MaxEnt)  model</t>
+  </si>
+  <si>
+    <t>Automatic Term Reconignition (ATR)</t>
+  </si>
+  <si>
+    <t>Embedding-based cosine similarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency- &amp; rank- based term extraction </t>
+  </si>
+  <si>
+    <t>Frequency- &amp; rank- based term extraction  - TF-IDF combined with topic taxonomy analysis</t>
+  </si>
+  <si>
+    <t>Probability-based</t>
+  </si>
+  <si>
+    <t>Probability-based - n-gram and sentence labelers based on statistical ranking measures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2035,8 +2263,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2065,6 +2301,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2160,7 +2408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2178,7 +2426,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2512,8 +2768,37 @@
   <threadedComment ref="A81" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{A0B7F135-549A-8F4D-913F-6AE614EB6BFC}">
     <text>Consider removing due to lack of detail</text>
   </threadedComment>
-  <threadedComment ref="A113" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
+  <threadedComment ref="A121" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
     <text>Incomplete summary</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A18" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{AA0DF8DF-95C8-6B49-82E8-E08F507857F8}">
+    <text>Incomplete summary</text>
+  </threadedComment>
+  <threadedComment ref="P18" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{F7E1CA3D-7F62-5D41-84AB-68A489F6B499}">
+    <text>Incomplete summary</text>
+  </threadedComment>
+  <threadedComment ref="Q20" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{9B6CEA2F-39AF-B840-95E3-62503BF079E7}">
+    <text>Consider removing due to lack of detail</text>
+  </threadedComment>
+  <threadedComment ref="A23" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}">
+    <text>Consider removing due to lack of detail</text>
+  </threadedComment>
+  <threadedComment ref="A38" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}">
+    <text>Some fields to complete</text>
+  </threadedComment>
+  <threadedComment ref="A76" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{62DF1917-5B0E-CB43-A766-2EABDFF594E3}">
+    <text>Appendix access?</text>
+  </threadedComment>
+  <threadedComment ref="A99" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}">
+    <text>Re-check manual classification</text>
+  </threadedComment>
+  <threadedComment ref="A109" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{334E1AD6-622C-3F45-884D-6B09C4B888E4}">
+    <text>Appendix access?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2523,7 +2808,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2949,10 +3234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G91" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView topLeftCell="A80" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4041,7 +4326,7 @@
         <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5105,29 +5390,67 @@
         <v>365</v>
       </c>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>387</v>
+      <c r="A65" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B65">
+        <v>2017</v>
+      </c>
+      <c r="C65" t="s">
+        <v>637</v>
+      </c>
+      <c r="D65" t="s">
+        <v>638</v>
+      </c>
+      <c r="E65" t="s">
+        <v>639</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" t="s">
+        <v>640</v>
+      </c>
+      <c r="J65" t="s">
+        <v>641</v>
+      </c>
+      <c r="K65" t="s">
+        <v>144</v>
+      </c>
+      <c r="L65" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B66">
         <v>2017</v>
       </c>
       <c r="C66" t="s">
+        <v>388</v>
+      </c>
+      <c r="D66" t="s">
         <v>389</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>390</v>
       </c>
-      <c r="E66" t="s">
-        <v>391</v>
-      </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>655</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
@@ -5136,7 +5459,7 @@
         <v>84</v>
       </c>
       <c r="I66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J66" t="s">
         <v>131</v>
@@ -5150,19 +5473,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
       <c r="C67" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" t="s">
         <v>394</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>395</v>
-      </c>
-      <c r="E67" t="s">
-        <v>396</v>
       </c>
       <c r="F67" t="s">
         <v>83</v>
@@ -5188,19 +5511,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68">
         <v>2020</v>
       </c>
       <c r="C68" t="s">
+        <v>399</v>
+      </c>
+      <c r="D68" t="s">
         <v>400</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>401</v>
-      </c>
-      <c r="E68" t="s">
-        <v>402</v>
       </c>
       <c r="F68" t="s">
         <v>83</v>
@@ -5218,27 +5541,27 @@
         <v>235</v>
       </c>
       <c r="K68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B69">
         <v>2019</v>
       </c>
       <c r="C69" t="s">
+        <v>403</v>
+      </c>
+      <c r="D69" t="s">
         <v>404</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>405</v>
-      </c>
-      <c r="E69" t="s">
-        <v>406</v>
       </c>
       <c r="F69" t="s">
         <v>83</v>
@@ -5256,27 +5579,27 @@
         <v>235</v>
       </c>
       <c r="K69" t="s">
+        <v>406</v>
+      </c>
+      <c r="L69" t="s">
         <v>407</v>
-      </c>
-      <c r="L69" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B70">
         <v>2017</v>
       </c>
       <c r="C70" t="s">
+        <v>408</v>
+      </c>
+      <c r="D70" t="s">
+        <v>415</v>
+      </c>
+      <c r="E70" t="s">
         <v>409</v>
-      </c>
-      <c r="D70" t="s">
-        <v>416</v>
-      </c>
-      <c r="E70" t="s">
-        <v>410</v>
       </c>
       <c r="F70" t="s">
         <v>83</v>
@@ -5294,30 +5617,30 @@
         <v>131</v>
       </c>
       <c r="K70" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="L70" t="s">
         <v>412</v>
-      </c>
-      <c r="L70" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B71">
         <v>2019</v>
       </c>
       <c r="C71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F71" t="s">
-        <v>123</v>
+        <v>655</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
@@ -5326,13 +5649,13 @@
         <v>84</v>
       </c>
       <c r="I71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J71" t="s">
         <v>131</v>
       </c>
       <c r="K71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s">
         <v>75</v>
@@ -5340,19 +5663,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B72">
         <v>2018</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F72" t="s">
         <v>123</v>
@@ -5364,7 +5687,7 @@
         <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J72" t="s">
         <v>131</v>
@@ -5378,19 +5701,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B73">
         <v>2021</v>
       </c>
       <c r="C73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F73" t="s">
         <v>83</v>
@@ -5416,19 +5739,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B74">
         <v>2018</v>
       </c>
       <c r="C74" t="s">
+        <v>430</v>
+      </c>
+      <c r="D74" t="s">
         <v>431</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>432</v>
-      </c>
-      <c r="E74" t="s">
-        <v>433</v>
       </c>
       <c r="F74" t="s">
         <v>83</v>
@@ -5440,33 +5763,33 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J74" t="s">
         <v>235</v>
       </c>
       <c r="K74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B75">
         <v>2017</v>
       </c>
       <c r="C75" t="s">
+        <v>436</v>
+      </c>
+      <c r="D75" t="s">
         <v>437</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>438</v>
-      </c>
-      <c r="E75" t="s">
-        <v>439</v>
       </c>
       <c r="F75" t="s">
         <v>83</v>
@@ -5478,7 +5801,7 @@
         <v>84</v>
       </c>
       <c r="I75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J75" t="s">
         <v>131</v>
@@ -5487,24 +5810,24 @@
         <v>96</v>
       </c>
       <c r="L75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B76">
         <v>2019</v>
       </c>
       <c r="C76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F76" t="s">
         <v>83</v>
@@ -5516,7 +5839,7 @@
         <v>84</v>
       </c>
       <c r="I76" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J76" t="s">
         <v>131</v>
@@ -5525,24 +5848,24 @@
         <v>265</v>
       </c>
       <c r="L76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B77">
         <v>2019</v>
       </c>
       <c r="C77" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77" t="s">
         <v>448</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>449</v>
-      </c>
-      <c r="E77" t="s">
-        <v>450</v>
       </c>
       <c r="F77" t="s">
         <v>62</v>
@@ -5554,7 +5877,7 @@
         <v>64</v>
       </c>
       <c r="I77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J77" t="s">
         <v>131</v>
@@ -5563,24 +5886,24 @@
         <v>144</v>
       </c>
       <c r="L77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B78">
         <v>2021</v>
       </c>
       <c r="C78" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" t="s">
         <v>453</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>454</v>
-      </c>
-      <c r="E78" t="s">
-        <v>455</v>
       </c>
       <c r="F78" t="s">
         <v>62</v>
@@ -5592,33 +5915,33 @@
         <v>64</v>
       </c>
       <c r="I78" t="s">
+        <v>455</v>
+      </c>
+      <c r="J78" t="s">
         <v>456</v>
-      </c>
-      <c r="J78" t="s">
-        <v>457</v>
       </c>
       <c r="K78" t="s">
         <v>144</v>
       </c>
       <c r="L78" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B79">
         <v>2020</v>
       </c>
       <c r="C79" t="s">
+        <v>459</v>
+      </c>
+      <c r="D79" t="s">
         <v>460</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>461</v>
-      </c>
-      <c r="E79" t="s">
-        <v>462</v>
       </c>
       <c r="F79" t="s">
         <v>62</v>
@@ -5630,33 +5953,33 @@
         <v>64</v>
       </c>
       <c r="J79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K79" t="s">
         <v>216</v>
       </c>
       <c r="L79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B80">
         <v>2018</v>
       </c>
       <c r="C80" t="s">
+        <v>465</v>
+      </c>
+      <c r="D80" t="s">
         <v>466</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>467</v>
       </c>
-      <c r="E80" t="s">
-        <v>468</v>
-      </c>
       <c r="F80" t="s">
-        <v>83</v>
+        <v>655</v>
       </c>
       <c r="G80" t="s">
         <v>72</v>
@@ -5665,7 +5988,7 @@
         <v>84</v>
       </c>
       <c r="I80" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J80" t="s">
         <v>131</v>
@@ -5674,24 +5997,24 @@
         <v>322</v>
       </c>
       <c r="L80" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B81">
         <v>2017</v>
       </c>
       <c r="C81" t="s">
+        <v>470</v>
+      </c>
+      <c r="D81" t="s">
         <v>471</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>472</v>
-      </c>
-      <c r="E81" t="s">
-        <v>473</v>
       </c>
       <c r="F81" t="s">
         <v>62</v>
@@ -5703,7 +6026,7 @@
         <v>64</v>
       </c>
       <c r="I81" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J81" t="s">
         <v>131</v>
@@ -5717,19 +6040,19 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B82">
         <v>2018</v>
       </c>
       <c r="C82" t="s">
+        <v>474</v>
+      </c>
+      <c r="D82" t="s">
         <v>475</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>476</v>
-      </c>
-      <c r="E82" t="s">
-        <v>477</v>
       </c>
       <c r="F82" t="s">
         <v>62</v>
@@ -5741,7 +6064,7 @@
         <v>64</v>
       </c>
       <c r="I82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J82" t="s">
         <v>131</v>
@@ -5755,19 +6078,19 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B83">
         <v>2019</v>
       </c>
       <c r="C83" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" t="s">
         <v>480</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>481</v>
-      </c>
-      <c r="E83" t="s">
-        <v>482</v>
       </c>
       <c r="F83" t="s">
         <v>83</v>
@@ -5791,330 +6114,102 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>486</v>
-      </c>
-      <c r="B87">
-        <v>2020</v>
-      </c>
-      <c r="C87" t="s">
-        <v>487</v>
-      </c>
-      <c r="D87" t="s">
-        <v>488</v>
-      </c>
-      <c r="E87" t="s">
-        <v>489</v>
-      </c>
-      <c r="F87" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" t="s">
-        <v>72</v>
-      </c>
-      <c r="H87" t="s">
-        <v>84</v>
-      </c>
-      <c r="I87" t="s">
-        <v>440</v>
-      </c>
-      <c r="J87" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="B84">
+        <v>2017</v>
+      </c>
+      <c r="C84" t="s">
+        <v>644</v>
+      </c>
+      <c r="D84" t="s">
+        <v>645</v>
+      </c>
+      <c r="E84" t="s">
+        <v>646</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
         <v>131</v>
       </c>
-      <c r="K87" t="s">
-        <v>483</v>
-      </c>
-      <c r="L87" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>496</v>
-      </c>
-      <c r="B88">
-        <v>2022</v>
-      </c>
-      <c r="C88" t="s">
-        <v>495</v>
-      </c>
-      <c r="D88" t="s">
-        <v>494</v>
-      </c>
-      <c r="E88" t="s">
-        <v>493</v>
-      </c>
-      <c r="F88" t="s">
-        <v>83</v>
-      </c>
-      <c r="G88" t="s">
-        <v>72</v>
-      </c>
-      <c r="H88" t="s">
-        <v>84</v>
-      </c>
-      <c r="I88" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="K84" t="s">
+        <v>649</v>
+      </c>
+      <c r="L84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="B85">
+        <v>2017</v>
+      </c>
+      <c r="C85" t="s">
+        <v>651</v>
+      </c>
+      <c r="D85" t="s">
+        <v>652</v>
+      </c>
+      <c r="E85" t="s">
+        <v>653</v>
+      </c>
+      <c r="F85" t="s">
+        <v>62</v>
+      </c>
+      <c r="G85" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" t="s">
+        <v>84</v>
+      </c>
+      <c r="I85" t="s">
+        <v>654</v>
+      </c>
+      <c r="J85" t="s">
         <v>131</v>
       </c>
-      <c r="K88" t="s">
-        <v>492</v>
-      </c>
-      <c r="L88" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>497</v>
-      </c>
-      <c r="B89">
-        <v>2020</v>
-      </c>
-      <c r="C89" t="s">
-        <v>498</v>
-      </c>
-      <c r="D89" t="s">
-        <v>499</v>
-      </c>
-      <c r="E89" t="s">
-        <v>500</v>
-      </c>
-      <c r="F89" t="s">
-        <v>83</v>
-      </c>
-      <c r="G89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H89" t="s">
-        <v>84</v>
-      </c>
-      <c r="I89" t="s">
-        <v>108</v>
-      </c>
-      <c r="J89" t="s">
-        <v>131</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="L89" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>502</v>
-      </c>
-      <c r="B90">
-        <v>2021</v>
-      </c>
-      <c r="C90" t="s">
-        <v>503</v>
-      </c>
-      <c r="D90" t="s">
-        <v>504</v>
-      </c>
-      <c r="E90" t="s">
-        <v>505</v>
-      </c>
-      <c r="F90" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" t="s">
-        <v>72</v>
-      </c>
-      <c r="H90" t="s">
-        <v>84</v>
-      </c>
-      <c r="I90" t="s">
-        <v>440</v>
-      </c>
-      <c r="J90" t="s">
-        <v>235</v>
-      </c>
-      <c r="K90" t="s">
-        <v>412</v>
-      </c>
-      <c r="L90" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>506</v>
-      </c>
-      <c r="B91">
-        <v>2021</v>
-      </c>
-      <c r="C91" t="s">
-        <v>508</v>
-      </c>
-      <c r="D91" t="s">
-        <v>509</v>
-      </c>
-      <c r="E91" t="s">
-        <v>507</v>
-      </c>
-      <c r="F91" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" t="s">
-        <v>72</v>
-      </c>
-      <c r="H91" t="s">
-        <v>84</v>
-      </c>
-      <c r="I91" t="s">
-        <v>392</v>
-      </c>
-      <c r="J91" t="s">
-        <v>457</v>
-      </c>
-      <c r="K91" t="s">
-        <v>510</v>
-      </c>
-      <c r="L91" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>513</v>
-      </c>
-      <c r="B92">
-        <v>2020</v>
-      </c>
-      <c r="C92" t="s">
-        <v>514</v>
-      </c>
-      <c r="D92" t="s">
-        <v>515</v>
-      </c>
-      <c r="E92" t="s">
-        <v>516</v>
-      </c>
-      <c r="F92" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" t="s">
-        <v>72</v>
-      </c>
-      <c r="H92" t="s">
-        <v>84</v>
-      </c>
-      <c r="I92" t="s">
-        <v>440</v>
-      </c>
-      <c r="J92" t="s">
-        <v>235</v>
-      </c>
-      <c r="K92" t="s">
-        <v>511</v>
-      </c>
-      <c r="L92" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>517</v>
-      </c>
-      <c r="B93">
-        <v>2021</v>
-      </c>
-      <c r="C93" t="s">
-        <v>518</v>
-      </c>
-      <c r="D93" t="s">
-        <v>519</v>
-      </c>
-      <c r="E93" t="s">
-        <v>520</v>
-      </c>
-      <c r="F93" t="s">
-        <v>83</v>
-      </c>
-      <c r="G93" t="s">
-        <v>72</v>
-      </c>
-      <c r="H93" t="s">
-        <v>84</v>
-      </c>
-      <c r="I93" t="s">
-        <v>108</v>
-      </c>
-      <c r="J93" t="s">
-        <v>463</v>
-      </c>
-      <c r="K93" t="s">
-        <v>521</v>
-      </c>
-      <c r="L93" t="s">
-        <v>75</v>
+      <c r="K85" t="s">
+        <v>649</v>
+      </c>
+      <c r="L85" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B94">
-        <v>2022</v>
-      </c>
-      <c r="C94" t="s">
-        <v>523</v>
-      </c>
-      <c r="D94" t="s">
-        <v>524</v>
-      </c>
-      <c r="E94" t="s">
-        <v>525</v>
-      </c>
-      <c r="F94" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" t="s">
-        <v>72</v>
-      </c>
-      <c r="H94" t="s">
-        <v>84</v>
-      </c>
-      <c r="I94" t="s">
-        <v>527</v>
-      </c>
-      <c r="J94" t="s">
-        <v>235</v>
-      </c>
-      <c r="K94" t="s">
-        <v>526</v>
-      </c>
-      <c r="L94" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="B95">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C95" t="s">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="D95" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="E95" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="F95" t="s">
         <v>83</v>
@@ -6126,33 +6221,33 @@
         <v>84</v>
       </c>
       <c r="I95" t="s">
-        <v>108</v>
+        <v>439</v>
       </c>
       <c r="J95" t="s">
         <v>131</v>
       </c>
       <c r="K95" t="s">
-        <v>145</v>
+        <v>482</v>
       </c>
       <c r="L95" t="s">
-        <v>145</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="B96">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C96" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="D96" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="E96" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="F96" t="s">
         <v>83</v>
@@ -6164,33 +6259,33 @@
         <v>84</v>
       </c>
       <c r="I96" t="s">
-        <v>440</v>
+        <v>108</v>
       </c>
       <c r="J96" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="K96" t="s">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="L96" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="B97">
         <v>2020</v>
       </c>
       <c r="C97" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="D97" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="E97" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="F97" t="s">
         <v>83</v>
@@ -6202,33 +6297,33 @@
         <v>84</v>
       </c>
       <c r="I97" t="s">
-        <v>538</v>
+        <v>108</v>
       </c>
       <c r="J97" t="s">
-        <v>235</v>
-      </c>
-      <c r="K97" t="s">
-        <v>412</v>
+        <v>131</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="L97" t="s">
-        <v>412</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="B98">
         <v>2021</v>
       </c>
       <c r="C98" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="D98" t="s">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="E98" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F98" t="s">
         <v>83</v>
@@ -6240,36 +6335,36 @@
         <v>84</v>
       </c>
       <c r="I98" t="s">
-        <v>108</v>
+        <v>439</v>
       </c>
       <c r="J98" t="s">
         <v>235</v>
       </c>
       <c r="K98" t="s">
-        <v>521</v>
+        <v>411</v>
       </c>
       <c r="L98" t="s">
-        <v>521</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="B99">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C99" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="D99" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="E99" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>655</v>
       </c>
       <c r="G99" t="s">
         <v>72</v>
@@ -6278,30 +6373,33 @@
         <v>84</v>
       </c>
       <c r="I99" t="s">
-        <v>108</v>
+        <v>391</v>
       </c>
       <c r="J99" t="s">
-        <v>131</v>
+        <v>456</v>
+      </c>
+      <c r="K99" t="s">
+        <v>509</v>
       </c>
       <c r="L99" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
       <c r="B100">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C100" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="D100" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
       <c r="E100" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F100" t="s">
         <v>83</v>
@@ -6313,36 +6411,36 @@
         <v>84</v>
       </c>
       <c r="I100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J100" t="s">
         <v>235</v>
       </c>
       <c r="K100" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="L100" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="B101">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C101" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="D101" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="E101" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G101" t="s">
         <v>72</v>
@@ -6351,36 +6449,36 @@
         <v>84</v>
       </c>
       <c r="I101" t="s">
-        <v>555</v>
+        <v>108</v>
       </c>
       <c r="J101" t="s">
-        <v>131</v>
+        <v>462</v>
       </c>
       <c r="K101" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="L101" t="s">
-        <v>458</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>560</v>
+      <c r="A102" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="B102">
         <v>2022</v>
       </c>
       <c r="C102" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="D102" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
       <c r="E102" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="F102" t="s">
-        <v>83</v>
+        <v>655</v>
       </c>
       <c r="G102" t="s">
         <v>72</v>
@@ -6389,33 +6487,33 @@
         <v>84</v>
       </c>
       <c r="I102" t="s">
-        <v>108</v>
+        <v>526</v>
       </c>
       <c r="J102" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="K102" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="L102" t="s">
-        <v>132</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>564</v>
+      <c r="A103" t="s">
+        <v>527</v>
       </c>
       <c r="B103">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C103" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="D103" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="E103" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="F103" t="s">
         <v>83</v>
@@ -6433,27 +6531,27 @@
         <v>131</v>
       </c>
       <c r="K103" t="s">
-        <v>568</v>
+        <v>145</v>
       </c>
       <c r="L103" t="s">
-        <v>569</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="B104">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C104" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="D104" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="E104" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="F104" t="s">
         <v>83</v>
@@ -6465,71 +6563,71 @@
         <v>84</v>
       </c>
       <c r="I104" t="s">
-        <v>108</v>
+        <v>439</v>
       </c>
       <c r="J104" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="K104" t="s">
-        <v>574</v>
+        <v>532</v>
       </c>
       <c r="L104" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>575</v>
+      <c r="A105" t="s">
+        <v>541</v>
       </c>
       <c r="B105">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C105" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="D105" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="E105" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>655</v>
       </c>
       <c r="G105" t="s">
         <v>72</v>
       </c>
       <c r="H105" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I105" t="s">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="J105" t="s">
         <v>235</v>
       </c>
       <c r="K105" t="s">
-        <v>260</v>
+        <v>411</v>
       </c>
       <c r="L105" t="s">
-        <v>260</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="B106">
         <v>2021</v>
       </c>
       <c r="C106" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="D106" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="E106" t="s">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="F106" t="s">
         <v>83</v>
@@ -6541,27 +6639,33 @@
         <v>84</v>
       </c>
       <c r="I106" t="s">
-        <v>440</v>
+        <v>108</v>
       </c>
       <c r="J106" t="s">
         <v>235</v>
       </c>
+      <c r="K106" t="s">
+        <v>520</v>
+      </c>
+      <c r="L106" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>584</v>
+      <c r="A107" t="s">
+        <v>548</v>
       </c>
       <c r="B107">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C107" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="D107" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="E107" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="F107" t="s">
         <v>83</v>
@@ -6576,30 +6680,27 @@
         <v>108</v>
       </c>
       <c r="J107" t="s">
-        <v>235</v>
-      </c>
-      <c r="K107" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="L107" s="12" t="s">
-        <v>412</v>
+        <v>131</v>
+      </c>
+      <c r="L107" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>588</v>
+      <c r="A108" t="s">
+        <v>549</v>
       </c>
       <c r="B108">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C108" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="D108" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="E108" t="s">
-        <v>410</v>
+        <v>515</v>
       </c>
       <c r="F108" t="s">
         <v>83</v>
@@ -6611,226 +6712,226 @@
         <v>84</v>
       </c>
       <c r="I108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J108" t="s">
         <v>235</v>
       </c>
       <c r="K108" t="s">
-        <v>412</v>
+        <v>552</v>
       </c>
       <c r="L108" t="s">
-        <v>412</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>590</v>
+      <c r="A109" t="s">
+        <v>555</v>
       </c>
       <c r="B109">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C109" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="D109" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="E109" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="F109" t="s">
         <v>62</v>
       </c>
       <c r="G109" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I109" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="J109" t="s">
         <v>131</v>
       </c>
       <c r="K109" t="s">
-        <v>144</v>
+        <v>457</v>
       </c>
       <c r="L109" t="s">
-        <v>145</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>595</v>
+      <c r="A110" t="s">
+        <v>559</v>
       </c>
       <c r="B110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C110" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="D110" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="E110" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="F110" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G110" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H110" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I110" t="s">
-        <v>599</v>
+        <v>108</v>
       </c>
       <c r="J110" t="s">
-        <v>600</v>
+        <v>131</v>
       </c>
       <c r="K110" t="s">
-        <v>144</v>
+        <v>491</v>
       </c>
       <c r="L110" t="s">
-        <v>601</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="B111">
         <v>2021</v>
       </c>
       <c r="C111" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="D111" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="E111" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="F111" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G111" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H111" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I111" t="s">
-        <v>606</v>
+        <v>108</v>
       </c>
       <c r="J111" t="s">
-        <v>457</v>
+        <v>131</v>
       </c>
       <c r="K111" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="L111" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>608</v>
+      <c r="A112" t="s">
+        <v>569</v>
       </c>
       <c r="B112">
         <v>2022</v>
       </c>
       <c r="C112" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="D112" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="E112" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="F112" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G112" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H112" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I112" t="s">
-        <v>612</v>
+        <v>108</v>
       </c>
       <c r="J112" t="s">
-        <v>613</v>
+        <v>336</v>
       </c>
       <c r="K112" t="s">
-        <v>144</v>
+        <v>573</v>
       </c>
       <c r="L112" t="s">
-        <v>144</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
-        <v>614</v>
+      <c r="A113" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="B113">
         <v>2021</v>
       </c>
       <c r="C113" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="D113" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="E113" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="F113" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G113" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H113" t="s">
         <v>64</v>
       </c>
       <c r="I113" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="J113" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="K113" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="L113" t="s">
-        <v>619</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>620</v>
+      <c r="A114" t="s">
+        <v>579</v>
       </c>
       <c r="B114">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C114" t="s">
-        <v>621</v>
+        <v>580</v>
       </c>
       <c r="D114" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="E114" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="F114" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s">
         <v>72</v>
@@ -6839,92 +6940,390 @@
         <v>84</v>
       </c>
       <c r="I114" t="s">
-        <v>623</v>
+        <v>439</v>
       </c>
       <c r="J114" t="s">
-        <v>624</v>
-      </c>
-      <c r="K114" t="s">
-        <v>253</v>
-      </c>
-      <c r="L114" t="s">
-        <v>625</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
-        <v>626</v>
+      <c r="A115" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="B115">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C115" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="D115" t="s">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="E115" t="s">
-        <v>507</v>
+        <v>586</v>
       </c>
       <c r="F115" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G115" t="s">
         <v>72</v>
       </c>
       <c r="H115" t="s">
-        <v>630</v>
+        <v>84</v>
       </c>
       <c r="I115" t="s">
-        <v>631</v>
+        <v>108</v>
       </c>
       <c r="J115" t="s">
-        <v>629</v>
-      </c>
-      <c r="K115" t="s">
-        <v>521</v>
-      </c>
-      <c r="L115" t="s">
-        <v>521</v>
+        <v>235</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>632</v>
+        <v>587</v>
       </c>
       <c r="B116">
         <v>2019</v>
       </c>
       <c r="C116" t="s">
+        <v>584</v>
+      </c>
+      <c r="D116" t="s">
+        <v>588</v>
+      </c>
+      <c r="E116" t="s">
+        <v>409</v>
+      </c>
+      <c r="F116" t="s">
+        <v>83</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116" t="s">
+        <v>439</v>
+      </c>
+      <c r="J116" t="s">
+        <v>235</v>
+      </c>
+      <c r="K116" t="s">
+        <v>411</v>
+      </c>
+      <c r="L116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B117">
+        <v>2021</v>
+      </c>
+      <c r="C117" t="s">
+        <v>590</v>
+      </c>
+      <c r="D117" t="s">
+        <v>593</v>
+      </c>
+      <c r="E117" t="s">
+        <v>591</v>
+      </c>
+      <c r="F117" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" t="s">
+        <v>64</v>
+      </c>
+      <c r="I117" t="s">
+        <v>592</v>
+      </c>
+      <c r="J117" t="s">
+        <v>131</v>
+      </c>
+      <c r="K117" t="s">
+        <v>144</v>
+      </c>
+      <c r="L117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B118">
+        <v>2021</v>
+      </c>
+      <c r="C118" t="s">
+        <v>595</v>
+      </c>
+      <c r="D118" t="s">
+        <v>596</v>
+      </c>
+      <c r="E118" t="s">
+        <v>597</v>
+      </c>
+      <c r="F118" t="s">
+        <v>62</v>
+      </c>
+      <c r="G118" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" t="s">
+        <v>64</v>
+      </c>
+      <c r="I118" t="s">
+        <v>598</v>
+      </c>
+      <c r="J118" t="s">
+        <v>599</v>
+      </c>
+      <c r="K118" t="s">
+        <v>144</v>
+      </c>
+      <c r="L118" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B119">
+        <v>2021</v>
+      </c>
+      <c r="C119" t="s">
+        <v>602</v>
+      </c>
+      <c r="D119" t="s">
+        <v>603</v>
+      </c>
+      <c r="E119" t="s">
+        <v>604</v>
+      </c>
+      <c r="F119" t="s">
+        <v>62</v>
+      </c>
+      <c r="G119" t="s">
+        <v>63</v>
+      </c>
+      <c r="H119" t="s">
+        <v>64</v>
+      </c>
+      <c r="I119" t="s">
+        <v>605</v>
+      </c>
+      <c r="J119" t="s">
+        <v>456</v>
+      </c>
+      <c r="K119" t="s">
+        <v>606</v>
+      </c>
+      <c r="L119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B120">
+        <v>2022</v>
+      </c>
+      <c r="C120" t="s">
+        <v>608</v>
+      </c>
+      <c r="D120" t="s">
+        <v>609</v>
+      </c>
+      <c r="E120" t="s">
+        <v>610</v>
+      </c>
+      <c r="F120" t="s">
+        <v>62</v>
+      </c>
+      <c r="G120" t="s">
+        <v>63</v>
+      </c>
+      <c r="H120" t="s">
+        <v>64</v>
+      </c>
+      <c r="I120" t="s">
+        <v>611</v>
+      </c>
+      <c r="J120" t="s">
+        <v>612</v>
+      </c>
+      <c r="K120" t="s">
+        <v>144</v>
+      </c>
+      <c r="L120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B121">
+        <v>2021</v>
+      </c>
+      <c r="C121" t="s">
+        <v>614</v>
+      </c>
+      <c r="D121" t="s">
+        <v>615</v>
+      </c>
+      <c r="E121" t="s">
+        <v>616</v>
+      </c>
+      <c r="F121" t="s">
+        <v>62</v>
+      </c>
+      <c r="G121" t="s">
+        <v>63</v>
+      </c>
+      <c r="H121" t="s">
+        <v>64</v>
+      </c>
+      <c r="I121" t="s">
+        <v>617</v>
+      </c>
+      <c r="J121" t="s">
+        <v>131</v>
+      </c>
+      <c r="K121" t="s">
+        <v>144</v>
+      </c>
+      <c r="L121" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B122">
+        <v>2022</v>
+      </c>
+      <c r="C122" t="s">
+        <v>620</v>
+      </c>
+      <c r="D122" t="s">
+        <v>621</v>
+      </c>
+      <c r="E122" t="s">
+        <v>506</v>
+      </c>
+      <c r="F122" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s">
+        <v>84</v>
+      </c>
+      <c r="I122" t="s">
+        <v>622</v>
+      </c>
+      <c r="J122" t="s">
+        <v>623</v>
+      </c>
+      <c r="K122" t="s">
+        <v>253</v>
+      </c>
+      <c r="L122" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B123">
+        <v>2021</v>
+      </c>
+      <c r="C123" t="s">
+        <v>626</v>
+      </c>
+      <c r="D123" t="s">
+        <v>627</v>
+      </c>
+      <c r="E123" t="s">
+        <v>506</v>
+      </c>
+      <c r="F123" t="s">
+        <v>62</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" t="s">
+        <v>629</v>
+      </c>
+      <c r="I123" t="s">
+        <v>630</v>
+      </c>
+      <c r="J123" t="s">
+        <v>628</v>
+      </c>
+      <c r="K123" t="s">
+        <v>520</v>
+      </c>
+      <c r="L123" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B124">
+        <v>2019</v>
+      </c>
+      <c r="C124" t="s">
+        <v>632</v>
+      </c>
+      <c r="D124" t="s">
         <v>633</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E124" t="s">
+        <v>597</v>
+      </c>
+      <c r="F124" t="s">
+        <v>62</v>
+      </c>
+      <c r="G124" t="s">
+        <v>63</v>
+      </c>
+      <c r="H124" t="s">
+        <v>64</v>
+      </c>
+      <c r="I124" t="s">
         <v>634</v>
       </c>
-      <c r="E116" t="s">
-        <v>598</v>
-      </c>
-      <c r="F116" t="s">
-        <v>62</v>
-      </c>
-      <c r="G116" t="s">
-        <v>63</v>
-      </c>
-      <c r="H116" t="s">
-        <v>64</v>
-      </c>
-      <c r="I116" t="s">
-        <v>635</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="J124" t="s">
         <v>131</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K124" t="s">
         <v>144</v>
       </c>
-      <c r="L116" t="s">
-        <v>619</v>
+      <c r="L124" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -6935,871 +7334,1778 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFADCCF-61A0-944D-B185-2E91824E28A3}">
-  <dimension ref="A1:H106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFADCCF-61A0-944D-B185-2E91824E28A3}">
+  <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D13" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9">
+      <c r="D16" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" t="s">
+        <v>680</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="N17" t="s">
+        <v>681</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="N18" t="s">
+        <v>670</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s">
+        <v>658</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" t="s">
+        <v>683</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="N22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D23" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="N23" t="s">
+        <v>671</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="N24" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108" s="23" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C108" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D119" s="23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D120" s="23" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D121" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>123</v>
-      </c>
-      <c r="B97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>123</v>
-      </c>
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D106">
-        <v>9</v>
-      </c>
+      <c r="D122" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="22"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="22"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="20"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="20"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B102">
-    <sortCondition ref="A1:A102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N13:R24">
+    <sortCondition ref="N13:N24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5645B3-4077-2E46-A8D3-790B4423623C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B651A9-D4A1-FE47-8FB4-B54C6BF0C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     Consider removing due to lack of detail</t>
       </text>
     </comment>
-    <comment ref="A121" authorId="4" shapeId="0" xr:uid="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
+    <comment ref="A102" authorId="4" shapeId="0" xr:uid="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,22 +94,25 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AA0DF8DF-95C8-6B49-82E8-E08F507857F8}</author>
+    <author>tc={8BE9C786-661C-B14F-B7CE-015F5095B23E}</author>
     <author>tc={F7E1CA3D-7F62-5D41-84AB-68A489F6B499}</author>
     <author>tc={9B6CEA2F-39AF-B840-95E3-62503BF079E7}</author>
+    <author>tc={AA0DF8DF-95C8-6B49-82E8-E08F507857F8}</author>
     <author>tc={EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}</author>
     <author>tc={CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}</author>
+    <author>tc={37CF3E63-27C6-2B4D-A0C5-0FAFD8C2D939}</author>
     <author>tc={62DF1917-5B0E-CB43-A766-2EABDFF594E3}</author>
     <author>tc={7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}</author>
     <author>tc={334E1AD6-622C-3F45-884D-6B09C4B888E4}</author>
+    <author>tc={9EAFE20D-9E31-0241-B272-EF4EC4FB1FB6}</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{AA0DF8DF-95C8-6B49-82E8-E08F507857F8}">
+    <comment ref="Q17" authorId="0" shapeId="0" xr:uid="{8BE9C786-661C-B14F-B7CE-015F5095B23E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Incomplete summary</t>
+    Some fields to complete</t>
       </text>
     </comment>
     <comment ref="P18" authorId="1" shapeId="0" xr:uid="{F7E1CA3D-7F62-5D41-84AB-68A489F6B499}">
@@ -128,7 +131,15 @@
     Consider removing due to lack of detail</t>
       </text>
     </comment>
-    <comment ref="A23" authorId="3" shapeId="0" xr:uid="{EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}">
+    <comment ref="A21" authorId="3" shapeId="0" xr:uid="{AA0DF8DF-95C8-6B49-82E8-E08F507857F8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="4" shapeId="0" xr:uid="{EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +147,7 @@
     Consider removing due to lack of detail</t>
       </text>
     </comment>
-    <comment ref="A38" authorId="4" shapeId="0" xr:uid="{CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}">
+    <comment ref="A41" authorId="5" shapeId="0" xr:uid="{CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +155,7 @@
     Some fields to complete</t>
       </text>
     </comment>
-    <comment ref="A76" authorId="5" shapeId="0" xr:uid="{62DF1917-5B0E-CB43-A766-2EABDFF594E3}">
+    <comment ref="O47" authorId="6" shapeId="0" xr:uid="{37CF3E63-27C6-2B4D-A0C5-0FAFD8C2D939}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +163,15 @@
     Appendix access?</t>
       </text>
     </comment>
-    <comment ref="A99" authorId="6" shapeId="0" xr:uid="{7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}">
+    <comment ref="A82" authorId="7" shapeId="0" xr:uid="{62DF1917-5B0E-CB43-A766-2EABDFF594E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Appendix access?</t>
+      </text>
+    </comment>
+    <comment ref="A105" authorId="8" shapeId="0" xr:uid="{7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +179,7 @@
     Re-check manual classification</t>
       </text>
     </comment>
-    <comment ref="A109" authorId="7" shapeId="0" xr:uid="{334E1AD6-622C-3F45-884D-6B09C4B888E4}">
+    <comment ref="A115" authorId="9" shapeId="0" xr:uid="{334E1AD6-622C-3F45-884D-6B09C4B888E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,12 +187,20 @@
     Appendix access?</t>
       </text>
     </comment>
+    <comment ref="O119" authorId="10" shapeId="0" xr:uid="{9EAFE20D-9E31-0241-B272-EF4EC4FB1FB6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Re-check manual classification</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="738">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -2062,9 +2089,6 @@
     <t>K-means approach</t>
   </si>
   <si>
-    <t>Established?</t>
-  </si>
-  <si>
     <t>Cosine similarity topic-term extraction</t>
   </si>
   <si>
@@ -2194,15 +2218,6 @@
     <t>Deep embedded clustering</t>
   </si>
   <si>
-    <t>Probability-based method - Top-words selection</t>
-  </si>
-  <si>
-    <t>Cosine similarity - topic-term extraction</t>
-  </si>
-  <si>
-    <t>Cosine similarity - TF-IDF vector</t>
-  </si>
-  <si>
     <t>Manual labeling (assisted by pre-defined label set) - Label from previous studies</t>
   </si>
   <si>
@@ -2224,10 +2239,181 @@
     <t>Frequency- &amp; rank- based term extraction  - TF-IDF combined with topic taxonomy analysis</t>
   </si>
   <si>
-    <t>Probability-based</t>
-  </si>
-  <si>
     <t>Probability-based - n-gram and sentence labelers based on statistical ranking measures</t>
+  </si>
+  <si>
+    <t>\ref{truic_2021_tlatr_automatic_topic_labeling_using_automatic_domain_specific_term_recognition}</t>
+  </si>
+  <si>
+    <t>\ref{yin_2022_improving_deep_embedded_clustering_via_learning_cluster_level_representations}</t>
+  </si>
+  <si>
+    <t>\ref{aletras_2017_labeling_topics_with_images_using_a_neural_network}</t>
+  </si>
+  <si>
+    <t>\ref{scelsi_2021_principled_analysis_of_energy_discourse_across_domains_with_thesaurus_based_automatic_topic_labeling}</t>
+  </si>
+  <si>
+    <t>\ref{zhang_2018_taxogen_unsupervised_topic_taxonomy_construction_by_adaptive_term_embedding_and_clustering}</t>
+  </si>
+  <si>
+    <t>\ref{he_2019_automatic_labeling_of_topic_models_using_graph_based_ranking}</t>
+  </si>
+  <si>
+    <t>\ref{rosati_2022_moving_beyond_word_lists_towards_abstractive_topic_labels_for_human_like_topics_of_scientific_documents}</t>
+  </si>
+  <si>
+    <t>\ref{multilingual_topic_labelling_of_news_topics_using_ontological_mapping}</t>
+  </si>
+  <si>
+    <t>\ref{gourru_2018_united_we_stand_using_multiple_strategies_for_topic_labeling}</t>
+  </si>
+  <si>
+    <t>\ref{alokaili_2020_automatic_generation_of_topic_labels}</t>
+  </si>
+  <si>
+    <t>\ref{zhang_2019_learning_document_representation_via_topic_enhanced_lstm_model}</t>
+  </si>
+  <si>
+    <t>\ref{pergola_2021_a_disentangled_adversarial_neural_topic_model_for_separating_opinions_from_plots_in_user_reviews}</t>
+  </si>
+  <si>
+    <t>\ref{wang_2021_phrase_bert_improved_phrase_embeddings_from_bert_with_an_application_to_corpus_exploration}</t>
+  </si>
+  <si>
+    <t>\ref{sorodoc_2017_multimodal_topic_labelling}</t>
+  </si>
+  <si>
+    <t>\ref{he_2021_automatic_topic_labeling_using_graph_based_pre_trained_neural_embedding}</t>
+  </si>
+  <si>
+    <t>\ref{kim_2019_an_ontology_based_labeling_of_influential_topics_using_topic_network_analysis}</t>
+  </si>
+  <si>
+    <t>\ref{hu_2020_neural_topic_modeling_with_cycle_consistent_adversarial_training}</t>
+  </si>
+  <si>
+    <t>\ref{campos_2020_recommendation_system_for_knowledge_acquisition_in_moocs_ecosystems}</t>
+  </si>
+  <si>
+    <t>\ref{chin_2017_totem_personal_tweets_summarization_on_mobile_devices}</t>
+  </si>
+  <si>
+    <t>\ref{adhitama_2017_topic_labeling_towards_news_document_collection_based_on_latent_dirichlet_allocation_and_ontology}</t>
+  </si>
+  <si>
+    <t>\ref{lau_2017_topically_driven_neural_language_model}</t>
+  </si>
+  <si>
+    <t>\ref{popa_2021_bart_tl_weakly_supervised_topic_label_generation}</t>
+  </si>
+  <si>
+    <t>\ref{allahyari_2017_a_knowledge_based_topic_modeling_approach_for_automatic_topic_labeling}</t>
+  </si>
+  <si>
+    <t>\ref{he_2021_automatic_topic_labeling_model_with_paired_attention_based_on_pre_trained_deep_neural_network}</t>
+  </si>
+  <si>
+    <t>ESTABLISHED</t>
+  </si>
+  <si>
+    <t>Probabilistic approach</t>
+  </si>
+  <si>
+    <t>Probabilistic approach - Top-words selection</t>
+  </si>
+  <si>
+    <t>Probabilistic approach (LDAvis relevance threshold)</t>
+  </si>
+  <si>
+    <t>Statistical appoach - Network community labeling based on Z score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency- &amp; rank- based term(s) extraction </t>
+  </si>
+  <si>
+    <t>Cosine similarity -based</t>
+  </si>
+  <si>
+    <t>Cosine similarity -based - TF-IDF vector</t>
+  </si>
+  <si>
+    <t>Cosine similarity -based -  topic-term extraction</t>
+  </si>
+  <si>
+    <t>Graph-based - Image extraction from Wikipedia and ranking using a graph-based method</t>
+  </si>
+  <si>
+    <t>Support Vector Regression</t>
+  </si>
+  <si>
+    <t>Support Vector Regression - label extraction from Wikipedia titles and label ranking based on multiple lexical association feature</t>
+  </si>
+  <si>
+    <t>Probabiistic approach - “Distributive Salience” (Dist-Sal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabiistic approach - “Topic Salience” method </t>
+  </si>
+  <si>
+    <t>Established &amp; Novel</t>
+  </si>
+  <si>
+    <t>Probabilistic approach - [Mei et al., 2007](https://dl.acm.org/doi/10.1145/1281192.1281246) technique</t>
+  </si>
+  <si>
+    <t>Probabilistic approach - Top_n most probable words</t>
+  </si>
+  <si>
+    <t>PARTIALLY AUTOMATED</t>
+  </si>
+  <si>
+    <t>Maximum entropy modeling</t>
+  </si>
+  <si>
+    <t>ML  assisted by topic prevalence information</t>
+  </si>
+  <si>
+    <t>Manual labeling assisted by pre-existing label set</t>
+  </si>
+  <si>
+    <t>ML guided by  generated summaries</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL </t>
+  </si>
+  <si>
+    <t>clare_2019_modelling_research_topic_trends_in_community_forestry</t>
+  </si>
+  <si>
+    <t>Clare, Stephen M. and Hickey, Gordon M.</t>
+  </si>
+  <si>
+    <t>Modelling Research Topic Trends in Community Forestry</t>
+  </si>
+  <si>
+    <t>Small-scale Forestry</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>herzog_2021_transfer_learning_for_topic_labeling_analysis_of_the_uk_house_of_commons_speeches_1935_2014</t>
+  </si>
+  <si>
+    <t>light_2017_managing_the_boundaries_of_taste_culture_valuation_and_computational_social_science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing the Boundaries of Taste: Culture, Valuation, and Computational Social Science </t>
+  </si>
+  <si>
+    <t>Light, Ryan and Odden, Colin</t>
+  </si>
+  <si>
+    <t>Social Forces</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2428,13 +2614,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2768,7 +2952,7 @@
   <threadedComment ref="A81" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{A0B7F135-549A-8F4D-913F-6AE614EB6BFC}">
     <text>Consider removing due to lack of detail</text>
   </threadedComment>
-  <threadedComment ref="A121" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
+  <threadedComment ref="A102" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{309F9DB9-6FBF-6649-89E6-6864975F5458}">
     <text>Incomplete summary</text>
   </threadedComment>
 </ThreadedComments>
@@ -2776,8 +2960,8 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A18" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{AA0DF8DF-95C8-6B49-82E8-E08F507857F8}">
-    <text>Incomplete summary</text>
+  <threadedComment ref="Q17" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{8BE9C786-661C-B14F-B7CE-015F5095B23E}">
+    <text>Some fields to complete</text>
   </threadedComment>
   <threadedComment ref="P18" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{F7E1CA3D-7F62-5D41-84AB-68A489F6B499}">
     <text>Incomplete summary</text>
@@ -2785,20 +2969,29 @@
   <threadedComment ref="Q20" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{9B6CEA2F-39AF-B840-95E3-62503BF079E7}">
     <text>Consider removing due to lack of detail</text>
   </threadedComment>
-  <threadedComment ref="A23" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}">
+  <threadedComment ref="A21" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{AA0DF8DF-95C8-6B49-82E8-E08F507857F8}">
+    <text>Incomplete summary</text>
+  </threadedComment>
+  <threadedComment ref="A26" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{EB3B553B-3B1C-1F4C-91CC-5E5C46D5781D}">
     <text>Consider removing due to lack of detail</text>
   </threadedComment>
-  <threadedComment ref="A38" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}">
+  <threadedComment ref="A41" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{CAAD3A37-3BCE-844A-8BF1-BF356C6C3F5B}">
     <text>Some fields to complete</text>
   </threadedComment>
-  <threadedComment ref="A76" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{62DF1917-5B0E-CB43-A766-2EABDFF594E3}">
+  <threadedComment ref="O47" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{37CF3E63-27C6-2B4D-A0C5-0FAFD8C2D939}">
     <text>Appendix access?</text>
   </threadedComment>
-  <threadedComment ref="A99" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}">
+  <threadedComment ref="A82" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{62DF1917-5B0E-CB43-A766-2EABDFF594E3}">
+    <text>Appendix access?</text>
+  </threadedComment>
+  <threadedComment ref="A105" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{7A14A6C9-D9DF-4D41-A4D6-025366BF2E75}">
     <text>Re-check manual classification</text>
   </threadedComment>
-  <threadedComment ref="A109" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{334E1AD6-622C-3F45-884D-6B09C4B888E4}">
+  <threadedComment ref="A115" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{334E1AD6-622C-3F45-884D-6B09C4B888E4}">
     <text>Appendix access?</text>
+  </threadedComment>
+  <threadedComment ref="O119" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{9EAFE20D-9E31-0241-B272-EF4EC4FB1FB6}">
+    <text>Re-check manual classification</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3234,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4005,7 +4198,7 @@
         <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>718</v>
       </c>
       <c r="I22" t="s">
         <v>189</v>
@@ -5392,24 +5585,24 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B65">
         <v>2017</v>
       </c>
       <c r="C65" t="s">
+        <v>636</v>
+      </c>
+      <c r="D65" t="s">
         <v>637</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>638</v>
-      </c>
-      <c r="E65" t="s">
-        <v>639</v>
       </c>
       <c r="F65" t="s">
         <v>62</v>
@@ -5421,16 +5614,16 @@
         <v>64</v>
       </c>
       <c r="I65" t="s">
+        <v>639</v>
+      </c>
+      <c r="J65" t="s">
         <v>640</v>
-      </c>
-      <c r="J65" t="s">
-        <v>641</v>
       </c>
       <c r="K65" t="s">
         <v>144</v>
       </c>
       <c r="L65" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -5450,7 +5643,7 @@
         <v>390</v>
       </c>
       <c r="F66" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G66" t="s">
         <v>72</v>
@@ -5640,7 +5833,7 @@
         <v>416</v>
       </c>
       <c r="F71" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G71" t="s">
         <v>72</v>
@@ -5891,7 +6084,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>451</v>
+        <v>733</v>
       </c>
       <c r="B78">
         <v>2021</v>
@@ -5979,13 +6172,13 @@
         <v>467</v>
       </c>
       <c r="F80" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G80" t="s">
         <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I80" t="s">
         <v>463</v>
@@ -6116,22 +6309,22 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B84">
         <v>2017</v>
       </c>
       <c r="C84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D84" t="s">
         <v>644</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>645</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>646</v>
-      </c>
-      <c r="F84" t="s">
-        <v>647</v>
       </c>
       <c r="G84" t="s">
         <v>63</v>
@@ -6140,13 +6333,13 @@
         <v>84</v>
       </c>
       <c r="I84" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J84" t="s">
         <v>131</v>
       </c>
       <c r="K84" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L84" t="s">
         <v>145</v>
@@ -6154,19 +6347,19 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B85">
         <v>2017</v>
       </c>
       <c r="C85" t="s">
+        <v>650</v>
+      </c>
+      <c r="D85" t="s">
         <v>651</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>652</v>
-      </c>
-      <c r="E85" t="s">
-        <v>653</v>
       </c>
       <c r="F85" t="s">
         <v>62</v>
@@ -6178,38 +6371,304 @@
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J85" t="s">
         <v>131</v>
       </c>
       <c r="K85" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L85" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>728</v>
+      </c>
+      <c r="B86">
+        <v>2019</v>
+      </c>
+      <c r="C86" t="s">
+        <v>729</v>
+      </c>
+      <c r="D86" t="s">
+        <v>730</v>
+      </c>
+      <c r="E86" t="s">
+        <v>731</v>
+      </c>
+      <c r="F86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+      <c r="J86" t="s">
+        <v>235</v>
+      </c>
+      <c r="K86" t="s">
+        <v>732</v>
+      </c>
+      <c r="L86" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>734</v>
+      </c>
+      <c r="B87">
+        <v>2017</v>
+      </c>
+      <c r="C87" t="s">
+        <v>736</v>
+      </c>
+      <c r="D87" t="s">
+        <v>735</v>
+      </c>
+      <c r="E87" t="s">
+        <v>737</v>
+      </c>
+      <c r="F87" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" t="s">
+        <v>108</v>
+      </c>
+      <c r="J87" t="s">
+        <v>235</v>
+      </c>
+      <c r="K87" t="s">
+        <v>573</v>
+      </c>
+      <c r="L87" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B90">
+        <v>2021</v>
+      </c>
+      <c r="C90" t="s">
+        <v>564</v>
+      </c>
+      <c r="D90" t="s">
+        <v>565</v>
+      </c>
+      <c r="E90" t="s">
+        <v>566</v>
+      </c>
+      <c r="F90" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>84</v>
+      </c>
+      <c r="I90" t="s">
+        <v>108</v>
+      </c>
+      <c r="J90" t="s">
+        <v>131</v>
+      </c>
+      <c r="K90" t="s">
+        <v>567</v>
+      </c>
+      <c r="L90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91">
+        <v>2022</v>
+      </c>
+      <c r="C91" t="s">
+        <v>522</v>
+      </c>
+      <c r="D91" t="s">
+        <v>523</v>
+      </c>
+      <c r="E91" t="s">
+        <v>524</v>
+      </c>
+      <c r="F91" t="s">
+        <v>654</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91" t="s">
+        <v>526</v>
+      </c>
+      <c r="J91" t="s">
+        <v>235</v>
+      </c>
+      <c r="K91" t="s">
+        <v>525</v>
+      </c>
+      <c r="L91" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>512</v>
+      </c>
+      <c r="B92">
+        <v>2020</v>
+      </c>
+      <c r="C92" t="s">
+        <v>513</v>
+      </c>
+      <c r="D92" t="s">
+        <v>514</v>
+      </c>
+      <c r="E92" t="s">
+        <v>515</v>
+      </c>
+      <c r="F92" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" t="s">
+        <v>439</v>
+      </c>
+      <c r="J92" t="s">
+        <v>235</v>
+      </c>
+      <c r="K92" t="s">
+        <v>510</v>
+      </c>
+      <c r="L92" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>533</v>
+      </c>
+      <c r="B93">
+        <v>2020</v>
+      </c>
+      <c r="C93" t="s">
+        <v>534</v>
+      </c>
+      <c r="D93" t="s">
+        <v>535</v>
+      </c>
+      <c r="E93" t="s">
+        <v>536</v>
+      </c>
+      <c r="F93" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J93" t="s">
+        <v>235</v>
+      </c>
+      <c r="K93" t="s">
+        <v>532</v>
+      </c>
+      <c r="L93" t="s">
+        <v>531</v>
+      </c>
+    </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>484</v>
+      <c r="A94" t="s">
+        <v>549</v>
+      </c>
+      <c r="B94">
+        <v>2022</v>
+      </c>
+      <c r="C94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D94" t="s">
+        <v>551</v>
+      </c>
+      <c r="E94" t="s">
+        <v>515</v>
+      </c>
+      <c r="F94" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" t="s">
+        <v>439</v>
+      </c>
+      <c r="J94" t="s">
+        <v>235</v>
+      </c>
+      <c r="K94" t="s">
+        <v>552</v>
+      </c>
+      <c r="L94" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="B95">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C95" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
       <c r="D95" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="E95" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="F95" t="s">
         <v>83</v>
@@ -6221,33 +6680,33 @@
         <v>84</v>
       </c>
       <c r="I95" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="J95" t="s">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="L95" t="s">
-        <v>483</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="B96">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C96" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="D96" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="E96" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="F96" t="s">
         <v>83</v>
@@ -6265,30 +6724,30 @@
         <v>131</v>
       </c>
       <c r="K96" t="s">
-        <v>491</v>
+        <v>145</v>
       </c>
       <c r="L96" t="s">
-        <v>490</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="B97">
         <v>2020</v>
       </c>
       <c r="C97" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="D97" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="E97" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="F97" t="s">
-        <v>83</v>
+        <v>654</v>
       </c>
       <c r="G97" t="s">
         <v>72</v>
@@ -6297,33 +6756,33 @@
         <v>84</v>
       </c>
       <c r="I97" t="s">
-        <v>108</v>
+        <v>537</v>
       </c>
       <c r="J97" t="s">
-        <v>131</v>
-      </c>
-      <c r="K97" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K97" t="s">
         <v>411</v>
       </c>
       <c r="L97" t="s">
-        <v>500</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="B98">
         <v>2021</v>
       </c>
       <c r="C98" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="D98" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="E98" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F98" t="s">
         <v>83</v>
@@ -6335,36 +6794,36 @@
         <v>84</v>
       </c>
       <c r="I98" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="J98" t="s">
         <v>235</v>
       </c>
       <c r="K98" t="s">
-        <v>411</v>
+        <v>520</v>
       </c>
       <c r="L98" t="s">
-        <v>75</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="B99">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C99" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="D99" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="E99" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="F99" t="s">
-        <v>655</v>
+        <v>62</v>
       </c>
       <c r="G99" t="s">
         <v>72</v>
@@ -6373,150 +6832,150 @@
         <v>84</v>
       </c>
       <c r="I99" t="s">
-        <v>391</v>
+        <v>554</v>
       </c>
       <c r="J99" t="s">
-        <v>456</v>
+        <v>131</v>
       </c>
       <c r="K99" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="L99" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>512</v>
+      <c r="A100" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="B100">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C100" t="s">
-        <v>513</v>
+        <v>631</v>
       </c>
       <c r="D100" t="s">
-        <v>514</v>
+        <v>632</v>
       </c>
       <c r="E100" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H100" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I100" t="s">
-        <v>439</v>
+        <v>633</v>
       </c>
       <c r="J100" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="K100" t="s">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="L100" t="s">
-        <v>511</v>
+        <v>618</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>516</v>
+      <c r="A101" s="3" t="s">
+        <v>589</v>
       </c>
       <c r="B101">
         <v>2021</v>
       </c>
       <c r="C101" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="D101" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="E101" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G101" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H101" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I101" t="s">
-        <v>108</v>
+        <v>592</v>
       </c>
       <c r="J101" t="s">
-        <v>462</v>
+        <v>131</v>
       </c>
       <c r="K101" t="s">
-        <v>520</v>
+        <v>144</v>
       </c>
       <c r="L101" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>521</v>
+      <c r="A102" s="16" t="s">
+        <v>613</v>
       </c>
       <c r="B102">
+        <v>2021</v>
+      </c>
+      <c r="C102" t="s">
+        <v>614</v>
+      </c>
+      <c r="D102" t="s">
+        <v>615</v>
+      </c>
+      <c r="E102" t="s">
+        <v>616</v>
+      </c>
+      <c r="F102" t="s">
+        <v>62</v>
+      </c>
+      <c r="G102" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" t="s">
+        <v>617</v>
+      </c>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+      <c r="K102" t="s">
+        <v>144</v>
+      </c>
+      <c r="L102" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B103">
         <v>2022</v>
       </c>
-      <c r="C102" t="s">
-        <v>522</v>
-      </c>
-      <c r="D102" t="s">
-        <v>523</v>
-      </c>
-      <c r="E102" t="s">
-        <v>524</v>
-      </c>
-      <c r="F102" t="s">
-        <v>655</v>
-      </c>
-      <c r="G102" t="s">
-        <v>72</v>
-      </c>
-      <c r="H102" t="s">
-        <v>84</v>
-      </c>
-      <c r="I102" t="s">
-        <v>526</v>
-      </c>
-      <c r="J102" t="s">
-        <v>235</v>
-      </c>
-      <c r="K102" t="s">
-        <v>525</v>
-      </c>
-      <c r="L102" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>527</v>
-      </c>
-      <c r="B103">
-        <v>2019</v>
-      </c>
       <c r="C103" t="s">
-        <v>528</v>
+        <v>620</v>
       </c>
       <c r="D103" t="s">
-        <v>529</v>
+        <v>621</v>
       </c>
       <c r="E103" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="F103" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G103" t="s">
         <v>72</v>
@@ -6525,36 +6984,36 @@
         <v>84</v>
       </c>
       <c r="I103" t="s">
-        <v>108</v>
+        <v>622</v>
       </c>
       <c r="J103" t="s">
-        <v>131</v>
+        <v>623</v>
       </c>
       <c r="K103" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="L103" t="s">
-        <v>145</v>
+        <v>624</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="B104">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C104" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D104" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="E104" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>654</v>
       </c>
       <c r="G104" t="s">
         <v>72</v>
@@ -6563,36 +7022,36 @@
         <v>84</v>
       </c>
       <c r="I104" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="J104" t="s">
-        <v>235</v>
+        <v>456</v>
       </c>
       <c r="K104" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="L104" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="B105">
         <v>2020</v>
       </c>
       <c r="C105" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="D105" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E105" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="F105" t="s">
-        <v>655</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s">
         <v>72</v>
@@ -6601,33 +7060,33 @@
         <v>84</v>
       </c>
       <c r="I105" t="s">
-        <v>537</v>
+        <v>108</v>
       </c>
       <c r="J105" t="s">
-        <v>235</v>
-      </c>
-      <c r="K105" t="s">
+        <v>131</v>
+      </c>
+      <c r="K105" s="12" t="s">
         <v>411</v>
       </c>
       <c r="L105" t="s">
-        <v>411</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C106" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D106" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E106" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="F106" t="s">
         <v>83</v>
@@ -6642,30 +7101,27 @@
         <v>108</v>
       </c>
       <c r="J106" t="s">
-        <v>235</v>
-      </c>
-      <c r="K106" t="s">
-        <v>520</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s">
-        <v>520</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="B107">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C107" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="D107" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="E107" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="F107" t="s">
         <v>83</v>
@@ -6680,27 +7136,30 @@
         <v>108</v>
       </c>
       <c r="J107" t="s">
-        <v>131</v>
+        <v>462</v>
+      </c>
+      <c r="K107" t="s">
+        <v>520</v>
       </c>
       <c r="L107" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>549</v>
+      <c r="A108" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="B108">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C108" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="D108" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="E108" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="F108" t="s">
         <v>83</v>
@@ -6709,112 +7168,112 @@
         <v>72</v>
       </c>
       <c r="H108" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I108" t="s">
-        <v>439</v>
+        <v>578</v>
       </c>
       <c r="J108" t="s">
         <v>235</v>
       </c>
       <c r="K108" t="s">
-        <v>552</v>
+        <v>260</v>
       </c>
       <c r="L108" t="s">
-        <v>553</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>555</v>
+      <c r="A109" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="B109">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C109" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="D109" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="E109" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="F109" t="s">
         <v>62</v>
       </c>
       <c r="G109" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H109" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I109" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="J109" t="s">
-        <v>131</v>
+        <v>612</v>
       </c>
       <c r="K109" t="s">
-        <v>457</v>
+        <v>144</v>
       </c>
       <c r="L109" t="s">
-        <v>457</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>559</v>
+      <c r="A110" s="3" t="s">
+        <v>601</v>
       </c>
       <c r="B110">
+        <v>2021</v>
+      </c>
+      <c r="C110" t="s">
+        <v>602</v>
+      </c>
+      <c r="D110" t="s">
+        <v>603</v>
+      </c>
+      <c r="E110" t="s">
+        <v>604</v>
+      </c>
+      <c r="F110" t="s">
+        <v>62</v>
+      </c>
+      <c r="G110" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" t="s">
+        <v>64</v>
+      </c>
+      <c r="I110" t="s">
+        <v>605</v>
+      </c>
+      <c r="J110" t="s">
+        <v>456</v>
+      </c>
+      <c r="K110" t="s">
+        <v>606</v>
+      </c>
+      <c r="L110" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>495</v>
+      </c>
+      <c r="B111">
         <v>2022</v>
       </c>
-      <c r="C110" t="s">
-        <v>560</v>
-      </c>
-      <c r="D110" t="s">
-        <v>561</v>
-      </c>
-      <c r="E110" t="s">
-        <v>562</v>
-      </c>
-      <c r="F110" t="s">
-        <v>83</v>
-      </c>
-      <c r="G110" t="s">
-        <v>72</v>
-      </c>
-      <c r="H110" t="s">
-        <v>84</v>
-      </c>
-      <c r="I110" t="s">
-        <v>108</v>
-      </c>
-      <c r="J110" t="s">
-        <v>131</v>
-      </c>
-      <c r="K110" t="s">
-        <v>491</v>
-      </c>
-      <c r="L110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B111">
-        <v>2021</v>
-      </c>
       <c r="C111" t="s">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="D111" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
       <c r="E111" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="F111" t="s">
         <v>83</v>
@@ -6832,27 +7291,27 @@
         <v>131</v>
       </c>
       <c r="K111" t="s">
-        <v>567</v>
+        <v>491</v>
       </c>
       <c r="L111" t="s">
-        <v>568</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>569</v>
+      <c r="A112" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="B112">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C112" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="D112" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="E112" t="s">
-        <v>572</v>
+        <v>409</v>
       </c>
       <c r="F112" t="s">
         <v>83</v>
@@ -6864,33 +7323,33 @@
         <v>84</v>
       </c>
       <c r="I112" t="s">
-        <v>108</v>
+        <v>439</v>
       </c>
       <c r="J112" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="K112" t="s">
-        <v>573</v>
+        <v>411</v>
       </c>
       <c r="L112" t="s">
-        <v>573</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B113">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C113" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="D113" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="E113" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F113" t="s">
         <v>83</v>
@@ -6899,19 +7358,19 @@
         <v>72</v>
       </c>
       <c r="H113" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I113" t="s">
-        <v>578</v>
+        <v>108</v>
       </c>
       <c r="J113" t="s">
         <v>235</v>
       </c>
-      <c r="K113" t="s">
-        <v>260</v>
-      </c>
-      <c r="L113" t="s">
-        <v>260</v>
+      <c r="K113" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="L113" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -6948,57 +7407,57 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B115">
+        <v>2021</v>
+      </c>
+      <c r="C115" t="s">
+        <v>595</v>
+      </c>
+      <c r="D115" t="s">
+        <v>596</v>
+      </c>
+      <c r="E115" t="s">
+        <v>597</v>
+      </c>
+      <c r="F115" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" t="s">
+        <v>63</v>
+      </c>
+      <c r="H115" t="s">
+        <v>64</v>
+      </c>
+      <c r="I115" t="s">
+        <v>598</v>
+      </c>
+      <c r="J115" t="s">
+        <v>599</v>
+      </c>
+      <c r="K115" t="s">
+        <v>144</v>
+      </c>
+      <c r="L115" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>485</v>
+      </c>
+      <c r="B116">
         <v>2020</v>
       </c>
-      <c r="C115" t="s">
-        <v>584</v>
-      </c>
-      <c r="D115" t="s">
-        <v>585</v>
-      </c>
-      <c r="E115" t="s">
-        <v>586</v>
-      </c>
-      <c r="F115" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115" t="s">
-        <v>72</v>
-      </c>
-      <c r="H115" t="s">
-        <v>84</v>
-      </c>
-      <c r="I115" t="s">
-        <v>108</v>
-      </c>
-      <c r="J115" t="s">
-        <v>235</v>
-      </c>
-      <c r="K115" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="L115" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B116">
-        <v>2019</v>
-      </c>
       <c r="C116" t="s">
-        <v>584</v>
+        <v>486</v>
       </c>
       <c r="D116" t="s">
-        <v>588</v>
+        <v>487</v>
       </c>
       <c r="E116" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="F116" t="s">
         <v>83</v>
@@ -7013,320 +7472,133 @@
         <v>439</v>
       </c>
       <c r="J116" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="K116" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="L116" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>589</v>
+      <c r="A117" t="s">
+        <v>501</v>
       </c>
       <c r="B117">
         <v>2021</v>
       </c>
       <c r="C117" t="s">
-        <v>590</v>
+        <v>502</v>
       </c>
       <c r="D117" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="E117" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G117" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H117" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I117" t="s">
-        <v>592</v>
+        <v>439</v>
       </c>
       <c r="J117" t="s">
+        <v>235</v>
+      </c>
+      <c r="K117" t="s">
+        <v>411</v>
+      </c>
+      <c r="L117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>559</v>
+      </c>
+      <c r="B118">
+        <v>2022</v>
+      </c>
+      <c r="C118" t="s">
+        <v>560</v>
+      </c>
+      <c r="D118" t="s">
+        <v>561</v>
+      </c>
+      <c r="E118" t="s">
+        <v>562</v>
+      </c>
+      <c r="F118" t="s">
+        <v>83</v>
+      </c>
+      <c r="G118" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" t="s">
+        <v>84</v>
+      </c>
+      <c r="I118" t="s">
+        <v>108</v>
+      </c>
+      <c r="J118" t="s">
         <v>131</v>
       </c>
-      <c r="K117" t="s">
-        <v>144</v>
-      </c>
-      <c r="L117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B118">
-        <v>2021</v>
-      </c>
-      <c r="C118" t="s">
-        <v>595</v>
-      </c>
-      <c r="D118" t="s">
-        <v>596</v>
-      </c>
-      <c r="E118" t="s">
-        <v>597</v>
-      </c>
-      <c r="F118" t="s">
-        <v>62</v>
-      </c>
-      <c r="G118" t="s">
-        <v>63</v>
-      </c>
-      <c r="H118" t="s">
-        <v>64</v>
-      </c>
-      <c r="I118" t="s">
-        <v>598</v>
-      </c>
-      <c r="J118" t="s">
-        <v>599</v>
-      </c>
       <c r="K118" t="s">
-        <v>144</v>
+        <v>491</v>
       </c>
       <c r="L118" t="s">
-        <v>600</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>601</v>
+      <c r="A119" s="17" t="s">
+        <v>625</v>
       </c>
       <c r="B119">
         <v>2021</v>
       </c>
       <c r="C119" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="D119" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="E119" t="s">
-        <v>604</v>
+        <v>506</v>
       </c>
       <c r="F119" t="s">
         <v>62</v>
       </c>
       <c r="G119" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H119" t="s">
         <v>64</v>
       </c>
       <c r="I119" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="J119" t="s">
-        <v>456</v>
+        <v>628</v>
       </c>
       <c r="K119" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="L119" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B120">
-        <v>2022</v>
-      </c>
-      <c r="C120" t="s">
-        <v>608</v>
-      </c>
-      <c r="D120" t="s">
-        <v>609</v>
-      </c>
-      <c r="E120" t="s">
-        <v>610</v>
-      </c>
-      <c r="F120" t="s">
-        <v>62</v>
-      </c>
-      <c r="G120" t="s">
-        <v>63</v>
-      </c>
-      <c r="H120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I120" t="s">
-        <v>611</v>
-      </c>
-      <c r="J120" t="s">
-        <v>612</v>
-      </c>
-      <c r="K120" t="s">
-        <v>144</v>
-      </c>
-      <c r="L120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="B121">
-        <v>2021</v>
-      </c>
-      <c r="C121" t="s">
-        <v>614</v>
-      </c>
-      <c r="D121" t="s">
-        <v>615</v>
-      </c>
-      <c r="E121" t="s">
-        <v>616</v>
-      </c>
-      <c r="F121" t="s">
-        <v>62</v>
-      </c>
-      <c r="G121" t="s">
-        <v>63</v>
-      </c>
-      <c r="H121" t="s">
-        <v>64</v>
-      </c>
-      <c r="I121" t="s">
-        <v>617</v>
-      </c>
-      <c r="J121" t="s">
-        <v>131</v>
-      </c>
-      <c r="K121" t="s">
-        <v>144</v>
-      </c>
-      <c r="L121" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B122">
-        <v>2022</v>
-      </c>
-      <c r="C122" t="s">
-        <v>620</v>
-      </c>
-      <c r="D122" t="s">
-        <v>621</v>
-      </c>
-      <c r="E122" t="s">
-        <v>506</v>
-      </c>
-      <c r="F122" t="s">
-        <v>62</v>
-      </c>
-      <c r="G122" t="s">
-        <v>72</v>
-      </c>
-      <c r="H122" t="s">
-        <v>84</v>
-      </c>
-      <c r="I122" t="s">
-        <v>622</v>
-      </c>
-      <c r="J122" t="s">
-        <v>623</v>
-      </c>
-      <c r="K122" t="s">
-        <v>253</v>
-      </c>
-      <c r="L122" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B123">
-        <v>2021</v>
-      </c>
-      <c r="C123" t="s">
-        <v>626</v>
-      </c>
-      <c r="D123" t="s">
-        <v>627</v>
-      </c>
-      <c r="E123" t="s">
-        <v>506</v>
-      </c>
-      <c r="F123" t="s">
-        <v>62</v>
-      </c>
-      <c r="G123" t="s">
-        <v>72</v>
-      </c>
-      <c r="H123" t="s">
-        <v>629</v>
-      </c>
-      <c r="I123" t="s">
-        <v>630</v>
-      </c>
-      <c r="J123" t="s">
-        <v>628</v>
-      </c>
-      <c r="K123" t="s">
         <v>520</v>
       </c>
-      <c r="L123" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="B124">
-        <v>2019</v>
-      </c>
-      <c r="C124" t="s">
-        <v>632</v>
-      </c>
-      <c r="D124" t="s">
-        <v>633</v>
-      </c>
-      <c r="E124" t="s">
-        <v>597</v>
-      </c>
-      <c r="F124" t="s">
-        <v>62</v>
-      </c>
-      <c r="G124" t="s">
-        <v>63</v>
-      </c>
-      <c r="H124" t="s">
-        <v>64</v>
-      </c>
-      <c r="I124" t="s">
-        <v>634</v>
-      </c>
-      <c r="J124" t="s">
-        <v>131</v>
-      </c>
-      <c r="K124" t="s">
-        <v>144</v>
-      </c>
-      <c r="L124" t="s">
-        <v>618</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A90:L119">
+    <sortCondition ref="A90:A119"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -7337,1775 +7609,2187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFADCCF-61A0-944D-B185-2E91824E28A3}">
   <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="A102" zoomScale="102" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>654</v>
+      <c r="C1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="N12" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>189</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N12" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>594</v>
+      <c r="O13" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>172</v>
+      <c r="N14" t="s">
+        <v>671</v>
+      </c>
+      <c r="O14" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>149</v>
-      </c>
       <c r="N15" t="s">
         <v>149</v>
       </c>
-      <c r="O15" s="24" t="s">
-        <v>146</v>
+      <c r="O15" s="20" t="s">
+        <v>682</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>151</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>149</v>
+      <c r="D16" s="19" t="s">
+        <v>658</v>
       </c>
       <c r="N16" t="s">
-        <v>680</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>601</v>
+        <v>710</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="P16" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>661</v>
+      <c r="D17" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="N17" t="s">
-        <v>681</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>112</v>
+        <v>709</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>601</v>
+        <v>683</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="B18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>617</v>
+      <c r="D18" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="N18" t="s">
-        <v>670</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>69</v>
+        <v>669</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>73</v>
+      <c r="D19" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="N19" t="s">
-        <v>658</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>607</v>
+        <v>657</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="B20" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>658</v>
+      <c r="D20" s="19" t="s">
+        <v>660</v>
       </c>
       <c r="N20" t="s">
         <v>143</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>139</v>
+        <v>687</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>446</v>
+        <v>695</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>469</v>
+        <v>699</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>635</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>143</v>
+      <c r="D21" s="19" t="s">
+        <v>617</v>
       </c>
       <c r="N21" t="s">
-        <v>683</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>473</v>
+        <v>705</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="B22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>468</v>
+      <c r="D22" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="N22" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="20" t="s">
-        <v>55</v>
+      <c r="O22" s="3" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="B23" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>468</v>
+      <c r="D23" s="19" t="s">
+        <v>657</v>
       </c>
       <c r="N23" t="s">
-        <v>671</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="P23" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>380</v>
+        <v>670</v>
+      </c>
+      <c r="O23" t="s">
+        <v>690</v>
+      </c>
+      <c r="P23" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="B24" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>660</v>
+      <c r="D24" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="N24" t="s">
         <v>124</v>
       </c>
-      <c r="O24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R24" s="20" t="s">
-        <v>589</v>
+      <c r="O24" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="23"/>
+      <c r="D25" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="B26" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>684</v>
+      <c r="D26" s="19" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>662</v>
-      </c>
-      <c r="E27" s="23"/>
+      <c r="D27" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="E28" s="23"/>
+      <c r="D28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="N28" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E29" s="23"/>
+      <c r="D29" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="N29" t="s">
+        <v>710</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>682</v>
+      <c r="D30" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="N30" t="s">
+        <v>709</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="E31" s="23"/>
+      <c r="D31" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="N31" t="s">
+        <v>669</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="N32" t="s">
+        <v>705</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P32" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="N33" t="s">
+        <v>670</v>
+      </c>
+      <c r="O33" t="s">
+        <v>359</v>
+      </c>
+      <c r="P33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B34" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C34" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="D34" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="N34" t="s">
+        <v>714</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D36" s="19" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B37" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C37" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D37" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="N37" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B38" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D38" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="N38" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="O38" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B39" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C39" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D39" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="N39" s="22" t="s">
+        <v>723</v>
+      </c>
+      <c r="O39" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C40" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D40" s="19" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="N40" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+      <c r="D41" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="P41" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N45" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O46" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="B47" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="O47" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="23" t="s">
+      <c r="B48" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+      <c r="O48" s="21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="B49" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
+      <c r="O49" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="B50" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="O50" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="B51" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="O51" s="21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="23" t="s">
+      <c r="B52" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="O52" s="23" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="23" t="s">
+      <c r="B53" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="O53" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="B54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="N54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="23" t="s">
+      <c r="B55" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="B56" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="N56" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="23" t="s">
+      <c r="B57" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="N57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="B58" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="O58" s="23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="B59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
+      <c r="O59" s="21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="23" t="s">
+      <c r="B60" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
+      <c r="O60" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="23" t="s">
+      <c r="B61" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="O61" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="23" t="s">
+      <c r="B62" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="O62" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="23" t="s">
+      <c r="B63" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="O63" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="23" t="s">
+      <c r="B64" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="O64" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="23" t="s">
+      <c r="B65" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="O65" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="23" t="s">
+      <c r="B66" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+      <c r="O66" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="23" t="s">
+      <c r="B67" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+      <c r="O67" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="23" t="s">
+      <c r="B68" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+      <c r="O68" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="23" t="s">
+      <c r="B69" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="O69" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="23" t="s">
+      <c r="B70" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="O70" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+      <c r="O71" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="23" t="s">
+      <c r="B72" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="O72" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="23" t="s">
+      <c r="B73" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="O73" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="23" t="s">
+      <c r="B74" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="O74" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="23" t="s">
+      <c r="B75" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="O75" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="23" t="s">
+      <c r="B76" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="O76" s="23" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="23" t="s">
+      <c r="B77" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
+      <c r="O77" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="23" t="s">
+      <c r="B78" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
+      <c r="O78" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="B79" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
+      <c r="O79" s="23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" s="23" t="s">
+      <c r="B80" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
+      <c r="O80" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="23" t="s">
+      <c r="B81" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
+      <c r="O81" s="21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="23" t="s">
+      <c r="B82" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="18" t="s">
+      <c r="O82" s="21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="23" t="s">
+      <c r="B83" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
+      <c r="O83" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" s="23" t="s">
+      <c r="B84" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+      <c r="O84" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="23" t="s">
+      <c r="B85" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
+      <c r="O85" s="21" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="23" t="s">
+      <c r="B86" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
+      <c r="O86" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="23" t="s">
+      <c r="B87" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
+      <c r="O87" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="B82" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="23" t="s">
+      <c r="B88" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
+      <c r="O88" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="23" t="s">
+      <c r="B89" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
+      <c r="O89" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="23" t="s">
+      <c r="B90" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="s">
+      <c r="O90" s="21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="B85" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="23" t="s">
+      <c r="B91" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="O91" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O92" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O93" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O94" s="21" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="N95" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="O95" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O96" s="21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O97" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O98" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O99" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O100" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O101" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="O102" s="21" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O103" s="21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O104" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O105" s="21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O106" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O107" s="21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O108" s="21" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O109" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O110" s="23" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="O111" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="O112" s="21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="N114" t="s">
+        <v>727</v>
+      </c>
+      <c r="O114" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="N115" t="s">
+        <v>108</v>
+      </c>
+      <c r="O115" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="O116" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="O117" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="O118" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="O119" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="O120" s="23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="N121" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="O121" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="O122" s="23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="23" t="s">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" s="23" t="s">
+      <c r="D127" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D100" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="23" t="s">
+      <c r="D128" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D101" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="22"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="22"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
+      <c r="D129" s="19" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="20"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="20"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="20"/>
+      <c r="A146" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N13:R24">
-    <sortCondition ref="N13:N24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O117">
+    <sortCondition ref="O116:O117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B651A9-D4A1-FE47-8FB4-B54C6BF0C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34710F90-C40E-4948-9263-401C345374FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,8 +200,62 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={784D0768-94E0-764D-BEB7-AC6C62985803}</author>
+    <author>tc={F6B776EA-8A85-C645-A398-B7676CEEB39A}</author>
+    <author>tc={E25DEA61-6DA0-8E4D-A390-FD6A69B650A5}</author>
+    <author>tc={ADC601EC-915E-B34C-AE32-ACDB770C5137}</author>
+    <author>tc={5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}</author>
+  </authors>
+  <commentList>
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{784D0768-94E0-764D-BEB7-AC6C62985803}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some fields to complete</t>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="1" shapeId="0" xr:uid="{F6B776EA-8A85-C645-A398-B7676CEEB39A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consider removing due to lack of detail</t>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="2" shapeId="0" xr:uid="{E25DEA61-6DA0-8E4D-A390-FD6A69B650A5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
+    <comment ref="A39" authorId="3" shapeId="0" xr:uid="{ADC601EC-915E-B34C-AE32-ACDB770C5137}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Re-check manual classification</t>
+      </text>
+    </comment>
+    <comment ref="A115" authorId="4" shapeId="0" xr:uid="{5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Appendix access?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="739">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -2414,6 +2469,9 @@
   </si>
   <si>
     <t>Social Forces</t>
+  </si>
+  <si>
+    <t>Neural topic modeling</t>
   </si>
 </sst>
 </file>
@@ -2996,6 +3054,26 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A22" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{784D0768-94E0-764D-BEB7-AC6C62985803}">
+    <text>Some fields to complete</text>
+  </threadedComment>
+  <threadedComment ref="A23" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{F6B776EA-8A85-C645-A398-B7676CEEB39A}">
+    <text>Consider removing due to lack of detail</text>
+  </threadedComment>
+  <threadedComment ref="A29" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{E25DEA61-6DA0-8E4D-A390-FD6A69B650A5}">
+    <text>Incomplete summary</text>
+  </threadedComment>
+  <threadedComment ref="A39" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{ADC601EC-915E-B34C-AE32-ACDB770C5137}">
+    <text>Re-check manual classification</text>
+  </threadedComment>
+  <threadedComment ref="A115" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}">
+    <text>Appendix access?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBE747-7FCC-5A4A-8955-66CF994F327A}">
   <dimension ref="A1:F25"/>
@@ -3429,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:A119"/>
+    <sheetView topLeftCell="E87" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H90" activeCellId="7" sqref="G4:G27 G31:G61 G65:G87 G90:G119 H4:H27 H31:H61 H65:H87 H90:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4397,7 +4475,7 @@
         <v>384</v>
       </c>
       <c r="K27" t="s">
-        <v>378</v>
+        <v>738</v>
       </c>
       <c r="L27" t="s">
         <v>145</v>
@@ -7609,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFADCCF-61A0-944D-B185-2E91824E28A3}">
   <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScale="102" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9548,7 +9626,7 @@
         <v>290</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>84</v>
@@ -9792,4 +9870,1101 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F2D7D8-D1DA-004C-B22E-4B8B6333877A}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView topLeftCell="XEA23" workbookViewId="0">
+      <selection activeCell="XFD111" sqref="XFD111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="21"/>
+    <col min="2" max="3" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="23"/>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="23"/>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="23"/>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="23"/>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="23"/>
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="B90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="23"/>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="23"/>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="23"/>
+      <c r="B110" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="23"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="23"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="23"/>
+      <c r="B114"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="23"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B121"/>
+      <c r="C121"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:C111">
+    <sortCondition ref="C31:C111"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34710F90-C40E-4948-9263-401C345374FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25056D2-0A21-1546-8901-D5793E66CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -203,14 +203,23 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={784D0768-94E0-764D-BEB7-AC6C62985803}</author>
-    <author>tc={F6B776EA-8A85-C645-A398-B7676CEEB39A}</author>
-    <author>tc={E25DEA61-6DA0-8E4D-A390-FD6A69B650A5}</author>
-    <author>tc={ADC601EC-915E-B34C-AE32-ACDB770C5137}</author>
+    <author>tc={8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}</author>
+    <author>tc={B43CEE03-30B5-D94E-9604-EB76601AC810}</author>
+    <author>tc={A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}</author>
+    <author>tc={446869A4-F061-B143-AD7E-2CF84EA9F6A5}</author>
+    <author>tc={698271F9-1C67-B542-9CAB-9AEFDA746147}</author>
     <author>tc={5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}</author>
   </authors>
   <commentList>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{784D0768-94E0-764D-BEB7-AC6C62985803}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Appendix access?</t>
+      </text>
+    </comment>
+    <comment ref="A70" authorId="1" shapeId="0" xr:uid="{B43CEE03-30B5-D94E-9604-EB76601AC810}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +227,15 @@
     Some fields to complete</t>
       </text>
     </comment>
-    <comment ref="A23" authorId="1" shapeId="0" xr:uid="{F6B776EA-8A85-C645-A398-B7676CEEB39A}">
+    <comment ref="A80" authorId="2" shapeId="0" xr:uid="{A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Re-check manual classification</t>
+      </text>
+    </comment>
+    <comment ref="A88" authorId="3" shapeId="0" xr:uid="{446869A4-F061-B143-AD7E-2CF84EA9F6A5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -226,7 +243,7 @@
     Consider removing due to lack of detail</t>
       </text>
     </comment>
-    <comment ref="A29" authorId="2" shapeId="0" xr:uid="{E25DEA61-6DA0-8E4D-A390-FD6A69B650A5}">
+    <comment ref="A92" authorId="4" shapeId="0" xr:uid="{698271F9-1C67-B542-9CAB-9AEFDA746147}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -234,15 +251,7 @@
     Incomplete summary</t>
       </text>
     </comment>
-    <comment ref="A39" authorId="3" shapeId="0" xr:uid="{ADC601EC-915E-B34C-AE32-ACDB770C5137}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Re-check manual classification</t>
-      </text>
-    </comment>
-    <comment ref="A115" authorId="4" shapeId="0" xr:uid="{5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}">
+    <comment ref="A115" authorId="5" shapeId="0" xr:uid="{5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="753">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -2472,6 +2481,48 @@
   </si>
   <si>
     <t>Neural topic modeling</t>
+  </si>
+  <si>
+    <t>Verifying the robustness of established topic coherence metrics.</t>
+  </si>
+  <si>
+    <t>Proposing a novel labeling method</t>
+  </si>
+  <si>
+    <t>Producing more easily interpretable topics</t>
+  </si>
+  <si>
+    <t>Providing a basis for analysis of human judgment of topic label quality</t>
+  </si>
+  <si>
+    <t>Characterising the corpus</t>
+  </si>
+  <si>
+    <t>Proxy to measure the interpretability or coherence of the generated topics / quality of the method</t>
+  </si>
+  <si>
+    <t>Identifying non-relevant topics</t>
+  </si>
+  <si>
+    <t>Proxy to evaluate topic's representations</t>
+  </si>
+  <si>
+    <t>Simplifying/Enhancing topic visualisation</t>
+  </si>
+  <si>
+    <t>No excplicit motivation</t>
+  </si>
+  <si>
+    <t>Excplicitly stated</t>
+  </si>
+  <si>
+    <t>Inferred from conten</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nr</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2674,9 +2725,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3056,17 +3106,20 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A22" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{784D0768-94E0-764D-BEB7-AC6C62985803}">
+  <threadedComment ref="A9" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}">
+    <text>Appendix access?</text>
+  </threadedComment>
+  <threadedComment ref="A70" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{B43CEE03-30B5-D94E-9604-EB76601AC810}">
     <text>Some fields to complete</text>
   </threadedComment>
-  <threadedComment ref="A23" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{F6B776EA-8A85-C645-A398-B7676CEEB39A}">
+  <threadedComment ref="A80" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}">
+    <text>Re-check manual classification</text>
+  </threadedComment>
+  <threadedComment ref="A88" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{446869A4-F061-B143-AD7E-2CF84EA9F6A5}">
     <text>Consider removing due to lack of detail</text>
   </threadedComment>
-  <threadedComment ref="A29" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{E25DEA61-6DA0-8E4D-A390-FD6A69B650A5}">
+  <threadedComment ref="A92" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{698271F9-1C67-B542-9CAB-9AEFDA746147}">
     <text>Incomplete summary</text>
-  </threadedComment>
-  <threadedComment ref="A39" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{ADC601EC-915E-B34C-AE32-ACDB770C5137}">
-    <text>Re-check manual classification</text>
   </threadedComment>
   <threadedComment ref="A115" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}">
     <text>Appendix access?</text>
@@ -3507,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView topLeftCell="E87" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H90" activeCellId="7" sqref="G4:G27 G31:G61 G65:G87 G90:G119 H4:H27 H31:H61 H65:H87 H90:H119"/>
+    <sheetView topLeftCell="A48" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A90" activeCellId="3" sqref="A4:A27 A31:A61 A65:A87 A90:A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7687,7 +7740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFADCCF-61A0-944D-B185-2E91824E28A3}">
   <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -8388,10 +8441,10 @@
       <c r="D38" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="N38" t="s">
         <v>722</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8408,10 +8461,10 @@
       <c r="D39" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" t="s">
         <v>723</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8428,10 +8481,10 @@
       <c r="D40" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" t="s">
         <v>725</v>
       </c>
-      <c r="O40" s="22" t="s">
+      <c r="O40" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8448,13 +8501,13 @@
       <c r="D41" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" t="s">
         <v>124</v>
       </c>
-      <c r="O41" s="21" t="s">
+      <c r="O41" t="s">
         <v>464</v>
       </c>
-      <c r="P41" s="22" t="s">
+      <c r="P41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8507,15 +8560,15 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N45" s="21" t="s">
+      <c r="N45" t="s">
         <v>724</v>
       </c>
-      <c r="O45" s="21" t="s">
+      <c r="O45" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O46" s="21" t="s">
+      <c r="O46" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8532,7 +8585,7 @@
       <c r="D47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O47" s="21" t="s">
+      <c r="O47" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8549,7 +8602,7 @@
       <c r="D48" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O48" s="21" t="s">
+      <c r="O48" t="s">
         <v>413</v>
       </c>
     </row>
@@ -8566,7 +8619,7 @@
       <c r="D49" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O49" s="21" t="s">
+      <c r="O49" t="s">
         <v>541</v>
       </c>
     </row>
@@ -8583,7 +8636,7 @@
       <c r="D50" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="O50" s="3" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8600,7 +8653,7 @@
       <c r="D51" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" t="s">
         <v>505</v>
       </c>
     </row>
@@ -8617,7 +8670,7 @@
       <c r="D52" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O52" s="23" t="s">
+      <c r="O52" s="3" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8634,7 +8687,7 @@
       <c r="D53" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O53" s="23" t="s">
+      <c r="O53" s="3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8651,7 +8704,6 @@
       <c r="D54" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
@@ -8703,7 +8755,7 @@
       <c r="N57" t="s">
         <v>108</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="O57" s="3" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8720,7 +8772,7 @@
       <c r="D58" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="O58" s="3" t="s">
         <v>642</v>
       </c>
     </row>
@@ -8737,7 +8789,7 @@
       <c r="D59" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O59" s="21" t="s">
+      <c r="O59" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8754,7 +8806,7 @@
       <c r="D60" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O60" s="21" t="s">
+      <c r="O60" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8771,7 +8823,7 @@
       <c r="D61" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O61" s="21" t="s">
+      <c r="O61" t="s">
         <v>269</v>
       </c>
     </row>
@@ -8788,7 +8840,7 @@
       <c r="D62" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O62" s="21" t="s">
+      <c r="O62" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8805,7 +8857,7 @@
       <c r="D63" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="O63" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8822,7 +8874,7 @@
       <c r="D64" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O64" s="21" t="s">
+      <c r="O64" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8839,7 +8891,7 @@
       <c r="D65" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O65" s="23" t="s">
+      <c r="O65" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8856,7 +8908,7 @@
       <c r="D66" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O66" s="21" t="s">
+      <c r="O66" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8873,7 +8925,7 @@
       <c r="D67" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O67" s="21" t="s">
+      <c r="O67" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8890,7 +8942,7 @@
       <c r="D68" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O68" s="21" t="s">
+      <c r="O68" t="s">
         <v>527</v>
       </c>
     </row>
@@ -8907,7 +8959,7 @@
       <c r="D69" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O69" s="21" t="s">
+      <c r="O69" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8924,7 +8976,7 @@
       <c r="D70" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O70" s="21" t="s">
+      <c r="O70" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8941,7 +8993,7 @@
       <c r="D71" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O71" s="23" t="s">
+      <c r="O71" s="3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8958,7 +9010,7 @@
       <c r="D72" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O72" s="21" t="s">
+      <c r="O72" t="s">
         <v>317</v>
       </c>
     </row>
@@ -8975,7 +9027,7 @@
       <c r="D73" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O73" s="21" t="s">
+      <c r="O73" t="s">
         <v>496</v>
       </c>
     </row>
@@ -8992,7 +9044,7 @@
       <c r="D74" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O74" s="23" t="s">
+      <c r="O74" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -9009,7 +9061,7 @@
       <c r="D75" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O75" s="21" t="s">
+      <c r="O75" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9026,7 +9078,7 @@
       <c r="D76" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O76" s="23" t="s">
+      <c r="O76" s="3" t="s">
         <v>583</v>
       </c>
     </row>
@@ -9043,7 +9095,7 @@
       <c r="D77" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O77" s="21" t="s">
+      <c r="O77" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9060,7 +9112,7 @@
       <c r="D78" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O78" s="21" t="s">
+      <c r="O78" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9077,7 +9129,7 @@
       <c r="D79" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O79" s="23" t="s">
+      <c r="O79" s="3" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9094,7 +9146,7 @@
       <c r="D80" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O80" s="23" t="s">
+      <c r="O80" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9111,7 +9163,7 @@
       <c r="D81" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O81" s="21" t="s">
+      <c r="O81" t="s">
         <v>542</v>
       </c>
     </row>
@@ -9128,7 +9180,7 @@
       <c r="D82" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O82" s="21" t="s">
+      <c r="O82" t="s">
         <v>516</v>
       </c>
     </row>
@@ -9145,7 +9197,7 @@
       <c r="D83" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O83" s="21" t="s">
+      <c r="O83" t="s">
         <v>160</v>
       </c>
     </row>
@@ -9162,7 +9214,7 @@
       <c r="D84" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O84" s="21" t="s">
+      <c r="O84" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9179,7 +9231,7 @@
       <c r="D85" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O85" s="21" t="s">
+      <c r="O85" t="s">
         <v>569</v>
       </c>
     </row>
@@ -9196,7 +9248,7 @@
       <c r="D86" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O86" s="23" t="s">
+      <c r="O86" s="3" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9213,7 +9265,7 @@
       <c r="D87" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O87" s="23" t="s">
+      <c r="O87" s="3" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9230,7 +9282,7 @@
       <c r="D88" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O88" s="23" t="s">
+      <c r="O88" s="3" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9247,7 +9299,7 @@
       <c r="D89" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O89" s="21" t="s">
+      <c r="O89" t="s">
         <v>254</v>
       </c>
     </row>
@@ -9264,7 +9316,7 @@
       <c r="D90" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O90" s="21" t="s">
+      <c r="O90" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9281,7 +9333,7 @@
       <c r="D91" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="O91" s="21" t="s">
+      <c r="O91" t="s">
         <v>208</v>
       </c>
     </row>
@@ -9298,7 +9350,7 @@
       <c r="D92" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O92" s="21" t="s">
+      <c r="O92" t="s">
         <v>495</v>
       </c>
     </row>
@@ -9315,7 +9367,7 @@
       <c r="D93" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O93" s="21" t="s">
+      <c r="O93" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9332,7 +9384,7 @@
       <c r="D94" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O94" s="21" t="s">
+      <c r="O94" t="s">
         <v>559</v>
       </c>
     </row>
@@ -9349,10 +9401,10 @@
       <c r="D95" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="N95" s="21" t="s">
+      <c r="N95" t="s">
         <v>283</v>
       </c>
-      <c r="O95" s="23" t="s">
+      <c r="O95" s="3" t="s">
         <v>435</v>
       </c>
     </row>
@@ -9369,7 +9421,7 @@
       <c r="D96" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O96" s="21" t="s">
+      <c r="O96" t="s">
         <v>464</v>
       </c>
     </row>
@@ -9386,7 +9438,7 @@
       <c r="D97" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O97" s="21" t="s">
+      <c r="O97" t="s">
         <v>478</v>
       </c>
     </row>
@@ -9403,7 +9455,7 @@
       <c r="D98" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O98" s="23" t="s">
+      <c r="O98" s="3" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9420,7 +9472,7 @@
       <c r="D99" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O99" s="21" t="s">
+      <c r="O99" t="s">
         <v>304</v>
       </c>
     </row>
@@ -9437,7 +9489,7 @@
       <c r="D100" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O100" s="21" t="s">
+      <c r="O100" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9454,7 +9506,7 @@
       <c r="D101" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O101" s="23" t="s">
+      <c r="O101" s="3" t="s">
         <v>587</v>
       </c>
     </row>
@@ -9471,17 +9523,17 @@
       <c r="D102" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="O102" s="21" t="s">
+      <c r="O102" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O103" s="21" t="s">
+      <c r="O103" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O104" s="21" t="s">
+      <c r="O104" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9498,7 +9550,7 @@
       <c r="D105" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O105" s="21" t="s">
+      <c r="O105" t="s">
         <v>485</v>
       </c>
     </row>
@@ -9515,7 +9567,7 @@
       <c r="D106" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O106" s="23" t="s">
+      <c r="O106" s="3" t="s">
         <v>276</v>
       </c>
     </row>
@@ -9532,7 +9584,7 @@
       <c r="D107" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O107" s="21" t="s">
+      <c r="O107" t="s">
         <v>428</v>
       </c>
     </row>
@@ -9549,7 +9601,7 @@
       <c r="D108" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O108" s="21" t="s">
+      <c r="O108" t="s">
         <v>579</v>
       </c>
     </row>
@@ -9566,7 +9618,7 @@
       <c r="D109" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O109" s="21" t="s">
+      <c r="O109" t="s">
         <v>501</v>
       </c>
     </row>
@@ -9583,7 +9635,7 @@
       <c r="D110" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O110" s="23" t="s">
+      <c r="O110" s="3" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9600,7 +9652,7 @@
       <c r="D111" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O111" s="21" t="s">
+      <c r="O111" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9617,7 +9669,7 @@
       <c r="D112" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O112" s="21" t="s">
+      <c r="O112" t="s">
         <v>549</v>
       </c>
     </row>
@@ -9657,7 +9709,7 @@
       <c r="N115" t="s">
         <v>108</v>
       </c>
-      <c r="O115" s="23" t="s">
+      <c r="O115" s="3" t="s">
         <v>429</v>
       </c>
     </row>
@@ -9674,7 +9726,7 @@
       <c r="D116" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="O116" s="23" t="s">
+      <c r="O116" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9691,7 +9743,7 @@
       <c r="D117" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="O117" s="21" t="s">
+      <c r="O117" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9708,7 +9760,7 @@
       <c r="D118" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="O118" s="23" t="s">
+      <c r="O118" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -9725,7 +9777,7 @@
       <c r="D119" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="O119" s="23" t="s">
+      <c r="O119" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9742,7 +9794,7 @@
       <c r="D120" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="O120" s="23" t="s">
+      <c r="O120" s="3" t="s">
         <v>574</v>
       </c>
     </row>
@@ -9759,10 +9811,10 @@
       <c r="D121" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="N121" s="21" t="s">
+      <c r="N121" t="s">
         <v>283</v>
       </c>
-      <c r="O121" s="23" t="s">
+      <c r="O121" s="3" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9779,7 +9831,7 @@
       <c r="D122" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="O122" s="23" t="s">
+      <c r="O122" s="3" t="s">
         <v>574</v>
       </c>
     </row>
@@ -9874,1097 +9926,1079 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F2D7D8-D1DA-004C-B22E-4B8B6333877A}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="XEA23" workbookViewId="0">
-      <selection activeCell="XFD111" sqref="XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="21"/>
-    <col min="2" max="3" width="33.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="166.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>72</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="D30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>743</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="23"/>
-      <c r="B91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" t="s">
-        <v>64</v>
-      </c>
-      <c r="D95"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="23"/>
-      <c r="B96" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" t="s">
-        <v>64</v>
-      </c>
-      <c r="D96"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" t="s">
-        <v>64</v>
-      </c>
-      <c r="D98"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99" t="s">
-        <v>64</v>
-      </c>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C100" t="s">
-        <v>64</v>
-      </c>
-      <c r="D100"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" t="s">
-        <v>64</v>
-      </c>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="23"/>
-      <c r="B104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" t="s">
-        <v>64</v>
-      </c>
-      <c r="D105"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>72</v>
-      </c>
-      <c r="C108" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="23"/>
-      <c r="B110" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="23"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="23"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="23"/>
-      <c r="B114"/>
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B115"/>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="23"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D117"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B121"/>
-      <c r="C121"/>
+        <v>752</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>749</v>
+      </c>
+      <c r="F34" t="s">
+        <v>750</v>
+      </c>
+      <c r="G34" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>31</v>
+      </c>
+      <c r="G35">
+        <f>E35+F35</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G44" si="0">E36+F36</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>740</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>744</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>746</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>745</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>742</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>739</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="21"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="21"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="21"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="21"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="21"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:C111">
-    <sortCondition ref="C31:C111"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B109">
+    <sortCondition ref="B1:B109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25056D2-0A21-1546-8901-D5793E66CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB53FDE-8549-DB45-8194-E79F3341EDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="16320" activeTab="3" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -203,15 +203,39 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}</author>
-    <author>tc={B43CEE03-30B5-D94E-9604-EB76601AC810}</author>
     <author>tc={A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}</author>
     <author>tc={446869A4-F061-B143-AD7E-2CF84EA9F6A5}</author>
     <author>tc={698271F9-1C67-B542-9CAB-9AEFDA746147}</author>
+    <author>tc={8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}</author>
+    <author>tc={B43CEE03-30B5-D94E-9604-EB76601AC810}</author>
     <author>tc={5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Re-check manual classification</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{446869A4-F061-B143-AD7E-2CF84EA9F6A5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consider removing due to lack of detail</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{698271F9-1C67-B542-9CAB-9AEFDA746147}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="3" shapeId="0" xr:uid="{8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -219,36 +243,12 @@
     Appendix access?</t>
       </text>
     </comment>
-    <comment ref="A70" authorId="1" shapeId="0" xr:uid="{B43CEE03-30B5-D94E-9604-EB76601AC810}">
+    <comment ref="A86" authorId="4" shapeId="0" xr:uid="{B43CEE03-30B5-D94E-9604-EB76601AC810}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Some fields to complete</t>
-      </text>
-    </comment>
-    <comment ref="A80" authorId="2" shapeId="0" xr:uid="{A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Re-check manual classification</t>
-      </text>
-    </comment>
-    <comment ref="A88" authorId="3" shapeId="0" xr:uid="{446869A4-F061-B143-AD7E-2CF84EA9F6A5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Consider removing due to lack of detail</t>
-      </text>
-    </comment>
-    <comment ref="A92" authorId="4" shapeId="0" xr:uid="{698271F9-1C67-B542-9CAB-9AEFDA746147}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Incomplete summary</t>
       </text>
     </comment>
     <comment ref="A115" authorId="5" shapeId="0" xr:uid="{5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}">
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="754">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -2486,9 +2486,6 @@
     <t>Verifying the robustness of established topic coherence metrics.</t>
   </si>
   <si>
-    <t>Proposing a novel labeling method</t>
-  </si>
-  <si>
     <t>Producing more easily interpretable topics</t>
   </si>
   <si>
@@ -2523,13 +2520,19 @@
   </si>
   <si>
     <t>Nr</t>
+  </si>
+  <si>
+    <t>Adressing the overhead of topic interpretation</t>
+  </si>
+  <si>
+    <t>Complementing textual labels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2551,12 +2554,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2611,7 +2608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2699,11 +2696,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2724,9 +2745,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3106,20 +3130,20 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A9" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}">
+  <threadedComment ref="A4" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}">
+    <text>Re-check manual classification</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{446869A4-F061-B143-AD7E-2CF84EA9F6A5}">
+    <text>Consider removing due to lack of detail</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{698271F9-1C67-B542-9CAB-9AEFDA746147}">
+    <text>Incomplete summary</text>
+  </threadedComment>
+  <threadedComment ref="A24" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{8BC7CC01-5DF7-274F-9A7C-E9EA586D40CB}">
     <text>Appendix access?</text>
   </threadedComment>
-  <threadedComment ref="A70" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{B43CEE03-30B5-D94E-9604-EB76601AC810}">
+  <threadedComment ref="A86" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{B43CEE03-30B5-D94E-9604-EB76601AC810}">
     <text>Some fields to complete</text>
-  </threadedComment>
-  <threadedComment ref="A80" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{A191C1A5-BD52-3C47-AE4A-CB6A8E6AFE9A}">
-    <text>Re-check manual classification</text>
-  </threadedComment>
-  <threadedComment ref="A88" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{446869A4-F061-B143-AD7E-2CF84EA9F6A5}">
-    <text>Consider removing due to lack of detail</text>
-  </threadedComment>
-  <threadedComment ref="A92" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{698271F9-1C67-B542-9CAB-9AEFDA746147}">
-    <text>Incomplete summary</text>
   </threadedComment>
   <threadedComment ref="A115" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{5AFF9821-DF99-A24B-B1E4-AEEE87AC741F}">
     <text>Appendix access?</text>
@@ -9928,323 +9952,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F2D7D8-D1DA-004C-B22E-4B8B6333877A}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="166.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="166.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="B16" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="B17" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="B18" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="B19" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="B20" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="B21" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="B22" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>398</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="B23" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="B24" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>428</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="B25" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="B26" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="B27" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>533</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="B28" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>549</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="B29" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>569</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>625</v>
-      </c>
       <c r="B30" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E30">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>330</v>
+      <c r="A31" t="s">
+        <v>541</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>743</v>
+      <c r="A32" t="s">
+        <v>542</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>743</v>
+      <c r="A33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>743</v>
+      <c r="A34" t="s">
+        <v>496</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
       </c>
       <c r="E34" t="s">
+        <v>748</v>
+      </c>
+      <c r="F34" t="s">
         <v>749</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>750</v>
       </c>
-      <c r="G34" t="s">
-        <v>751</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>743</v>
+      <c r="A35" t="s">
+        <v>548</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>743</v>
+      <c r="D35" t="s">
+        <v>742</v>
       </c>
       <c r="E35">
         <v>18</v>
@@ -10258,65 +10282,63 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>743</v>
+      <c r="A36" t="s">
+        <v>516</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>741</v>
+      <c r="D36" t="s">
+        <v>740</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G44" si="0">E36+F36</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>743</v>
+      <c r="A37" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
-        <v>740</v>
+      <c r="D37" s="21" t="s">
+        <v>752</v>
       </c>
       <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
         <v>15</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>743</v>
+      <c r="A38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -10325,22 +10347,22 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G36:G44" si="0">E38+F38</f>
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>743</v>
+      <c r="A39" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -10354,17 +10376,17 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>743</v>
+      <c r="A40" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>747</v>
+      <c r="D40" t="s">
+        <v>746</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -10378,17 +10400,17 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>743</v>
+      <c r="A41" t="s">
+        <v>579</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -10397,22 +10419,21 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>743</v>
+      <c r="A42" t="s">
+        <v>485</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -10421,22 +10442,22 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f>E42+F42</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>743</v>
+      <c r="A43" t="s">
+        <v>501</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>742</v>
       </c>
       <c r="C43">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -10445,553 +10466,586 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f>E43+F43</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" t="s">
+        <v>559</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>739</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>E44+F44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>625</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>410</v>
+      </c>
+      <c r="B57" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="B59" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>734</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="B60" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="B61" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="B62" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="B63" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>343</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="B64" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>444</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="B66" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="B67" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
+      <c r="B68" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
+      <c r="B69" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>179</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
+      <c r="B70" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="B71" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>373</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="B72" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>317</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="B73" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>340</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="B74" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>352</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="B75" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>359</v>
       </c>
-      <c r="B60" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
+      <c r="B76" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="B77" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C77" s="23"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+      <c r="B78" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C78" s="23"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="s">
+      <c r="B79" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C79" s="21"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
+      <c r="B80" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
+      <c r="B81" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="22" t="s">
+      <c r="B82" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>309</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
+      <c r="B83" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
+      <c r="B84" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B69" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+      <c r="B85" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="22" t="s">
+      <c r="B86" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>464</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="B87" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>527</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
+      <c r="B88" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>555</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
+      <c r="B89" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="B90" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>266</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
+      <c r="B91" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>269</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="B92" s="21" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="21" t="s">
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>607</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
+      <c r="C93" s="22"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="s">
+      <c r="B94" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B102" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B103" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>478</v>
+      </c>
+      <c r="B104" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="s">
-        <v>649</v>
-      </c>
-      <c r="B96" s="22" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>747</v>
-      </c>
-    </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>747</v>
+      <c r="B107" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="22" t="s">
+      <c r="A108" t="s">
         <v>728</v>
       </c>
-      <c r="B108" s="22" t="s">
-        <v>747</v>
+      <c r="B108" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="21"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="21"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="21"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="21"/>
+      <c r="A116" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B109">

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB0516D-2536-944E-BA00-79D349B2B369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0A801-B354-1C47-9879-BAD28797B021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" firstSheet="2" activeTab="15" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" firstSheet="6" activeTab="15" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,14 @@
     <sheet name="Corpus 2" sheetId="13" r:id="rId14"/>
     <sheet name="Pre-Processing" sheetId="14" r:id="rId15"/>
     <sheet name="Pre-processing vs TM TL" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">('Nr. of Topics'!$B$1:$B$35,'Nr. of Topics'!$B$38:$B$104,'Nr. of Topics'!$B$106:$B$118)</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">('Nr. of Topics'!$C$1:$C$35,'Nr. of Topics'!$C$38:$C$104,'Nr. of Topics'!$C$106:$C$118)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -964,7 +966,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6424" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6502" uniqueCount="1202">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -3552,18 +3554,9 @@
     <t>Amazon (82.8M)</t>
   </si>
   <si>
-    <t>article, story, review</t>
-  </si>
-  <si>
     <t>Finnish News Agency (385,803)</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>article, wikipedia</t>
-  </si>
-  <si>
     <t>Q&amp;A</t>
   </si>
   <si>
@@ -3615,9 +3608,6 @@
     <t>History Museum (4077)</t>
   </si>
   <si>
-    <t>diary entry, blog post, article</t>
-  </si>
-  <si>
     <t>Twitter (4.7M)</t>
   </si>
   <si>
@@ -3804,18 +3794,12 @@
     <t>Aviation Safety Reporting System (ASRS) (25,706)</t>
   </si>
   <si>
-    <t>Article + abstract</t>
-  </si>
-  <si>
     <t>LexisNexis (1,935 )</t>
   </si>
   <si>
     <t>Twitter (369,485)</t>
   </si>
   <si>
-    <t>article, tweet</t>
-  </si>
-  <si>
     <t>abstract</t>
   </si>
   <si>
@@ -3834,18 +3818,12 @@
     <t>Webpage textual content</t>
   </si>
   <si>
-    <t>Article</t>
-  </si>
-  <si>
     <t>Huffington Post (12067)</t>
   </si>
   <si>
     <t>Sc-art (18465)</t>
   </si>
   <si>
-    <t>Abstract, article</t>
-  </si>
-  <si>
     <t>Twitter (366,244)</t>
   </si>
   <si>
@@ -3930,9 +3908,6 @@
     <t>ratemyhospital.ie (5220)</t>
   </si>
   <si>
-    <t>Comment + metadata</t>
-  </si>
-  <si>
     <t>Citation statement</t>
   </si>
   <si>
@@ -4488,25 +4463,115 @@
     <t>diary entry</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>(Full-text) Article</t>
-  </si>
-  <si>
-    <t>Article's abstract</t>
-  </si>
-  <si>
-    <t>Article's title and abstract</t>
-  </si>
-  <si>
-    <t>Course module content and metadata</t>
-  </si>
-  <si>
-    <t>Review and metadata</t>
-  </si>
-  <si>
-    <t>Tweet and metadata</t>
+    <t>Earning call</t>
+  </si>
+  <si>
+    <t>diary entry, blog post, news article</t>
+  </si>
+  <si>
+    <t>news article, (Full-text) paper</t>
+  </si>
+  <si>
+    <t>news articles, story, review</t>
+  </si>
+  <si>
+    <t>news article, wikipedia entry's content</t>
+  </si>
+  <si>
+    <t>News article</t>
+  </si>
+  <si>
+    <t>(Full-text) paper</t>
+  </si>
+  <si>
+    <t>(Full-text) paper + abstract</t>
+  </si>
+  <si>
+    <t>news article, tweet</t>
+  </si>
+  <si>
+    <t>Abstract, (Full-text) Paper</t>
+  </si>
+  <si>
+    <t>(Full-text) paper, News article</t>
+  </si>
+  <si>
+    <t>wikipedia entry's content</t>
+  </si>
+  <si>
+    <t>Course module content</t>
+  </si>
+  <si>
+    <t>Safety report</t>
+  </si>
+  <si>
+    <t>Single user Q&amp;A</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Fully &amp; Partially automated</t>
+  </si>
+  <si>
+    <t>Paper's content</t>
+  </si>
+  <si>
+    <t>Title and Abstract</t>
+  </si>
+  <si>
+    <t>Wikipedia entry's content</t>
+  </si>
+  <si>
+    <t>Course module content and Metadata</t>
+  </si>
+  <si>
+    <t>Title, Abstract and Metadata</t>
+  </si>
+  <si>
+    <t>Tweet and Metadata</t>
+  </si>
+  <si>
+    <t>Review and Metadata</t>
+  </si>
+  <si>
+    <t>Abstract and Metadata</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Complaint record and Metadata</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Title, Abstract, Author and Metadata</t>
+  </si>
+  <si>
+    <t>Document chunk and Metadata</t>
+  </si>
+  <si>
+    <t>Paper's content and Abstract</t>
+  </si>
+  <si>
+    <t>Title, Abstract and Author</t>
+  </si>
+  <si>
+    <t>Diary entry</t>
+  </si>
+  <si>
+    <t>Blog post</t>
+  </si>
+  <si>
+    <t>Petition title and Content</t>
+  </si>
+  <si>
+    <t>Single MP contribution</t>
+  </si>
+  <si>
+    <t>Title, Abstract and Keywords</t>
   </si>
 </sst>
 </file>
@@ -4516,7 +4581,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4554,6 +4619,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4920,7 +4991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4998,12 +5069,13 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8576,19 +8648,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9E9163-2AE2-E743-921F-E25748F7D173}">
-  <dimension ref="A1:Y109"/>
+  <dimension ref="A1:AP245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y2" activeCellId="1" sqref="C2:C109 Y2:Y109"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>143</v>
@@ -8621,16 +8697,16 @@
         <v>854</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>403</v>
@@ -8645,7 +8721,7 @@
         <v>569</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>44</v>
@@ -8662,7 +8738,7 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="F2" t="s">
         <v>838</v>
@@ -8677,7 +8753,7 @@
         <v>120000</v>
       </c>
       <c r="Y2" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -8771,7 +8847,7 @@
         <v>850</v>
       </c>
       <c r="Y7" t="s">
-        <v>864</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -8848,7 +8924,7 @@
         <v>861</v>
       </c>
       <c r="Y11" t="s">
-        <v>862</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -8862,10 +8938,10 @@
         <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Y12" t="s">
-        <v>864</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -8885,7 +8961,7 @@
         <v>836</v>
       </c>
       <c r="Y13" t="s">
-        <v>865</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -8910,10 +8986,10 @@
         <v>62</v>
       </c>
       <c r="P15" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="Y15" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -8927,10 +9003,10 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="Y16" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -8944,10 +9020,10 @@
         <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="Y17" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -8961,16 +9037,16 @@
         <v>62</v>
       </c>
       <c r="F18" t="s">
+        <v>871</v>
+      </c>
+      <c r="G18" t="s">
+        <v>873</v>
+      </c>
+      <c r="P18" t="s">
+        <v>872</v>
+      </c>
+      <c r="Y18" t="s">
         <v>874</v>
-      </c>
-      <c r="G18" t="s">
-        <v>876</v>
-      </c>
-      <c r="P18" t="s">
-        <v>875</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -8984,10 +9060,10 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="Y19" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -9001,16 +9077,16 @@
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F20" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I20">
         <v>38008</v>
       </c>
       <c r="Y20" t="s">
-        <v>883</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -9024,10 +9100,10 @@
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="Y21" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
@@ -9041,7 +9117,7 @@
         <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="G22" t="s">
         <v>835</v>
@@ -9050,7 +9126,7 @@
         <v>836</v>
       </c>
       <c r="Y22" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -9064,13 +9140,13 @@
         <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H23" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="Y23" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -9084,10 +9160,10 @@
         <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="Y24" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -9101,10 +9177,10 @@
         <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="Y25" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -9118,7 +9194,7 @@
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="Y26" t="s">
         <v>833</v>
@@ -9135,10 +9211,10 @@
         <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="Y27" t="s">
-        <v>956</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -9152,10 +9228,10 @@
         <v>62</v>
       </c>
       <c r="R28" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="Y28" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -9169,10 +9245,10 @@
         <v>82</v>
       </c>
       <c r="N29" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="Y29" t="s">
-        <v>864</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -9189,7 +9265,7 @@
         <v>53842</v>
       </c>
       <c r="Y30" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -9203,10 +9279,10 @@
         <v>82</v>
       </c>
       <c r="N31" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="Y31" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -9220,10 +9296,10 @@
         <v>82</v>
       </c>
       <c r="N32" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="Y32" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -9237,10 +9313,10 @@
         <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="Y33" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -9254,10 +9330,10 @@
         <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="Y34" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -9271,10 +9347,10 @@
         <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="Y35" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -9288,10 +9364,10 @@
         <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="Y36" t="s">
-        <v>864</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -9305,7 +9381,7 @@
         <v>82</v>
       </c>
       <c r="I37" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="Y37" t="s">
         <v>833</v>
@@ -9322,7 +9398,7 @@
         <v>82</v>
       </c>
       <c r="I38" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="Y38" t="s">
         <v>833</v>
@@ -9339,10 +9415,10 @@
         <v>82</v>
       </c>
       <c r="N39" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="Y39" t="s">
-        <v>864</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -9356,10 +9432,10 @@
         <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="Y40" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -9376,7 +9452,7 @@
         <v>24000</v>
       </c>
       <c r="Y41" t="s">
-        <v>864</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -9390,10 +9466,10 @@
         <v>285</v>
       </c>
       <c r="R42" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="Y42" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -9407,10 +9483,10 @@
         <v>294</v>
       </c>
       <c r="O43" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="Y43" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -9424,10 +9500,10 @@
         <v>121</v>
       </c>
       <c r="O44" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="Y44" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
@@ -9441,10 +9517,10 @@
         <v>82</v>
       </c>
       <c r="O45" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="Y45" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
@@ -9458,10 +9534,10 @@
         <v>82</v>
       </c>
       <c r="S46" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="Y46" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -9475,10 +9551,10 @@
         <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="Y47" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -9492,10 +9568,10 @@
         <v>82</v>
       </c>
       <c r="N48" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="Y48" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -9509,10 +9585,10 @@
         <v>121</v>
       </c>
       <c r="S49" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="Y49" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
@@ -9526,10 +9602,10 @@
         <v>82</v>
       </c>
       <c r="M50" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="Y50" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -9543,10 +9619,10 @@
         <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="Y51" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
@@ -9560,10 +9636,10 @@
         <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="Y52" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
@@ -9577,10 +9653,10 @@
         <v>62</v>
       </c>
       <c r="G53" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="Y53" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -9594,7 +9670,7 @@
         <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="Y54" t="s">
         <v>833</v>
@@ -9611,16 +9687,16 @@
         <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H55" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="M55" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="Y55" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
@@ -9634,10 +9710,10 @@
         <v>62</v>
       </c>
       <c r="P56" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="Y56" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
@@ -9651,13 +9727,13 @@
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F57" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="Y57" t="s">
-        <v>864</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -9671,7 +9747,7 @@
         <v>650</v>
       </c>
       <c r="I58" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="Y58" t="s">
         <v>833</v>
@@ -9688,10 +9764,10 @@
         <v>82</v>
       </c>
       <c r="S59" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="Y59" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
@@ -9705,7 +9781,7 @@
         <v>82</v>
       </c>
       <c r="R60" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="Y60" t="s">
         <v>831</v>
@@ -9722,10 +9798,10 @@
         <v>82</v>
       </c>
       <c r="T61" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="Y61" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
@@ -9739,10 +9815,10 @@
         <v>82</v>
       </c>
       <c r="J62" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="Y62" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -9756,7 +9832,7 @@
         <v>650</v>
       </c>
       <c r="I63" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="Y63" t="s">
         <v>833</v>
@@ -9773,7 +9849,7 @@
         <v>121</v>
       </c>
       <c r="I64" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="Y64" t="s">
         <v>833</v>
@@ -9790,10 +9866,10 @@
         <v>82</v>
       </c>
       <c r="S65" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="Y65" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
@@ -9807,10 +9883,10 @@
         <v>82</v>
       </c>
       <c r="U66" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="Y66" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
@@ -9827,7 +9903,7 @@
         <v>19421</v>
       </c>
       <c r="Y67" t="s">
-        <v>946</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -9841,13 +9917,13 @@
         <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="I68" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="Y68" t="s">
-        <v>949</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
@@ -9864,7 +9940,7 @@
         <v>2.1030000000000002</v>
       </c>
       <c r="Y69" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
@@ -9878,10 +9954,10 @@
         <v>62</v>
       </c>
       <c r="V70" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="Y70" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
@@ -9895,10 +9971,10 @@
         <v>62</v>
       </c>
       <c r="R71" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="Y71" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
@@ -9915,7 +9991,7 @@
         <v>344.45600000000002</v>
       </c>
       <c r="Y72" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
@@ -9932,7 +10008,7 @@
         <v>50</v>
       </c>
       <c r="Y73" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
@@ -9946,13 +10022,13 @@
         <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="N74" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="Y74" t="s">
-        <v>959</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
@@ -9966,10 +10042,10 @@
         <v>82</v>
       </c>
       <c r="I75" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="Y75" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -9983,10 +10059,10 @@
         <v>642</v>
       </c>
       <c r="F76" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="Y76" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
@@ -10000,10 +10076,10 @@
         <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="Y77" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
@@ -10017,10 +10093,10 @@
         <v>82</v>
       </c>
       <c r="N78" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="Y78" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
@@ -10034,10 +10110,10 @@
         <v>82</v>
       </c>
       <c r="W79" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="Y79" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
@@ -10051,10 +10127,10 @@
         <v>82</v>
       </c>
       <c r="M80" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="Y80" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
@@ -10068,7 +10144,7 @@
         <v>650</v>
       </c>
       <c r="J81" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="Y81" t="s">
         <v>831</v>
@@ -10085,10 +10161,10 @@
         <v>82</v>
       </c>
       <c r="N82" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="Y82" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
@@ -10105,7 +10181,7 @@
         <v>3963</v>
       </c>
       <c r="Y83" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
@@ -10119,10 +10195,10 @@
         <v>82</v>
       </c>
       <c r="N84" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="Y84" t="s">
-        <v>864</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
@@ -10136,7 +10212,7 @@
         <v>82</v>
       </c>
       <c r="M85" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="Y85" t="s">
         <v>831</v>
@@ -10156,7 +10232,7 @@
         <v>30843</v>
       </c>
       <c r="Y86" t="s">
-        <v>956</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
@@ -10170,10 +10246,10 @@
         <v>650</v>
       </c>
       <c r="J87" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="Y87" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
@@ -10187,7 +10263,7 @@
         <v>82</v>
       </c>
       <c r="G88" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="Y88" t="s">
         <v>851</v>
@@ -10204,10 +10280,10 @@
         <v>62</v>
       </c>
       <c r="V89" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="Y89" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
@@ -10221,13 +10297,13 @@
         <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="N90" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="Y90" t="s">
-        <v>956</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
@@ -10241,13 +10317,13 @@
         <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="N91" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="Y91" t="s">
-        <v>956</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
@@ -10261,13 +10337,13 @@
         <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="N92" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="Y92" t="s">
-        <v>956</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
@@ -10281,10 +10357,10 @@
         <v>62</v>
       </c>
       <c r="N93" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="Y93" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
@@ -10298,10 +10374,10 @@
         <v>650</v>
       </c>
       <c r="G94" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="Y94" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
@@ -10315,10 +10391,10 @@
         <v>82</v>
       </c>
       <c r="J95" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="Y95" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
@@ -10332,7 +10408,7 @@
         <v>82</v>
       </c>
       <c r="I96" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="Y96" t="s">
         <v>833</v>
@@ -10349,7 +10425,7 @@
         <v>82</v>
       </c>
       <c r="I97" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="Y97" t="s">
         <v>833</v>
@@ -10365,11 +10441,11 @@
       <c r="C98" t="s">
         <v>82</v>
       </c>
-      <c r="G98" t="s">
-        <v>987</v>
+      <c r="Q98" t="s">
+        <v>979</v>
       </c>
       <c r="Y98" t="s">
-        <v>988</v>
+        <v>906</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
@@ -10386,7 +10462,7 @@
         <v>183</v>
       </c>
       <c r="Y99" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
@@ -10403,7 +10479,7 @@
         <v>24353</v>
       </c>
       <c r="Y100" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
@@ -10417,7 +10493,7 @@
         <v>82</v>
       </c>
       <c r="I101" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="Y101" t="s">
         <v>833</v>
@@ -10434,10 +10510,10 @@
         <v>82</v>
       </c>
       <c r="Q102" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="Y102" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
@@ -10452,10 +10528,10 @@
       </c>
       <c r="D103" s="12"/>
       <c r="Q103" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="Y103" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
@@ -10469,10 +10545,10 @@
         <v>82</v>
       </c>
       <c r="Q104" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="Y104" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
@@ -10486,10 +10562,10 @@
         <v>62</v>
       </c>
       <c r="N105" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="Y105" t="s">
-        <v>956</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
@@ -10503,10 +10579,10 @@
         <v>82</v>
       </c>
       <c r="X106" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="Y106" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
@@ -10520,10 +10596,10 @@
         <v>82</v>
       </c>
       <c r="I107" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="Y107" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
@@ -10537,10 +10613,10 @@
         <v>82</v>
       </c>
       <c r="I108" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="Y108" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
@@ -10554,13 +10630,644 @@
         <v>62</v>
       </c>
       <c r="G109" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="Y109" t="s">
         <v>851</v>
       </c>
     </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="C118" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L118" s="37" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="V118" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="W118" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="X118" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="Y118" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z118" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AA118" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AB118" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AC118" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AD118" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AE118" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="AF118" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="AG118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH118" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AI118" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AJ118" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AK118" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AL118" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AM118" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="AN118" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AO118" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="AP118" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>671</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" t="s">
+        <v>680</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="AH120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" t="s">
+        <v>667</v>
+      </c>
+      <c r="AG121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" t="s">
+        <v>147</v>
+      </c>
+      <c r="S122">
+        <v>1</v>
+      </c>
+      <c r="AP122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" t="s">
+        <v>679</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="AH123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+      <c r="B124" t="s">
+        <v>665</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="AK124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" t="s">
+        <v>784</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" t="s">
+        <v>653</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="S127">
+        <v>3</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+      <c r="B128" t="s">
+        <v>677</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="S128">
+        <v>1</v>
+      </c>
+      <c r="T128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+      <c r="AC130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" t="s">
+        <v>684</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+      <c r="B132" t="s">
+        <v>817</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+      <c r="T132">
+        <v>1</v>
+      </c>
+      <c r="W132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+      <c r="B133" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B134" t="s">
+        <v>122</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>1</v>
+      </c>
+      <c r="Y134">
+        <v>3</v>
+      </c>
+      <c r="AD134">
+        <v>1</v>
+      </c>
+      <c r="AF134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" t="s">
+        <v>693</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="Y135">
+        <v>2</v>
+      </c>
+      <c r="Z135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A137" s="3"/>
+      <c r="B137" t="s">
+        <v>692</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+      <c r="B138" t="s">
+        <v>694</v>
+      </c>
+      <c r="AI138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>4</v>
+      </c>
+      <c r="X139">
+        <v>1</v>
+      </c>
+      <c r="Y139">
+        <v>5</v>
+      </c>
+      <c r="Z139">
+        <v>9</v>
+      </c>
+      <c r="AA139">
+        <v>1</v>
+      </c>
+      <c r="AH139">
+        <v>3</v>
+      </c>
+      <c r="AK139">
+        <v>1</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
+        <v>8</v>
+      </c>
+      <c r="AN139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
+      <c r="V140">
+        <v>1</v>
+      </c>
+      <c r="Y140">
+        <v>2</v>
+      </c>
+      <c r="Z140">
+        <v>5</v>
+      </c>
+      <c r="AE140">
+        <v>1</v>
+      </c>
+      <c r="AJ140">
+        <v>1</v>
+      </c>
+      <c r="AK140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
+        <v>2</v>
+      </c>
+      <c r="AN140">
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="P144" s="3"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D178" s="3"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D180" s="3"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D182" s="3"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D194" s="3"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D197" s="3"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D207" s="3"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D211" s="3"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D218" s="3"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D220" s="3"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D223" s="3"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="3"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D233" s="3"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="3"/>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B245" s="3"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C118:AP143">
+    <sortCondition ref="C118:AP118"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -10571,7 +11278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78179F2F-2523-834B-A7CA-57FE0D013946}">
   <dimension ref="A1:X339"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="M251" sqref="M251"/>
     </sheetView>
   </sheetViews>
@@ -10582,13 +11289,13 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="X1" s="3"/>
     </row>
@@ -10921,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -12162,13 +12869,13 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -13405,10 +14112,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B236" s="3" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -14246,10 +14953,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF0B65B-C069-7041-BF25-AEB9F362444A}">
-  <dimension ref="A1:AA81"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K61" sqref="A61:K61"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14268,7 +14975,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>143</v>
@@ -14299,16 +15006,16 @@
         <v>854</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="P1" s="43" t="s">
         <v>403</v>
@@ -14323,7 +15030,7 @@
         <v>569</v>
       </c>
       <c r="T1" s="44" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -14387,182 +15094,182 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="51" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C3" s="48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>1013</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="G3" s="48" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I3" s="48" t="s">
         <v>1018</v>
       </c>
-      <c r="F3" s="48" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>1027</v>
-      </c>
       <c r="J3" s="48" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="M3" s="48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O3" s="48" t="s">
         <v>1048</v>
       </c>
-      <c r="N3" s="48" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O3" s="48" t="s">
+      <c r="Q3" t="s">
         <v>1057</v>
       </c>
-      <c r="Q3" t="s">
-        <v>1066</v>
-      </c>
       <c r="R3" s="48" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="S3" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="E4" s="48" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I4" s="48" t="s">
         <v>1019</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>1028</v>
-      </c>
       <c r="J4" s="48" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="48" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="P4" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="R4" s="48" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="G5" s="48"/>
       <c r="I5" s="48" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="N5" s="48" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="P5" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="R5" s="48"/>
       <c r="T5" s="45" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
       <c r="B6" s="48" t="s">
+        <v>993</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>1002</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>1011</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="G6" s="48"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="R6" s="48"/>
       <c r="T6" s="45"/>
@@ -14570,10 +15277,10 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
       <c r="B7" s="48" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
@@ -14581,19 +15288,19 @@
       <c r="G7" s="48"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="P7" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="R7" s="48"/>
       <c r="T7" s="45"/>
@@ -14601,10 +15308,10 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="48" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
@@ -14612,13 +15319,13 @@
       <c r="G8" s="48"/>
       <c r="I8" s="48"/>
       <c r="J8" s="48" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="48" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="O8" s="48"/>
       <c r="R8" s="48"/>
@@ -14627,7 +15334,7 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="48" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
@@ -14636,13 +15343,13 @@
       <c r="G9" s="48"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="O9" s="48"/>
       <c r="R9" s="48"/>
@@ -14651,7 +15358,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="48" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
@@ -14660,13 +15367,13 @@
       <c r="G10" s="48"/>
       <c r="I10" s="48"/>
       <c r="J10" s="48" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="O10" s="48"/>
       <c r="R10" s="48"/>
@@ -14682,7 +15389,7 @@
       <c r="G11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="48"/>
@@ -14702,7 +15409,7 @@
       <c r="G12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
@@ -14722,7 +15429,7 @@
       <c r="G13" s="48"/>
       <c r="I13" s="48"/>
       <c r="J13" s="48" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
@@ -14742,7 +15449,7 @@
       <c r="G14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -14762,7 +15469,7 @@
       <c r="G15" s="48"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
@@ -14783,7 +15490,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -14799,7 +15506,7 @@
     <row r="18" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>143</v>
@@ -14830,16 +15537,16 @@
         <v>854</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="P19" s="43" t="s">
         <v>403</v>
@@ -14854,186 +15561,186 @@
         <v>569</v>
       </c>
       <c r="T19" s="44" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="B20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G20" t="s">
         <v>1076</v>
       </c>
-      <c r="C20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1085</v>
-      </c>
       <c r="I20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N20" t="s">
         <v>1087</v>
       </c>
-      <c r="J20" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1111</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1092</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1076</v>
+      </c>
+      <c r="T20" s="45" t="s">
         <v>1093</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1109</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1096</v>
-      </c>
-      <c r="O20" t="s">
-        <v>1097</v>
-      </c>
-      <c r="P20" t="s">
-        <v>1118</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>1100</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="S20" t="s">
-        <v>1085</v>
-      </c>
-      <c r="T20" s="45" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="C21" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="E21" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="F21" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="G21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N21" t="s">
         <v>1086</v>
       </c>
-      <c r="I21" t="s">
-        <v>1109</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1123</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1095</v>
-      </c>
       <c r="O21" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="R21" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="T21" s="45"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="C22" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="E22" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="J22" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="K22" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="L22" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="N22" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="O22" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="T22" s="45"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="C23" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J23" t="s">
         <v>1104</v>
       </c>
-      <c r="E23" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1113</v>
-      </c>
       <c r="L23" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="O23" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="T23" s="45"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="C24" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="E24" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="J24" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="T24" s="45"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="C25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J25" t="s">
         <v>1105</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1114</v>
       </c>
       <c r="T25" s="45"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="C26" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J26" t="s">
         <v>1106</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1115</v>
       </c>
       <c r="T26" s="45"/>
       <c r="U26" s="3"/>
@@ -15041,14 +15748,14 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="J27" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="T27" s="45"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="J28" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="T28" s="45"/>
     </row>
@@ -15140,7 +15847,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>143</v>
@@ -15173,16 +15880,16 @@
         <v>854</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>403</v>
@@ -15197,10 +15904,10 @@
         <v>569</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -15361,16 +16068,16 @@
         <v>854</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>834</v>
@@ -15388,13 +16095,13 @@
         <v>403</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>569</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
@@ -15560,10 +16267,10 @@
         <v>182</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>846</v>
@@ -15619,93 +16326,99 @@
       <c r="M61" s="28"/>
     </row>
     <row r="64" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65" s="29"/>
+      <c r="B65" s="43" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>914</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>966</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="42" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>831</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G65" s="75" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H65" s="75" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I65" s="75" t="s">
-        <v>989</v>
-      </c>
-      <c r="J65" s="75" t="s">
-        <v>1173</v>
-      </c>
-      <c r="K65" s="75" t="s">
-        <v>925</v>
-      </c>
-      <c r="L65" s="75" t="s">
-        <v>954</v>
-      </c>
-      <c r="M65" s="75" t="s">
-        <v>952</v>
-      </c>
-      <c r="N65" s="75" t="s">
-        <v>930</v>
-      </c>
-      <c r="O65" s="75" t="s">
-        <v>977</v>
-      </c>
-      <c r="P65" s="75" t="s">
-        <v>1171</v>
-      </c>
-      <c r="Q65" s="75" t="s">
-        <v>868</v>
-      </c>
-      <c r="R65" s="75" t="s">
-        <v>1174</v>
-      </c>
-      <c r="S65" s="75" t="s">
-        <v>981</v>
-      </c>
-      <c r="T65" s="75" t="s">
-        <v>833</v>
-      </c>
-      <c r="U65" s="76" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="32">
-        <v>16</v>
+      <c r="B66">
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="45">
         <v>2</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -15743,508 +16456,396 @@
       <c r="T66">
         <v>1</v>
       </c>
-      <c r="U66" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="34">
-        <f>(B66/40)*100</f>
-        <v>40</v>
-      </c>
-      <c r="C67" s="35">
-        <f t="shared" ref="C67:T67" si="0">(C66/40)*100</f>
-        <v>7.5</v>
-      </c>
-      <c r="D67" s="35">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="E67" s="35">
-        <f t="shared" si="0"/>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67" s="32"/>
+      <c r="B67" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="F67" s="76" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="Y67" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z67" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="AA67" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="AB67" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68" s="45">
         <v>5</v>
       </c>
-      <c r="F67" s="46">
-        <f t="shared" si="0"/>
+      <c r="G68">
         <v>5</v>
       </c>
-      <c r="G67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="H67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="J67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="K67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="L67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="M67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="N67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="O67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="P67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="Q67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="R67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="S67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="T67" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="U67" s="11"/>
-    </row>
-    <row r="68" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D69" s="43" t="s">
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A69" s="32"/>
+      <c r="B69" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="E69" s="43" t="s">
-        <v>974</v>
-      </c>
-      <c r="F69" s="44" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G69" s="75" t="s">
-        <v>897</v>
-      </c>
-      <c r="H69" s="75" t="s">
-        <v>918</v>
-      </c>
-      <c r="I69" s="75" t="s">
-        <v>964</v>
-      </c>
-      <c r="J69" s="75" t="s">
-        <v>969</v>
-      </c>
-      <c r="K69" s="75" t="s">
-        <v>946</v>
-      </c>
-      <c r="L69" s="75" t="s">
-        <v>983</v>
-      </c>
-      <c r="M69" s="75" t="s">
-        <v>858</v>
-      </c>
-      <c r="N69" s="75" t="s">
-        <v>988</v>
-      </c>
-      <c r="O69" s="75" t="s">
+      <c r="D69" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="F69" s="76" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="35">
+        <v>3</v>
+      </c>
+      <c r="C70" s="35">
+        <v>3</v>
+      </c>
+      <c r="D70" s="35">
+        <v>2</v>
+      </c>
+      <c r="E70" s="35">
+        <v>2</v>
+      </c>
+      <c r="F70" s="46">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A73" s="29"/>
+      <c r="B73" s="43" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D73" s="43" t="s">
         <v>914</v>
       </c>
-      <c r="P69" s="75" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q69" s="75" t="s">
-        <v>935</v>
-      </c>
-      <c r="R69" s="75" t="s">
-        <v>997</v>
-      </c>
-      <c r="S69" s="75" t="s">
-        <v>1000</v>
-      </c>
-      <c r="T69" s="75" t="s">
+      <c r="E73" s="43" t="s">
+        <v>966</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A74" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="28">
+        <f>(B66/45)*100</f>
+        <v>28.888888888888886</v>
+      </c>
+      <c r="C74" s="28">
+        <f>(C66/45)*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D74" s="28">
+        <f>(D66/45)*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E74" s="28">
+        <f>(E66/45)*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F74" s="28">
+        <f>(F66/45)*100</f>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A75" s="32"/>
+      <c r="B75" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="U69" s="75" t="s">
-        <v>880</v>
-      </c>
-      <c r="V69" s="75" t="s">
+      <c r="E75" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="F75" s="76" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A76" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="28">
+        <f>(B68/69)*100</f>
+        <v>18.840579710144929</v>
+      </c>
+      <c r="C76" s="28">
+        <f>(C68/69)*100</f>
+        <v>15.942028985507244</v>
+      </c>
+      <c r="D76" s="28">
+        <f>(D68/69)*100</f>
+        <v>10.144927536231885</v>
+      </c>
+      <c r="E76" s="28">
+        <f>(E68/69)*100</f>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="F76" s="28">
+        <f>(F68/69)*100</f>
+        <v>7.2463768115942031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A77" s="32"/>
+      <c r="B77" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="W69" s="75" t="s">
-        <v>902</v>
-      </c>
-      <c r="X69" s="75" t="s">
-        <v>970</v>
-      </c>
-      <c r="Y69" s="75" t="s">
-        <v>895</v>
-      </c>
-      <c r="Z69" s="75" t="s">
-        <v>955</v>
-      </c>
-      <c r="AA69" s="76" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="32">
-        <v>12</v>
-      </c>
-      <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>11</v>
-      </c>
-      <c r="E70">
-        <v>7</v>
-      </c>
-      <c r="F70" s="45">
-        <v>5</v>
-      </c>
-      <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
-      </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="T70">
-        <v>1</v>
-      </c>
-      <c r="U70">
-        <v>1</v>
-      </c>
-      <c r="V70">
-        <v>1</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
-        <v>1</v>
-      </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="78">
-        <f>(B70/67)*100</f>
-        <v>17.910447761194028</v>
-      </c>
-      <c r="C71" s="79">
-        <f t="shared" ref="C71:Z71" si="1">(C70/67)*100</f>
-        <v>16.417910447761194</v>
-      </c>
-      <c r="D71" s="79">
-        <f t="shared" si="1"/>
-        <v>16.417910447761194</v>
-      </c>
-      <c r="E71" s="79">
-        <f t="shared" si="1"/>
-        <v>10.44776119402985</v>
-      </c>
-      <c r="F71" s="80">
-        <f t="shared" si="1"/>
-        <v>7.4626865671641784</v>
-      </c>
-      <c r="G71" s="77">
-        <f t="shared" si="1"/>
-        <v>4.4776119402985071</v>
-      </c>
-      <c r="H71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="I71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="J71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="K71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="L71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="M71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="N71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="O71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="P71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="Q71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="R71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="S71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="T71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="U71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="V71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="W71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="X71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="Y71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="Z71" s="77">
-        <f t="shared" si="1"/>
-        <v>1.4925373134328357</v>
-      </c>
-      <c r="AA71" s="11"/>
-    </row>
-    <row r="72" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="42" t="s">
-        <v>974</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>833</v>
-      </c>
-      <c r="D73" s="43" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F73" s="44" t="s">
-        <v>956</v>
-      </c>
-      <c r="G73" s="75" t="s">
-        <v>983</v>
-      </c>
-      <c r="H73" s="75" t="s">
-        <v>892</v>
-      </c>
-      <c r="I73" s="75" t="s">
-        <v>899</v>
-      </c>
-      <c r="J73" s="75" t="s">
-        <v>955</v>
-      </c>
-      <c r="K73" s="75" t="s">
-        <v>919</v>
-      </c>
-      <c r="L73" s="76" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="F77" s="76" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="32">
-        <v>3</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74" s="45">
-        <v>2</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="78">
-        <f>(B74/17)*100</f>
+      <c r="B78" s="75">
+        <f>(B70/17)*100</f>
         <v>17.647058823529413</v>
       </c>
-      <c r="C75" s="79">
-        <f t="shared" ref="C75:K75" si="2">(C74/17)*100</f>
+      <c r="C78" s="75">
+        <f>(C70/17)*100</f>
         <v>17.647058823529413</v>
       </c>
-      <c r="D75" s="79">
-        <f t="shared" si="2"/>
+      <c r="D78" s="75">
+        <f>(D70/17)*100</f>
         <v>11.76470588235294</v>
       </c>
-      <c r="E75" s="79">
-        <f t="shared" si="2"/>
+      <c r="E78" s="75">
+        <f>(E70/17)*100</f>
         <v>11.76470588235294</v>
       </c>
-      <c r="F75" s="80">
-        <f t="shared" si="2"/>
+      <c r="F78" s="75">
+        <f>(F70/17)*100</f>
         <v>11.76470588235294</v>
       </c>
-      <c r="G75" s="77">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="H75" s="77">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="I75" s="77">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="J75" s="77">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="K75" s="77">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="L75" s="11"/>
-    </row>
-    <row r="80" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="42" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>831</v>
-      </c>
-      <c r="E81" s="43" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F81" s="44" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G81" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H81" s="43" t="s">
-        <v>833</v>
-      </c>
-      <c r="I81" s="44" t="s">
-        <v>1180</v>
-      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:B91">
-    <sortCondition ref="B77:B91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:B88">
+    <sortCondition ref="B74:B88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16255,8 +16856,8 @@
   <dimension ref="A1:W140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:A137"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16273,67 +16874,67 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q1" s="56" t="s">
         <v>1128</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="U1" s="56" t="s">
         <v>1132</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="Q1" s="56" t="s">
+      <c r="W1" s="56" t="s">
         <v>1137</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>1141</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -18324,7 +18925,7 @@
     </row>
     <row r="110" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="53" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="B110" s="54">
         <f>SUM(B2:B109)</f>
@@ -18424,7 +19025,7 @@
         <v>65</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -18436,7 +19037,7 @@
         <v>43</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -18448,7 +19049,7 @@
         <v>36</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -18460,7 +19061,7 @@
         <v>36</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -18472,7 +19073,7 @@
         <v>29</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -18484,7 +19085,7 @@
         <v>24</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -18496,7 +19097,7 @@
         <v>22</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -18508,7 +19109,7 @@
         <v>22</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -18520,7 +19121,7 @@
         <v>17</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -18532,7 +19133,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -18544,7 +19145,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -18556,7 +19157,7 @@
         <v>10</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -18568,7 +19169,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -18580,7 +19181,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -18592,7 +19193,7 @@
         <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -18604,7 +19205,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -18616,7 +19217,7 @@
         <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -18628,7 +19229,7 @@
         <v>4</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -18640,7 +19241,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -18652,7 +19253,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="56" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -18664,7 +19265,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="56" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -18676,7 +19277,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="56" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
@@ -18693,8 +19294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C72F10-D4C0-7846-856A-8555470A11ED}">
   <dimension ref="A1:Z465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18705,70 +19306,70 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R1" s="56" t="s">
         <v>1128</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="56" t="s">
         <v>1132</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="R1" s="56" t="s">
+      <c r="X1" s="56" t="s">
         <v>1137</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>1141</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="X1" s="56" t="s">
-        <v>1146</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -21358,73 +21959,73 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C140" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="H140" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I140" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="J140" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P140" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="Q140" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R140" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="I140" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J140" s="3" t="s">
+      <c r="S140" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="K140" s="3" t="s">
+      <c r="T140" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="L140" s="3" t="s">
+      <c r="U140" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="M140" s="3" t="s">
+      <c r="V140" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="N140" s="3" t="s">
+      <c r="W140" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="O140" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P140" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="Q140" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="R140" s="3" t="s">
+      <c r="X140" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="S140" s="3" t="s">
+      <c r="Y140" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="T140" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U140" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="V140" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="W140" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="X140" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="Y140" s="3" t="s">
-        <v>1147</v>
       </c>
       <c r="Z140" s="3"/>
     </row>
@@ -21579,7 +22180,7 @@
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -21843,7 +22444,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="60" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="B156" s="55" t="s">
         <v>122</v>
@@ -22180,73 +22781,73 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C164" s="3" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P164" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F164" s="3" t="s">
+      <c r="Q164" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="R164" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S164" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T164" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="U164" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="G164" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I164" s="3" t="s">
+      <c r="V164" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="W164" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Y164" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="M164" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="N164" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="O164" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="P164" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="Q164" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="R164" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="S164" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="T164" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="U164" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="V164" s="3" t="s">
-        <v>1137</v>
-      </c>
-      <c r="W164" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X164" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="Y164" s="3" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
@@ -22400,7 +23001,7 @@
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C169">
         <v>75</v>
@@ -22628,7 +23229,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="60" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="B177" s="55" t="s">
         <v>122</v>
@@ -22968,70 +23569,70 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D192" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H192" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="I192" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J192" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="F192" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H192" s="3" t="s">
+      <c r="K192" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P192" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q192" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="I192" s="3" t="s">
+      <c r="R192" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S192" s="56" t="s">
         <v>1128</v>
       </c>
-      <c r="J192" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K192" s="3" t="s">
+      <c r="T192" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="L192" s="3" t="s">
+      <c r="U192" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="M192" s="3" t="s">
+      <c r="V192" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="N192" s="3" t="s">
+      <c r="W192" s="56" t="s">
         <v>1132</v>
       </c>
-      <c r="O192" s="3" t="s">
+      <c r="X192" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="P192" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="Q192" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="R192" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="S192" s="56" t="s">
+      <c r="Y192" s="56" t="s">
         <v>1137</v>
-      </c>
-      <c r="T192" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="U192" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="V192" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="W192" s="56" t="s">
-        <v>1141</v>
-      </c>
-      <c r="X192" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="Y192" s="56" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
@@ -24224,7 +24825,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="B239" t="s">
         <v>62</v>
@@ -25865,64 +26466,64 @@
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B310" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F310" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="G310" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H310" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="D310" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F310" s="3" t="s">
+      <c r="I310" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M310" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N310" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O310" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="G310" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H310" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I310" s="3" t="s">
+      <c r="P310" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q310" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="J310" s="3" t="s">
+      <c r="R310" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="K310" s="3" t="s">
+      <c r="S310" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="L310" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M310" s="3" t="s">
+      <c r="T310" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="N310" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="O310" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="P310" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="Q310" s="3" t="s">
+      <c r="U310" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="R310" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="S310" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="T310" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="U310" s="3" t="s">
-        <v>1147</v>
       </c>
       <c r="V310" s="3"/>
     </row>
@@ -26288,7 +26889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>174</v>
       </c>
@@ -26315,7 +26916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>200</v>
       </c>
@@ -26342,7 +26943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>761</v>
       </c>
@@ -26353,7 +26954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>751</v>
       </c>
@@ -26364,7 +26965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>752</v>
       </c>
@@ -26384,7 +26985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>122</v>
       </c>
@@ -26395,671 +26996,823 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="U327">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B328" s="3" t="s">
-        <v>1126</v>
+        <v>1150</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1159</v>
+        <v>1121</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
       <c r="I328" s="3" t="s">
         <v>1129</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="K328" s="3" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="M328" s="3" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="N328" s="3" t="s">
         <v>1134</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="P328" s="3" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="Q328" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="R328" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="S328" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T328" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="U328" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="R328" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="S328" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="T328" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="U328" s="3" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A329" s="4" t="s">
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A329" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="B329" s="28">
+      <c r="B329" s="78">
+        <v>65.625</v>
+      </c>
+      <c r="C329" s="78">
+        <v>39.0625</v>
+      </c>
+      <c r="D329" s="78">
+        <v>25</v>
+      </c>
+      <c r="E329" s="78">
+        <v>40.625</v>
+      </c>
+      <c r="F329" s="78">
         <v>20.3125</v>
       </c>
-      <c r="C329" s="28">
-        <v>39.0625</v>
-      </c>
-      <c r="D329" s="28">
+      <c r="G329" s="78">
+        <v>28.125</v>
+      </c>
+      <c r="H329" s="78">
+        <v>21.875</v>
+      </c>
+      <c r="I329" s="78">
+        <v>17.1875</v>
+      </c>
+      <c r="J329" s="77">
+        <v>10.9375</v>
+      </c>
+      <c r="K329" s="77">
+        <v>9.375</v>
+      </c>
+      <c r="L329" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="M329" s="77">
+        <v>9.375</v>
+      </c>
+      <c r="N329" s="78">
+        <v>14.0625</v>
+      </c>
+      <c r="O329" s="77">
+        <v>10.9375</v>
+      </c>
+      <c r="P329" s="77">
+        <v>6.25</v>
+      </c>
+      <c r="Q329" s="77">
+        <v>6.25</v>
+      </c>
+      <c r="R329" s="77">
+        <v>7.8125</v>
+      </c>
+      <c r="S329" s="77">
+        <v>3.125</v>
+      </c>
+      <c r="T329" s="77">
+        <v>1.5625</v>
+      </c>
+      <c r="U329" s="79">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A330" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="B330" s="78">
+        <v>80</v>
+      </c>
+      <c r="C330" s="78">
+        <v>70</v>
+      </c>
+      <c r="D330" s="78">
+        <v>50</v>
+      </c>
+      <c r="E330" s="78">
+        <v>35</v>
+      </c>
+      <c r="F330" s="78">
+        <v>50</v>
+      </c>
+      <c r="G330" s="77">
+        <v>20</v>
+      </c>
+      <c r="H330" s="78">
+        <v>40</v>
+      </c>
+      <c r="I330" s="78">
+        <v>35</v>
+      </c>
+      <c r="J330" s="78">
+        <v>35</v>
+      </c>
+      <c r="K330" s="77">
+        <v>20</v>
+      </c>
+      <c r="L330" s="77">
+        <v>0</v>
+      </c>
+      <c r="M330" s="77">
+        <v>10</v>
+      </c>
+      <c r="N330" s="77">
+        <v>0</v>
+      </c>
+      <c r="O330" s="77">
+        <v>5</v>
+      </c>
+      <c r="P330" s="77">
+        <v>20</v>
+      </c>
+      <c r="Q330" s="77">
+        <v>10</v>
+      </c>
+      <c r="R330" s="77">
+        <v>10</v>
+      </c>
+      <c r="S330" s="77">
+        <v>10</v>
+      </c>
+      <c r="T330" s="77">
+        <v>0</v>
+      </c>
+      <c r="U330" s="79">
+        <v>20</v>
+      </c>
+      <c r="Y330" s="80">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A331" s="79" t="s">
+        <v>724</v>
+      </c>
+      <c r="B331" s="78">
+        <v>50</v>
+      </c>
+      <c r="C331" s="78">
+        <v>50</v>
+      </c>
+      <c r="D331" s="78">
         <v>25</v>
       </c>
-      <c r="E329" s="28">
-        <v>65.625</v>
-      </c>
-      <c r="F329" s="28">
+      <c r="E331" s="77">
         <v>12.5</v>
       </c>
-      <c r="G329" s="28">
-        <v>21.875</v>
-      </c>
-      <c r="H329" s="28">
-        <v>10.9375</v>
-      </c>
-      <c r="I329" s="28">
-        <v>3.125</v>
-      </c>
-      <c r="J329" s="28">
-        <v>40.625</v>
-      </c>
-      <c r="K329" s="28">
-        <v>9.375</v>
-      </c>
-      <c r="L329" s="28">
-        <v>6.25</v>
-      </c>
-      <c r="M329" s="28">
-        <v>9.375</v>
-      </c>
-      <c r="N329" s="28">
-        <v>28.125</v>
-      </c>
-      <c r="O329" s="28">
-        <v>6.25</v>
-      </c>
-      <c r="P329" s="28">
-        <v>14.0625</v>
-      </c>
-      <c r="Q329" s="28">
-        <v>17.1875</v>
-      </c>
-      <c r="R329" s="28">
-        <v>1.5625</v>
-      </c>
-      <c r="S329" s="28">
-        <v>7.8125</v>
-      </c>
-      <c r="T329" s="28">
-        <v>10.9375</v>
-      </c>
-    </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A330" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B330" s="28">
+      <c r="F331" s="77">
+        <v>0</v>
+      </c>
+      <c r="G331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="H331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="I331" s="77">
+        <v>0</v>
+      </c>
+      <c r="J331" s="77">
+        <v>0</v>
+      </c>
+      <c r="K331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="L331" s="77">
+        <v>0</v>
+      </c>
+      <c r="M331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="N331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="O331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="P331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="Q331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="R331" s="77">
+        <v>0</v>
+      </c>
+      <c r="S331" s="77">
+        <v>0</v>
+      </c>
+      <c r="T331" s="77">
+        <v>12.5</v>
+      </c>
+      <c r="U331" s="79">
+        <v>8</v>
+      </c>
+      <c r="Y331" s="80">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A332" s="79" t="s">
+        <v>624</v>
+      </c>
+      <c r="B332" s="77">
+        <v>25</v>
+      </c>
+      <c r="C332" s="77">
+        <v>25</v>
+      </c>
+      <c r="D332" s="77">
+        <v>100</v>
+      </c>
+      <c r="E332" s="77">
+        <v>0</v>
+      </c>
+      <c r="F332" s="77">
+        <v>75</v>
+      </c>
+      <c r="G332" s="77">
+        <v>25</v>
+      </c>
+      <c r="H332" s="77">
+        <v>0</v>
+      </c>
+      <c r="I332" s="77">
         <v>50</v>
       </c>
-      <c r="C330" s="28">
-        <v>70</v>
-      </c>
-      <c r="D330" s="28">
+      <c r="J332" s="77">
+        <v>25</v>
+      </c>
+      <c r="K332" s="77">
+        <v>0</v>
+      </c>
+      <c r="L332" s="77">
+        <v>25</v>
+      </c>
+      <c r="M332" s="77">
+        <v>25</v>
+      </c>
+      <c r="O332" s="77">
+        <v>25</v>
+      </c>
+      <c r="P332" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q332" s="81">
+        <v>0</v>
+      </c>
+      <c r="R332" s="77">
+        <v>0</v>
+      </c>
+      <c r="S332" s="77">
+        <v>0</v>
+      </c>
+      <c r="T332" s="77">
+        <v>25</v>
+      </c>
+      <c r="U332" s="79">
+        <v>4</v>
+      </c>
+      <c r="Y332" s="80">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A333" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" s="77">
+        <v>75</v>
+      </c>
+      <c r="C333" s="77">
+        <v>25</v>
+      </c>
+      <c r="D333" s="77">
+        <v>75</v>
+      </c>
+      <c r="E333" s="77">
+        <v>0</v>
+      </c>
+      <c r="F333" s="77">
+        <v>0</v>
+      </c>
+      <c r="G333" s="77">
+        <v>0</v>
+      </c>
+      <c r="H333" s="77">
+        <v>25</v>
+      </c>
+      <c r="I333" s="77">
+        <v>25</v>
+      </c>
+      <c r="J333" s="77">
+        <v>25</v>
+      </c>
+      <c r="K333" s="77">
+        <v>0</v>
+      </c>
+      <c r="L333" s="77">
+        <v>25</v>
+      </c>
+      <c r="M333" s="77">
+        <v>0</v>
+      </c>
+      <c r="N333" s="77">
+        <v>0</v>
+      </c>
+      <c r="O333" s="77">
+        <v>0</v>
+      </c>
+      <c r="P333" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q333" s="81">
+        <v>0</v>
+      </c>
+      <c r="R333" s="77">
+        <v>0</v>
+      </c>
+      <c r="S333" s="77">
+        <v>0</v>
+      </c>
+      <c r="T333" s="77">
+        <v>0</v>
+      </c>
+      <c r="U333" s="79">
+        <v>4</v>
+      </c>
+      <c r="Y333" s="80">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A334" s="79" t="s">
+        <v>731</v>
+      </c>
+      <c r="B334" s="77">
+        <v>75</v>
+      </c>
+      <c r="C334" s="77">
+        <v>0</v>
+      </c>
+      <c r="D334" s="77">
         <v>50</v>
       </c>
-      <c r="E330" s="28">
-        <v>80</v>
-      </c>
-      <c r="F330" s="28"/>
-      <c r="G330" s="28">
-        <v>40</v>
-      </c>
-      <c r="H330" s="28">
-        <v>5</v>
-      </c>
-      <c r="I330" s="28">
-        <v>10</v>
-      </c>
-      <c r="J330" s="28">
-        <v>35</v>
-      </c>
-      <c r="K330" s="28">
-        <v>10</v>
-      </c>
-      <c r="L330" s="28">
-        <v>10</v>
-      </c>
-      <c r="M330" s="28">
-        <v>20</v>
-      </c>
-      <c r="N330" s="28">
-        <v>20</v>
-      </c>
-      <c r="O330" s="28">
-        <v>20</v>
-      </c>
-      <c r="P330" s="28"/>
-      <c r="Q330" s="28">
-        <v>35</v>
-      </c>
-      <c r="R330" s="28"/>
-      <c r="S330" s="28">
-        <v>10</v>
-      </c>
-      <c r="T330" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A331" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="B331" s="28"/>
-      <c r="C331" s="28">
-        <v>50</v>
-      </c>
-      <c r="D331" s="28">
+      <c r="E334" s="77">
+        <v>75</v>
+      </c>
+      <c r="F334" s="77">
         <v>25</v>
       </c>
-      <c r="E331" s="28">
-        <v>50</v>
-      </c>
-      <c r="F331" s="28"/>
-      <c r="G331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="H331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="I331" s="28"/>
-      <c r="J331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="K331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="L331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="M331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="N331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="O331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="P331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="Q331" s="28"/>
-      <c r="R331" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="S331" s="28"/>
-      <c r="T331" s="28"/>
-    </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A332" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="B332" s="28">
-        <v>75</v>
-      </c>
-      <c r="C332" s="28">
+      <c r="G334" s="77">
         <v>25</v>
       </c>
-      <c r="D332" s="28">
-        <v>100</v>
-      </c>
-      <c r="E332" s="28">
+      <c r="H334" s="77">
         <v>25</v>
       </c>
-      <c r="F332" s="28">
+      <c r="I334" s="77">
+        <v>0</v>
+      </c>
+      <c r="J334" s="77">
+        <v>0</v>
+      </c>
+      <c r="K334" s="77">
+        <v>0</v>
+      </c>
+      <c r="L334" s="77">
         <v>25</v>
       </c>
-      <c r="G332" s="28"/>
-      <c r="H332" s="28">
-        <v>25</v>
-      </c>
-      <c r="I332" s="28"/>
-      <c r="J332" s="28"/>
-      <c r="K332" s="28">
-        <v>25</v>
-      </c>
-      <c r="L332" s="28"/>
-      <c r="M332" s="28"/>
-      <c r="N332" s="28">
-        <v>25</v>
-      </c>
-      <c r="O332" s="28"/>
-      <c r="P332" s="28"/>
-      <c r="Q332" s="28">
-        <v>50</v>
-      </c>
-      <c r="R332" s="28">
-        <v>25</v>
-      </c>
-      <c r="S332" s="28"/>
-      <c r="T332" s="28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A333" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B333" s="28"/>
-      <c r="C333" s="28">
-        <v>25</v>
-      </c>
-      <c r="D333" s="28">
-        <v>75</v>
-      </c>
-      <c r="E333" s="28">
-        <v>75</v>
-      </c>
-      <c r="F333" s="28">
-        <v>25</v>
-      </c>
-      <c r="G333" s="28">
-        <v>25</v>
-      </c>
-      <c r="H333" s="28"/>
-      <c r="I333" s="28"/>
-      <c r="J333" s="28"/>
-      <c r="K333" s="28"/>
-      <c r="L333" s="28"/>
-      <c r="M333" s="28"/>
-      <c r="N333" s="28"/>
-      <c r="O333" s="28"/>
-      <c r="P333" s="28"/>
-      <c r="Q333" s="28">
-        <v>25</v>
-      </c>
-      <c r="R333" s="28"/>
-      <c r="S333" s="28"/>
-      <c r="T333" s="28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A334" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="B334" s="28">
-        <v>25</v>
-      </c>
-      <c r="C334" s="28"/>
-      <c r="D334" s="28">
-        <v>50</v>
-      </c>
-      <c r="E334" s="28">
-        <v>75</v>
-      </c>
-      <c r="F334" s="28">
-        <v>25</v>
-      </c>
-      <c r="G334" s="28">
-        <v>25</v>
-      </c>
-      <c r="H334" s="28"/>
-      <c r="I334" s="28"/>
-      <c r="J334" s="28">
-        <v>75</v>
-      </c>
-      <c r="K334" s="28"/>
-      <c r="L334" s="28"/>
-      <c r="M334" s="28"/>
-      <c r="N334" s="28">
-        <v>25</v>
-      </c>
-      <c r="O334" s="28"/>
-      <c r="P334" s="28"/>
-      <c r="Q334" s="28"/>
-      <c r="R334" s="28"/>
-      <c r="S334" s="28"/>
-      <c r="T334" s="28"/>
-    </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A335" s="9" t="s">
+      <c r="M334" s="77">
+        <v>0</v>
+      </c>
+      <c r="N334" s="77">
+        <v>0</v>
+      </c>
+      <c r="O334" s="77">
+        <v>0</v>
+      </c>
+      <c r="P334">
+        <v>0</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334" s="77">
+        <v>0</v>
+      </c>
+      <c r="S334" s="77">
+        <v>0</v>
+      </c>
+      <c r="T334" s="77">
+        <v>0</v>
+      </c>
+      <c r="U334" s="79">
+        <v>4</v>
+      </c>
+      <c r="Y334" s="80">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A335" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="B335" s="28">
+      <c r="B335" s="77">
         <v>33.333333333333329</v>
       </c>
-      <c r="C335" s="28">
+      <c r="C335" s="77">
         <v>33.333333333333329</v>
       </c>
-      <c r="D335" s="28">
+      <c r="D335" s="77">
         <v>33.333333333333329</v>
       </c>
-      <c r="E335" s="28">
+      <c r="E335" s="77">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F335" s="77">
         <v>33.333333333333329</v>
       </c>
-      <c r="F335" s="28"/>
-      <c r="G335" s="28"/>
-      <c r="H335" s="28"/>
-      <c r="I335" s="28"/>
-      <c r="J335" s="28">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="K335" s="28"/>
-      <c r="L335" s="28"/>
-      <c r="M335" s="28">
+      <c r="G335" s="77">
+        <v>0</v>
+      </c>
+      <c r="H335" s="77">
+        <v>0</v>
+      </c>
+      <c r="I335" s="77">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="J335" s="77">
         <v>33.333333333333329</v>
       </c>
-      <c r="N335" s="28"/>
-      <c r="O335" s="28"/>
-      <c r="P335" s="28"/>
-      <c r="Q335" s="28">
+      <c r="K335" s="77">
         <v>33.333333333333329</v>
       </c>
-      <c r="R335" s="28"/>
-      <c r="S335" s="28"/>
-      <c r="T335" s="28">
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L335" s="77">
+        <v>0</v>
+      </c>
+      <c r="M335" s="77">
+        <v>0</v>
+      </c>
+      <c r="N335" s="77">
+        <v>0</v>
+      </c>
+      <c r="O335" s="77">
+        <v>0</v>
+      </c>
+      <c r="P335" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q335" s="81">
+        <v>0</v>
+      </c>
+      <c r="R335" s="77">
+        <v>0</v>
+      </c>
+      <c r="S335" s="77">
+        <v>0</v>
+      </c>
+      <c r="T335" s="77">
+        <v>0</v>
+      </c>
+      <c r="U335" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y337" s="80">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y338" s="80">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y339" s="80">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C341" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G341" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="H341" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I341" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E341" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G341" s="3" t="s">
+      <c r="J341" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N341" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O341" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P341" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="H341" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I341" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="J341" s="3" t="s">
+      <c r="Q341" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R341" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="K341" s="3" t="s">
+      <c r="S341" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="L341" s="3" t="s">
+      <c r="T341" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="M341" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="N341" s="3" t="s">
+      <c r="U341" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="O341" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P341" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="Q341" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="R341" s="3" t="s">
+      <c r="V341" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="S341" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="T341" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="U341" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="V341" s="3" t="s">
-        <v>1147</v>
-      </c>
       <c r="X341" s="3"/>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B342" t="s">
         <v>129</v>
       </c>
       <c r="C342" s="28">
-        <v>17.391304347826086</v>
+        <v>25</v>
       </c>
       <c r="D342" s="28">
-        <v>34.782608695652172</v>
+        <v>47.222222222222221</v>
       </c>
       <c r="E342" s="28">
-        <v>26.086956521739129</v>
+        <v>25</v>
       </c>
       <c r="F342" s="28">
-        <v>60.869565217391312</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G342" s="28">
-        <v>8.695652173913043</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="H342" s="28">
-        <v>13.043478260869565</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="I342" s="28">
-        <v>8.695652173913043</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="J342" s="28">
-        <v>4.3478260869565215</v>
+        <v>0</v>
       </c>
       <c r="K342" s="28">
-        <v>21.739130434782609</v>
+        <v>50</v>
       </c>
       <c r="L342" s="28">
-        <v>4.3478260869565215</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="M342" s="28">
-        <v>8.695652173913043</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="N342" s="28">
-        <v>4.3478260869565215</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="O342" s="28">
-        <v>13.043478260869565</v>
+        <v>36.111111111111107</v>
       </c>
       <c r="P342" s="28">
-        <v>4.3478260869565215</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="Q342" s="28">
-        <v>13.043478260869565</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="R342" s="28">
-        <v>4.3478260869565215</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="S342" s="28">
-        <v>4.3478260869565215</v>
+        <v>0</v>
       </c>
       <c r="T342" s="28">
-        <v>8.695652173913043</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="U342" s="28">
-        <v>4.3478260869565215</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="V342">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B343" t="s">
         <v>129</v>
       </c>
       <c r="C343" s="28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D343" s="28">
-        <v>47.222222222222221</v>
+        <v>20</v>
       </c>
       <c r="E343" s="28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F343" s="28">
-        <v>66.666666666666657</v>
+        <v>80</v>
       </c>
       <c r="G343" s="28">
-        <v>13.888888888888889</v>
+        <v>20</v>
       </c>
       <c r="H343" s="28">
-        <v>27.777777777777779</v>
+        <v>20</v>
       </c>
       <c r="I343" s="28">
-        <v>13.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="J343" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K343" s="28">
         <v>50</v>
       </c>
       <c r="L343" s="28">
-        <v>11.111111111111111</v>
+        <v>20</v>
       </c>
       <c r="M343" s="28">
-        <v>5.5555555555555554</v>
+        <v>0</v>
       </c>
       <c r="N343" s="28">
-        <v>13.888888888888889</v>
+        <v>10</v>
       </c>
       <c r="O343" s="28">
-        <v>36.111111111111107</v>
+        <v>40</v>
       </c>
       <c r="P343" s="28">
-        <v>8.3333333333333321</v>
+        <v>0</v>
       </c>
       <c r="Q343" s="28">
-        <v>16.666666666666664</v>
+        <v>20</v>
       </c>
       <c r="R343" s="28">
-        <v>27.777777777777779</v>
+        <v>0</v>
       </c>
       <c r="S343" s="28">
         <v>0</v>
       </c>
       <c r="T343" s="28">
-        <v>5.5555555555555554</v>
+        <v>20</v>
       </c>
       <c r="U343" s="28">
-        <v>13.888888888888889</v>
+        <v>20</v>
       </c>
       <c r="V343">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B344" t="s">
         <v>129</v>
       </c>
       <c r="C344" s="28">
-        <v>0</v>
+        <v>17.391304347826086</v>
       </c>
       <c r="D344" s="28">
-        <v>20</v>
+        <v>34.782608695652172</v>
       </c>
       <c r="E344" s="28">
-        <v>20</v>
+        <v>26.086956521739129</v>
       </c>
       <c r="F344" s="28">
-        <v>80</v>
+        <v>60.869565217391312</v>
       </c>
       <c r="G344" s="28">
-        <v>20</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="H344" s="28">
-        <v>20</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="I344" s="28">
-        <v>0</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="J344" s="28">
-        <v>10</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="K344" s="28">
-        <v>50</v>
+        <v>21.739130434782609</v>
       </c>
       <c r="L344" s="28">
-        <v>20</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="M344" s="28">
-        <v>0</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="N344" s="28">
-        <v>10</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="O344" s="28">
-        <v>40</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="P344" s="28">
-        <v>0</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="Q344" s="28">
-        <v>20</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="R344" s="28">
-        <v>0</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="S344" s="28">
-        <v>0</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="T344" s="28">
-        <v>20</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="U344" s="28">
-        <v>20</v>
+        <v>4.3478260869565215</v>
       </c>
       <c r="V344">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>62</v>
       </c>
@@ -27083,7 +27836,7 @@
       <c r="T346" s="28"/>
       <c r="U346" s="28"/>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>82</v>
       </c>
@@ -27107,7 +27860,7 @@
       <c r="T347" s="28"/>
       <c r="U347" s="28"/>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>121</v>
       </c>
@@ -27131,7 +27884,12 @@
       <c r="T348" s="28"/>
       <c r="U348" s="28"/>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y349" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>82</v>
       </c>
@@ -27666,61 +28424,61 @@
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D420" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H420" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="E420" s="3" t="s">
+      <c r="I420" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J420" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="F420" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H420" s="3" t="s">
+      <c r="K420" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M420" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N420" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P420" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q420" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="I420" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J420" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K420" s="3" t="s">
+      <c r="R420" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="S420" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="L420" s="3" t="s">
+      <c r="T420" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="M420" s="3" t="s">
+      <c r="U420" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="N420" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="O420" s="3" t="s">
+      <c r="V420" s="3" t="s">
         <v>1133</v>
-      </c>
-      <c r="P420" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="Q420" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="R420" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="S420" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="T420" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U420" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="V420" s="3" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.2">
@@ -28112,9 +28870,392 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B352:XFD373">
     <sortCondition ref="B352:B373"/>
   </sortState>
+  <conditionalFormatting sqref="B329:T329">
+    <cfRule type="dataBar" priority="92">
+      <dataBar>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{198B9A3B-F586-1646-8551-8F85700DDDE9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F0E2912-5DE8-F740-908E-ECAC19D3423C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B330:T330">
+    <cfRule type="dataBar" priority="95">
+      <dataBar>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B61D9BF4-C474-0740-9607-812DC9B7A58B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF2492E3-8214-3B4C-BD61-9DAE0F4E8DD2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B331:T331">
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DDFB7E5A-9E11-6443-865B-92C63090984C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{89222620-E875-024B-B8D5-59DE5C6B575C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B332:T332">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D820D695-A7B3-8445-BDE5-25B65B2581F2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B265AF68-8171-984B-8A1C-49090D0BE88C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B333:T333">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{976A8ABD-5E95-B14E-9D11-9F2506A9CE13}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B775DED-B1FF-FF45-866A-E23267430DEA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B334:T334">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AAB7A7F0-F5BF-F743-898D-28A70ABB4D47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18082EA8-66DE-6247-830F-2EA361A6FA17}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B335:T335">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03EB653B-2B4F-484B-B293-C853B476CF3E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E166B0D-F43A-DF4D-9231-8F1B6821B6EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="percentile" val="10"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2777FEB2-D195-5843-9AAC-7C5FE2A37B41}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{198B9A3B-F586-1646-8551-8F85700DDDE9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2F0E2912-5DE8-F740-908E-ECAC19D3423C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B329:T329</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B61D9BF4-C474-0740-9607-812DC9B7A58B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{CF2492E3-8214-3B4C-BD61-9DAE0F4E8DD2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B330:T330</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DDFB7E5A-9E11-6443-865B-92C63090984C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{89222620-E875-024B-B8D5-59DE5C6B575C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B331:T331</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D820D695-A7B3-8445-BDE5-25B65B2581F2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{B265AF68-8171-984B-8A1C-49090D0BE88C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B332:T332</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{976A8ABD-5E95-B14E-9D11-9F2506A9CE13}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9B775DED-B1FF-FF45-866A-E23267430DEA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B333:T333</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AAB7A7F0-F5BF-F743-898D-28A70ABB4D47}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{18082EA8-66DE-6247-830F-2EA361A6FA17}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B334:T334</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03EB653B-2B4F-484B-B293-C853B476CF3E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0E166B0D-F43A-DF4D-9231-8F1B6821B6EE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2777FEB2-D195-5843-9AAC-7C5FE2A37B41}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B335:T335</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A65B1-FD0A-F14F-B1BE-3FDE6C5A2A17}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -28123,7 +29264,7 @@
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32303,7 +33444,7 @@
   <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32381,7 +33522,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -32395,7 +33536,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -32409,7 +33550,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -32465,7 +33606,7 @@
         <v>83</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>660</v>
@@ -32775,7 +33916,7 @@
         <v>464</v>
       </c>
       <c r="N26" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="O26" t="s">
         <v>377</v>
@@ -32959,7 +34100,7 @@
         <v>672</v>
       </c>
       <c r="N35" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>288</v>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0A801-B354-1C47-9879-BAD28797B021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2156DF-5F1B-FB4F-ADFB-A6DF91001A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" firstSheet="6" activeTab="15" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" firstSheet="6" activeTab="9" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,6 @@
     <definedName name="_xlchart.v1.1" hidden="1">('Nr. of Topics'!$C$1:$C$35,'Nr. of Topics'!$C$38:$C$104,'Nr. of Topics'!$C$106:$C$118)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -883,6 +882,10 @@
     <author>tc={6A592723-F2FB-8E4C-AE43-562E05688883}</author>
     <author>tc={4C21A624-108D-E249-B8B2-46A313FD3D14}</author>
     <author>tc={7E898875-B059-334D-A109-EDC9B9C5A9AD}</author>
+    <author>tc={011C6323-9ABD-9340-A18C-240291725327}</author>
+    <author>tc={7926D173-DA02-2846-9F33-139E48B0C116}</author>
+    <author>tc={9FEFC091-74DD-1246-AA37-02E05E2C95FC}</author>
+    <author>tc={17CB097F-7E8F-2E48-AC54-CEF4EF2BD97D}</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{3736A120-EF1B-AB4F-9BDE-A0B5D3EBB190}">
@@ -923,6 +926,38 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Consider removing due to lack of detail</t>
+      </text>
+    </comment>
+    <comment ref="B128" authorId="5" shapeId="0" xr:uid="{011C6323-9ABD-9340-A18C-240291725327}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some fields to complete</t>
+      </text>
+    </comment>
+    <comment ref="B134" authorId="6" shapeId="0" xr:uid="{7926D173-DA02-2846-9F33-139E48B0C116}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
+    <comment ref="B157" authorId="7" shapeId="0" xr:uid="{9FEFC091-74DD-1246-AA37-02E05E2C95FC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Incomplete summary</t>
+      </text>
+    </comment>
+    <comment ref="B176" authorId="8" shapeId="0" xr:uid="{17CB097F-7E8F-2E48-AC54-CEF4EF2BD97D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some fields to complete</t>
       </text>
     </comment>
   </commentList>
@@ -966,7 +1001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6502" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="1204">
   <si>
     <t>Data extraction form</t>
   </si>
@@ -4572,6 +4607,12 @@
   </si>
   <si>
     <t>Title, Abstract and Keywords</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -4581,7 +4622,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4624,6 +4665,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4991,7 +5038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5071,17 +5118,37 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6384,6 +6451,18 @@
   <threadedComment ref="B86" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{7E898875-B059-334D-A109-EDC9B9C5A9AD}">
     <text>Consider removing due to lack of detail</text>
   </threadedComment>
+  <threadedComment ref="B128" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{011C6323-9ABD-9340-A18C-240291725327}">
+    <text>Some fields to complete</text>
+  </threadedComment>
+  <threadedComment ref="B134" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{7926D173-DA02-2846-9F33-139E48B0C116}">
+    <text>Incomplete summary</text>
+  </threadedComment>
+  <threadedComment ref="B157" dT="2023-04-27T18:37:02.70" personId="{C04AB7E8-6DD1-3441-877B-62A9B6775A41}" id="{9FEFC091-74DD-1246-AA37-02E05E2C95FC}">
+    <text>Incomplete summary</text>
+  </threadedComment>
+  <threadedComment ref="B176" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{17CB097F-7E8F-2E48-AC54-CEF4EF2BD97D}">
+    <text>Some fields to complete</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -6832,10 +6911,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761A1C02-1324-E746-B63A-80AB98C7BAC0}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8086,10 +8165,513 @@
         <v>796</v>
       </c>
     </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" s="79" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="79" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C128" s="79" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="79" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C130" s="79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C131" s="79" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C132" s="79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C133" s="79" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C134" s="79" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" s="79" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C136" s="79" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" s="79" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="79" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C139" s="79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C140" s="79" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C141" s="79" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C142" s="79" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C143" s="79" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C145" s="79" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C146" s="79" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C147" s="79" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C148" s="79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C149" s="79" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C150" s="79" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C162" s="38" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="38" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C164" s="38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C166" s="38" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C173" s="39" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C113">
-    <sortCondition descending="1" ref="C1:C113"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B124:C150">
+    <sortCondition ref="B124:B150"/>
   </sortState>
+  <conditionalFormatting sqref="B124:B150">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -19294,7 +19876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C72F10-D4C0-7846-856A-8555470A11ED}">
   <dimension ref="A1:Z465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+    <sheetView topLeftCell="A212" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -27064,383 +27646,383 @@
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A329" s="79" t="s">
+      <c r="A329" t="s">
         <v>129</v>
       </c>
-      <c r="B329" s="78">
+      <c r="B329" s="77">
         <v>65.625</v>
       </c>
-      <c r="C329" s="78">
+      <c r="C329" s="77">
         <v>39.0625</v>
       </c>
-      <c r="D329" s="78">
+      <c r="D329" s="77">
         <v>25</v>
       </c>
-      <c r="E329" s="78">
+      <c r="E329" s="77">
         <v>40.625</v>
       </c>
-      <c r="F329" s="78">
+      <c r="F329" s="77">
         <v>20.3125</v>
       </c>
-      <c r="G329" s="78">
+      <c r="G329" s="77">
         <v>28.125</v>
       </c>
-      <c r="H329" s="78">
+      <c r="H329" s="77">
         <v>21.875</v>
       </c>
-      <c r="I329" s="78">
+      <c r="I329" s="77">
         <v>17.1875</v>
       </c>
-      <c r="J329" s="77">
+      <c r="J329" s="28">
         <v>10.9375</v>
       </c>
-      <c r="K329" s="77">
+      <c r="K329" s="28">
         <v>9.375</v>
       </c>
-      <c r="L329" s="77">
+      <c r="L329" s="28">
         <v>12.5</v>
       </c>
-      <c r="M329" s="77">
+      <c r="M329" s="28">
         <v>9.375</v>
       </c>
-      <c r="N329" s="78">
+      <c r="N329" s="77">
         <v>14.0625</v>
       </c>
-      <c r="O329" s="77">
+      <c r="O329" s="28">
         <v>10.9375</v>
       </c>
-      <c r="P329" s="77">
+      <c r="P329" s="28">
         <v>6.25</v>
       </c>
-      <c r="Q329" s="77">
+      <c r="Q329" s="28">
         <v>6.25</v>
       </c>
-      <c r="R329" s="77">
+      <c r="R329" s="28">
         <v>7.8125</v>
       </c>
-      <c r="S329" s="77">
+      <c r="S329" s="28">
         <v>3.125</v>
       </c>
-      <c r="T329" s="77">
+      <c r="T329" s="28">
         <v>1.5625</v>
       </c>
-      <c r="U329" s="79">
+      <c r="U329">
         <v>64</v>
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A330" s="79" t="s">
+      <c r="A330" t="s">
         <v>233</v>
       </c>
-      <c r="B330" s="78">
+      <c r="B330" s="77">
         <v>80</v>
       </c>
-      <c r="C330" s="78">
+      <c r="C330" s="77">
         <v>70</v>
       </c>
-      <c r="D330" s="78">
+      <c r="D330" s="77">
         <v>50</v>
       </c>
-      <c r="E330" s="78">
+      <c r="E330" s="77">
         <v>35</v>
       </c>
-      <c r="F330" s="78">
+      <c r="F330" s="77">
         <v>50</v>
       </c>
-      <c r="G330" s="77">
+      <c r="G330" s="28">
         <v>20</v>
       </c>
-      <c r="H330" s="78">
+      <c r="H330" s="77">
         <v>40</v>
       </c>
-      <c r="I330" s="78">
+      <c r="I330" s="77">
         <v>35</v>
       </c>
-      <c r="J330" s="78">
+      <c r="J330" s="77">
         <v>35</v>
       </c>
-      <c r="K330" s="77">
+      <c r="K330" s="28">
         <v>20</v>
       </c>
-      <c r="L330" s="77">
+      <c r="L330" s="28">
         <v>0</v>
       </c>
-      <c r="M330" s="77">
+      <c r="M330" s="28">
         <v>10</v>
       </c>
-      <c r="N330" s="77">
+      <c r="N330" s="28">
         <v>0</v>
       </c>
-      <c r="O330" s="77">
+      <c r="O330" s="28">
         <v>5</v>
       </c>
-      <c r="P330" s="77">
+      <c r="P330" s="28">
         <v>20</v>
       </c>
-      <c r="Q330" s="77">
+      <c r="Q330" s="28">
         <v>10</v>
       </c>
-      <c r="R330" s="77">
+      <c r="R330" s="28">
         <v>10</v>
       </c>
-      <c r="S330" s="77">
+      <c r="S330" s="28">
         <v>10</v>
       </c>
-      <c r="T330" s="77">
+      <c r="T330" s="28">
         <v>0</v>
       </c>
-      <c r="U330" s="79">
+      <c r="U330">
         <v>20</v>
       </c>
-      <c r="Y330" s="80">
+      <c r="Y330" s="78">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A331" s="79" t="s">
+      <c r="A331" t="s">
         <v>724</v>
       </c>
-      <c r="B331" s="78">
+      <c r="B331" s="77">
         <v>50</v>
       </c>
-      <c r="C331" s="78">
+      <c r="C331" s="77">
         <v>50</v>
       </c>
-      <c r="D331" s="78">
+      <c r="D331" s="77">
         <v>25</v>
       </c>
-      <c r="E331" s="77">
+      <c r="E331" s="28">
         <v>12.5</v>
       </c>
-      <c r="F331" s="77">
+      <c r="F331" s="28">
         <v>0</v>
       </c>
-      <c r="G331" s="77">
+      <c r="G331" s="28">
         <v>12.5</v>
       </c>
-      <c r="H331" s="77">
+      <c r="H331" s="28">
         <v>12.5</v>
       </c>
-      <c r="I331" s="77">
+      <c r="I331" s="28">
         <v>0</v>
       </c>
-      <c r="J331" s="77">
+      <c r="J331" s="28">
         <v>0</v>
       </c>
-      <c r="K331" s="77">
+      <c r="K331" s="28">
         <v>12.5</v>
       </c>
-      <c r="L331" s="77">
+      <c r="L331" s="28">
         <v>0</v>
       </c>
-      <c r="M331" s="77">
+      <c r="M331" s="28">
         <v>12.5</v>
       </c>
-      <c r="N331" s="77">
+      <c r="N331" s="28">
         <v>12.5</v>
       </c>
-      <c r="O331" s="77">
+      <c r="O331" s="28">
         <v>12.5</v>
       </c>
-      <c r="P331" s="77">
+      <c r="P331" s="28">
         <v>12.5</v>
       </c>
-      <c r="Q331" s="77">
+      <c r="Q331" s="28">
         <v>12.5</v>
       </c>
-      <c r="R331" s="77">
+      <c r="R331" s="28">
         <v>0</v>
       </c>
-      <c r="S331" s="77">
+      <c r="S331" s="28">
         <v>0</v>
       </c>
-      <c r="T331" s="77">
+      <c r="T331" s="28">
         <v>12.5</v>
       </c>
-      <c r="U331" s="79">
+      <c r="U331">
         <v>8</v>
       </c>
-      <c r="Y331" s="80">
+      <c r="Y331" s="78">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A332" s="79" t="s">
+      <c r="A332" t="s">
         <v>624</v>
       </c>
-      <c r="B332" s="77">
+      <c r="B332" s="28">
         <v>25</v>
       </c>
-      <c r="C332" s="77">
+      <c r="C332" s="28">
         <v>25</v>
       </c>
-      <c r="D332" s="77">
+      <c r="D332" s="28">
         <v>100</v>
       </c>
-      <c r="E332" s="77">
+      <c r="E332" s="28">
         <v>0</v>
       </c>
-      <c r="F332" s="77">
+      <c r="F332" s="28">
         <v>75</v>
       </c>
-      <c r="G332" s="77">
+      <c r="G332" s="28">
         <v>25</v>
       </c>
-      <c r="H332" s="77">
+      <c r="H332" s="28">
         <v>0</v>
       </c>
-      <c r="I332" s="77">
+      <c r="I332" s="28">
         <v>50</v>
       </c>
-      <c r="J332" s="77">
+      <c r="J332" s="28">
         <v>25</v>
       </c>
-      <c r="K332" s="77">
+      <c r="K332" s="28">
         <v>0</v>
       </c>
-      <c r="L332" s="77">
+      <c r="L332" s="28">
         <v>25</v>
       </c>
-      <c r="M332" s="77">
+      <c r="M332" s="28">
         <v>25</v>
       </c>
-      <c r="O332" s="77">
+      <c r="O332" s="28">
         <v>25</v>
       </c>
-      <c r="P332" s="81">
+      <c r="P332" s="28">
         <v>0</v>
       </c>
-      <c r="Q332" s="81">
+      <c r="Q332" s="28">
         <v>0</v>
       </c>
-      <c r="R332" s="77">
+      <c r="R332" s="28">
         <v>0</v>
       </c>
-      <c r="S332" s="77">
+      <c r="S332" s="28">
         <v>0</v>
       </c>
-      <c r="T332" s="77">
+      <c r="T332" s="28">
         <v>25</v>
       </c>
-      <c r="U332" s="79">
+      <c r="U332">
         <v>4</v>
       </c>
-      <c r="Y332" s="80">
+      <c r="Y332" s="78">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A333" s="79" t="s">
+      <c r="A333" t="s">
         <v>334</v>
       </c>
-      <c r="B333" s="77">
+      <c r="B333" s="28">
         <v>75</v>
       </c>
-      <c r="C333" s="77">
+      <c r="C333" s="28">
         <v>25</v>
       </c>
-      <c r="D333" s="77">
+      <c r="D333" s="28">
         <v>75</v>
       </c>
-      <c r="E333" s="77">
+      <c r="E333" s="28">
         <v>0</v>
       </c>
-      <c r="F333" s="77">
+      <c r="F333" s="28">
         <v>0</v>
       </c>
-      <c r="G333" s="77">
+      <c r="G333" s="28">
         <v>0</v>
       </c>
-      <c r="H333" s="77">
+      <c r="H333" s="28">
         <v>25</v>
       </c>
-      <c r="I333" s="77">
+      <c r="I333" s="28">
         <v>25</v>
       </c>
-      <c r="J333" s="77">
+      <c r="J333" s="28">
         <v>25</v>
       </c>
-      <c r="K333" s="77">
+      <c r="K333" s="28">
         <v>0</v>
       </c>
-      <c r="L333" s="77">
+      <c r="L333" s="28">
         <v>25</v>
       </c>
-      <c r="M333" s="77">
+      <c r="M333" s="28">
         <v>0</v>
       </c>
-      <c r="N333" s="77">
+      <c r="N333" s="28">
         <v>0</v>
       </c>
-      <c r="O333" s="77">
+      <c r="O333" s="28">
         <v>0</v>
       </c>
-      <c r="P333" s="81">
+      <c r="P333" s="28">
         <v>0</v>
       </c>
-      <c r="Q333" s="81">
+      <c r="Q333" s="28">
         <v>0</v>
       </c>
-      <c r="R333" s="77">
+      <c r="R333" s="28">
         <v>0</v>
       </c>
-      <c r="S333" s="77">
+      <c r="S333" s="28">
         <v>0</v>
       </c>
-      <c r="T333" s="77">
+      <c r="T333" s="28">
         <v>0</v>
       </c>
-      <c r="U333" s="79">
+      <c r="U333">
         <v>4</v>
       </c>
-      <c r="Y333" s="80">
+      <c r="Y333" s="78">
         <v>66.7</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A334" s="79" t="s">
+      <c r="A334" t="s">
         <v>731</v>
       </c>
-      <c r="B334" s="77">
+      <c r="B334" s="28">
         <v>75</v>
       </c>
-      <c r="C334" s="77">
+      <c r="C334" s="28">
         <v>0</v>
       </c>
-      <c r="D334" s="77">
+      <c r="D334" s="28">
         <v>50</v>
       </c>
-      <c r="E334" s="77">
+      <c r="E334" s="28">
         <v>75</v>
       </c>
-      <c r="F334" s="77">
+      <c r="F334" s="28">
         <v>25</v>
       </c>
-      <c r="G334" s="77">
+      <c r="G334" s="28">
         <v>25</v>
       </c>
-      <c r="H334" s="77">
+      <c r="H334" s="28">
         <v>25</v>
       </c>
-      <c r="I334" s="77">
+      <c r="I334" s="28">
         <v>0</v>
       </c>
-      <c r="J334" s="77">
+      <c r="J334" s="28">
         <v>0</v>
       </c>
-      <c r="K334" s="77">
+      <c r="K334" s="28">
         <v>0</v>
       </c>
-      <c r="L334" s="77">
+      <c r="L334" s="28">
         <v>25</v>
       </c>
-      <c r="M334" s="77">
+      <c r="M334" s="28">
         <v>0</v>
       </c>
-      <c r="N334" s="77">
+      <c r="N334" s="28">
         <v>0</v>
       </c>
-      <c r="O334" s="77">
+      <c r="O334" s="28">
         <v>0</v>
       </c>
       <c r="P334">
@@ -27449,99 +28031,99 @@
       <c r="Q334">
         <v>0</v>
       </c>
-      <c r="R334" s="77">
+      <c r="R334" s="28">
         <v>0</v>
       </c>
-      <c r="S334" s="77">
+      <c r="S334" s="28">
         <v>0</v>
       </c>
-      <c r="T334" s="77">
+      <c r="T334" s="28">
         <v>0</v>
       </c>
-      <c r="U334" s="79">
+      <c r="U334">
         <v>4</v>
       </c>
-      <c r="Y334" s="80">
+      <c r="Y334" s="78">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A335" s="79" t="s">
+      <c r="A335" t="s">
         <v>452</v>
       </c>
-      <c r="B335" s="77">
+      <c r="B335" s="28">
         <v>33.333333333333329</v>
       </c>
-      <c r="C335" s="77">
+      <c r="C335" s="28">
         <v>33.333333333333329</v>
       </c>
-      <c r="D335" s="77">
+      <c r="D335" s="28">
         <v>33.333333333333329</v>
       </c>
-      <c r="E335" s="77">
+      <c r="E335" s="28">
         <v>66.666666666666657</v>
       </c>
-      <c r="F335" s="77">
+      <c r="F335" s="28">
         <v>33.333333333333329</v>
       </c>
-      <c r="G335" s="77">
+      <c r="G335" s="28">
         <v>0</v>
       </c>
-      <c r="H335" s="77">
+      <c r="H335" s="28">
         <v>0</v>
       </c>
-      <c r="I335" s="77">
+      <c r="I335" s="28">
         <v>33.3333333333333</v>
       </c>
-      <c r="J335" s="77">
+      <c r="J335" s="28">
         <v>33.333333333333329</v>
       </c>
-      <c r="K335" s="77">
+      <c r="K335" s="28">
         <v>33.333333333333329</v>
       </c>
-      <c r="L335" s="77">
+      <c r="L335" s="28">
         <v>0</v>
       </c>
-      <c r="M335" s="77">
+      <c r="M335" s="28">
         <v>0</v>
       </c>
-      <c r="N335" s="77">
+      <c r="N335" s="28">
         <v>0</v>
       </c>
-      <c r="O335" s="77">
+      <c r="O335" s="28">
         <v>0</v>
       </c>
-      <c r="P335" s="81">
+      <c r="P335" s="28">
         <v>0</v>
       </c>
-      <c r="Q335" s="81">
+      <c r="Q335" s="28">
         <v>0</v>
       </c>
-      <c r="R335" s="77">
+      <c r="R335" s="28">
         <v>0</v>
       </c>
-      <c r="S335" s="77">
+      <c r="S335" s="28">
         <v>0</v>
       </c>
-      <c r="T335" s="77">
+      <c r="T335" s="28">
         <v>0</v>
       </c>
-      <c r="U335" s="79">
+      <c r="U335">
         <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Y337" s="80">
+      <c r="Y337" s="78">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Y338" s="80">
+      <c r="Y338" s="78">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Y339" s="80">
+      <c r="Y339" s="78">
         <v>33.299999999999997</v>
       </c>
     </row>
@@ -27885,7 +28467,7 @@
       <c r="U348" s="28"/>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Y349" s="80">
+      <c r="Y349" s="78">
         <v>3</v>
       </c>
     </row>
@@ -28871,6 +29453,18 @@
     <sortCondition ref="B352:B373"/>
   </sortState>
   <conditionalFormatting sqref="B329:T329">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percentile" val="25"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F0E2912-5DE8-F740-908E-ECAC19D3423C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="percentile" val="50"/>
@@ -28883,7 +29477,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B330:T330">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="percentile" val="25"/>
         <cfvo type="max"/>
@@ -28891,12 +29487,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F0E2912-5DE8-F740-908E-ECAC19D3423C}</x14:id>
+          <x14:id>{CF2492E3-8214-3B4C-BD61-9DAE0F4E8DD2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B330:T330">
     <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="percentile" val="50"/>
@@ -28909,7 +29503,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="7">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B331:T331">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="percentile" val="25"/>
         <cfvo type="max"/>
@@ -28917,12 +29513,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF2492E3-8214-3B4C-BD61-9DAE0F4E8DD2}</x14:id>
+          <x14:id>{89222620-E875-024B-B8D5-59DE5C6B575C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B331:T331">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="percentile" val="50"/>
@@ -28935,7 +29529,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B332:T332">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="percentile" val="25"/>
         <cfvo type="max"/>
@@ -28943,12 +29539,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89222620-E875-024B-B8D5-59DE5C6B575C}</x14:id>
+          <x14:id>{B265AF68-8171-984B-8A1C-49090D0BE88C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B332:T332">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="percentile" val="50"/>
@@ -28961,7 +29555,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B333:T333">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="percentile" val="25"/>
         <cfvo type="max"/>
@@ -28969,12 +29565,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B265AF68-8171-984B-8A1C-49090D0BE88C}</x14:id>
+          <x14:id>{9B775DED-B1FF-FF45-866A-E23267430DEA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B333:T333">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="percentile" val="50"/>
@@ -28987,7 +29581,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B334:T334">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="percentile" val="25"/>
         <cfvo type="max"/>
@@ -28995,12 +29591,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9B775DED-B1FF-FF45-866A-E23267430DEA}</x14:id>
+          <x14:id>{18082EA8-66DE-6247-830F-2EA361A6FA17}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B334:T334">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="percentile" val="50"/>
@@ -29013,29 +29607,17 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B335:T335">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="percentile" val="25"/>
+        <cfvo type="percentile" val="10"/>
         <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18082EA8-66DE-6247-830F-2EA361A6FA17}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B335:T335">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03EB653B-2B4F-484B-B293-C853B476CF3E}</x14:id>
+          <x14:id>{2777FEB2-D195-5843-9AAC-7C5FE2A37B41}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -29051,15 +29633,15 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
-        <cfvo type="percentile" val="10"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2777FEB2-D195-5843-9AAC-7C5FE2A37B41}</x14:id>
+          <x14:id>{03EB653B-2B4F-484B-B293-C853B476CF3E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -29071,6 +29653,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F0E2912-5DE8-F740-908E-ECAC19D3423C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percentile">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{198B9A3B-F586-1646-8551-8F85700DDDE9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
@@ -29081,7 +29673,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2F0E2912-5DE8-F740-908E-ECAC19D3423C}">
+          <xm:sqref>B329:T329</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF2492E3-8214-3B4C-BD61-9DAE0F4E8DD2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
                 <xm:f>25</xm:f>
@@ -29091,9 +29686,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B329:T329</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B61D9BF4-C474-0740-9607-812DC9B7A58B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
@@ -29104,7 +29696,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{CF2492E3-8214-3B4C-BD61-9DAE0F4E8DD2}">
+          <xm:sqref>B330:T330</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{89222620-E875-024B-B8D5-59DE5C6B575C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
                 <xm:f>25</xm:f>
@@ -29114,9 +29709,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B330:T330</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DDFB7E5A-9E11-6443-865B-92C63090984C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
@@ -29127,7 +29719,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{89222620-E875-024B-B8D5-59DE5C6B575C}">
+          <xm:sqref>B331:T331</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B265AF68-8171-984B-8A1C-49090D0BE88C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
                 <xm:f>25</xm:f>
@@ -29137,9 +29732,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B331:T331</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D820D695-A7B3-8445-BDE5-25B65B2581F2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
@@ -29150,7 +29742,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{B265AF68-8171-984B-8A1C-49090D0BE88C}">
+          <xm:sqref>B332:T332</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9B775DED-B1FF-FF45-866A-E23267430DEA}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
                 <xm:f>25</xm:f>
@@ -29160,9 +29755,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B332:T332</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{976A8ABD-5E95-B14E-9D11-9F2506A9CE13}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
@@ -29173,7 +29765,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9B775DED-B1FF-FF45-866A-E23267430DEA}">
+          <xm:sqref>B333:T333</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{18082EA8-66DE-6247-830F-2EA361A6FA17}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
                 <xm:f>25</xm:f>
@@ -29183,9 +29778,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B333:T333</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AAB7A7F0-F5BF-F743-898D-28A70ABB4D47}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
@@ -29196,23 +29788,13 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{18082EA8-66DE-6247-830F-2EA361A6FA17}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percentile">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <xm:sqref>B334:T334</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03EB653B-2B4F-484B-B293-C853B476CF3E}">
+          <x14:cfRule type="dataBar" id="{2777FEB2-D195-5843-9AAC-7C5FE2A37B41}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
-                <xm:f>50</xm:f>
+                <xm:f>10</xm:f>
               </x14:cfvo>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
@@ -29229,10 +29811,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2777FEB2-D195-5843-9AAC-7C5FE2A37B41}">
+          <x14:cfRule type="dataBar" id="{03EB653B-2B4F-484B-B293-C853B476CF3E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percentile">
-                <xm:f>10</xm:f>
+                <xm:f>50</xm:f>
               </x14:cfvo>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2156DF-5F1B-FB4F-ADFB-A6DF91001A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A5FA5-BCEA-9D46-9D6E-FB94EB2DAF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" firstSheet="6" activeTab="9" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" firstSheet="6" activeTab="9" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -904,7 +904,7 @@
     Some fields to complete</t>
       </text>
     </comment>
-    <comment ref="B31" authorId="2" shapeId="0" xr:uid="{6A592723-F2FB-8E4C-AE43-562E05688883}">
+    <comment ref="B32" authorId="2" shapeId="0" xr:uid="{6A592723-F2FB-8E4C-AE43-562E05688883}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -912,7 +912,7 @@
     Re-check manual classification</t>
       </text>
     </comment>
-    <comment ref="B80" authorId="3" shapeId="0" xr:uid="{4C21A624-108D-E249-B8B2-46A313FD3D14}">
+    <comment ref="B81" authorId="3" shapeId="0" xr:uid="{4C21A624-108D-E249-B8B2-46A313FD3D14}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -920,7 +920,7 @@
     Appendix access?</t>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{7E898875-B059-334D-A109-EDC9B9C5A9AD}">
+    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{7E898875-B059-334D-A109-EDC9B9C5A9AD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -4622,7 +4622,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4665,12 +4665,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5038,7 +5032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5120,24 +5114,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6442,13 +6425,13 @@
   <threadedComment ref="B23" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{DBA1D17F-1C15-0444-8F5D-7D142EDB51CF}">
     <text>Some fields to complete</text>
   </threadedComment>
-  <threadedComment ref="B31" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{6A592723-F2FB-8E4C-AE43-562E05688883}">
+  <threadedComment ref="B32" dT="2023-04-29T13:50:04.77" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{6A592723-F2FB-8E4C-AE43-562E05688883}">
     <text>Re-check manual classification</text>
   </threadedComment>
-  <threadedComment ref="B80" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{4C21A624-108D-E249-B8B2-46A313FD3D14}">
+  <threadedComment ref="B81" dT="2023-04-02T11:42:25.99" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{4C21A624-108D-E249-B8B2-46A313FD3D14}">
     <text>Appendix access?</text>
   </threadedComment>
-  <threadedComment ref="B86" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{7E898875-B059-334D-A109-EDC9B9C5A9AD}">
+  <threadedComment ref="B87" dT="2023-04-10T20:24:20.83" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{7E898875-B059-334D-A109-EDC9B9C5A9AD}">
     <text>Consider removing due to lack of detail</text>
   </threadedComment>
   <threadedComment ref="B128" dT="2023-04-08T17:44:07.36" personId="{74590BBD-5819-AB42-A4D3-506E02485AC1}" id="{011C6323-9ABD-9340-A18C-240291725327}">
@@ -6914,7 +6897,7 @@
   <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7219,23 +7202,23 @@
         <v>801</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>796</v>
+        <v>645</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>796</v>
@@ -7243,10 +7226,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>796</v>
@@ -7254,10 +7237,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
         <v>796</v>
@@ -7265,10 +7248,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>796</v>
@@ -7276,10 +7259,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C33" t="s">
         <v>796</v>
@@ -7287,10 +7270,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
       </c>
       <c r="C34" t="s">
         <v>796</v>
@@ -7298,10 +7281,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>158</v>
+        <v>62</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C35" t="s">
         <v>796</v>
@@ -7312,7 +7295,7 @@
         <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
         <v>796</v>
@@ -7320,10 +7303,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
         <v>796</v>
@@ -7331,10 +7314,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
         <v>796</v>
@@ -7345,7 +7328,7 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
         <v>796</v>
@@ -7355,8 +7338,8 @@
       <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>196</v>
+      <c r="B40" t="s">
+        <v>191</v>
       </c>
       <c r="C40" t="s">
         <v>796</v>
@@ -7364,10 +7347,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>368</v>
+        <v>82</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="C41" t="s">
         <v>796</v>
@@ -7375,10 +7358,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C42" t="s">
         <v>796</v>
@@ -7386,10 +7369,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>377</v>
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>370</v>
       </c>
       <c r="C43" t="s">
         <v>796</v>
@@ -7397,10 +7380,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="C44" t="s">
         <v>796</v>
@@ -7410,8 +7393,8 @@
       <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
-        <v>206</v>
+      <c r="B45" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C45" t="s">
         <v>796</v>
@@ -7422,7 +7405,7 @@
         <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
         <v>796</v>
@@ -7433,7 +7416,7 @@
         <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s">
         <v>796</v>
@@ -7443,8 +7426,8 @@
       <c r="A48" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>230</v>
+      <c r="B48" t="s">
+        <v>223</v>
       </c>
       <c r="C48" t="s">
         <v>796</v>
@@ -7455,7 +7438,7 @@
         <v>82</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s">
         <v>796</v>
@@ -7463,10 +7446,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
         <v>796</v>
@@ -7474,10 +7457,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
         <v>796</v>
@@ -7487,8 +7470,8 @@
       <c r="A52" t="s">
         <v>82</v>
       </c>
-      <c r="B52" t="s">
-        <v>252</v>
+      <c r="B52" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C52" t="s">
         <v>796</v>
@@ -7496,10 +7479,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>259</v>
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
       </c>
       <c r="C53" t="s">
         <v>796</v>
@@ -7507,10 +7490,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>264</v>
+        <v>62</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="C54" t="s">
         <v>796</v>
@@ -7521,7 +7504,7 @@
         <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
         <v>796</v>
@@ -7532,18 +7515,18 @@
         <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>274</v>
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>272</v>
       </c>
       <c r="C57" t="s">
         <v>796</v>
@@ -7554,18 +7537,18 @@
         <v>82</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C58" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>285</v>
+      <c r="A59" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C59" t="s">
         <v>796</v>
@@ -7573,10 +7556,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
         <v>796</v>
@@ -7584,10 +7567,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
         <v>796</v>
@@ -7595,10 +7578,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" t="s">
-        <v>302</v>
+        <v>121</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="C62" t="s">
         <v>796</v>
@@ -7609,7 +7592,7 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C63" t="s">
         <v>796</v>
@@ -7619,8 +7602,8 @@
       <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>314</v>
+      <c r="B64" t="s">
+        <v>307</v>
       </c>
       <c r="C64" t="s">
         <v>796</v>
@@ -7630,8 +7613,8 @@
       <c r="A65" t="s">
         <v>82</v>
       </c>
-      <c r="B65" t="s">
-        <v>315</v>
+      <c r="B65" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C65" t="s">
         <v>796</v>
@@ -7639,10 +7622,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>322</v>
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>315</v>
       </c>
       <c r="C66" t="s">
         <v>796</v>
@@ -7650,10 +7633,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
         <v>796</v>
@@ -7663,8 +7646,8 @@
       <c r="A68" t="s">
         <v>82</v>
       </c>
-      <c r="B68" t="s">
-        <v>337</v>
+      <c r="B68" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="C68" t="s">
         <v>796</v>
@@ -7675,7 +7658,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C69" t="s">
         <v>796</v>
@@ -7683,10 +7666,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C70" t="s">
         <v>796</v>
@@ -7694,10 +7677,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C71" t="s">
         <v>796</v>
@@ -7705,10 +7688,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
         <v>796</v>
@@ -7719,7 +7702,7 @@
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C73" t="s">
         <v>796</v>
@@ -7727,10 +7710,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>650</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
         <v>796</v>
@@ -7738,10 +7721,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>388</v>
+        <v>650</v>
+      </c>
+      <c r="B75" t="s">
+        <v>383</v>
       </c>
       <c r="C75" t="s">
         <v>796</v>
@@ -7751,8 +7734,8 @@
       <c r="A76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
-        <v>394</v>
+      <c r="B76" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="C76" t="s">
         <v>796</v>
@@ -7762,8 +7745,8 @@
       <c r="A77" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>398</v>
+      <c r="B77" t="s">
+        <v>394</v>
       </c>
       <c r="C77" t="s">
         <v>796</v>
@@ -7773,8 +7756,8 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
-        <v>406</v>
+      <c r="B78" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="C78" t="s">
         <v>796</v>
@@ -7782,10 +7765,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>650</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C79" t="s">
         <v>796</v>
@@ -7793,10 +7776,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>650</v>
       </c>
       <c r="B80" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C80" t="s">
         <v>796</v>
@@ -7804,10 +7787,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C81" t="s">
         <v>796</v>
@@ -7817,8 +7800,8 @@
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>431</v>
+      <c r="B82" t="s">
+        <v>424</v>
       </c>
       <c r="C82" t="s">
         <v>796</v>
@@ -7828,8 +7811,8 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>440</v>
+      <c r="B83" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="C83" t="s">
         <v>796</v>
@@ -7837,10 +7820,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>442</v>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>440</v>
       </c>
       <c r="C84" t="s">
         <v>796</v>
@@ -7848,10 +7831,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>650</v>
-      </c>
-      <c r="B85" t="s">
-        <v>460</v>
+        <v>62</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="C85" t="s">
         <v>796</v>
@@ -7859,10 +7842,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>465</v>
+        <v>650</v>
+      </c>
+      <c r="B86" t="s">
+        <v>460</v>
       </c>
       <c r="C86" t="s">
         <v>796</v>
@@ -7870,10 +7853,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" t="s">
-        <v>474</v>
+        <v>62</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="C87" t="s">
         <v>796</v>
@@ -7881,10 +7864,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>645</v>
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>474</v>
       </c>
       <c r="C88" t="s">
         <v>796</v>
@@ -8177,7 +8160,7 @@
       <c r="B124" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C124" s="79" t="s">
+      <c r="C124" t="s">
         <v>802</v>
       </c>
     </row>
@@ -8185,7 +8168,7 @@
       <c r="B125" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C125" s="79" t="s">
+      <c r="C125" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8196,7 +8179,7 @@
       <c r="B126" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C126" s="80" t="s">
+      <c r="C126" s="79" t="s">
         <v>822</v>
       </c>
     </row>
@@ -8207,7 +8190,7 @@
       <c r="B127" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C127" s="79" t="s">
+      <c r="C127" t="s">
         <v>801</v>
       </c>
     </row>
@@ -8218,7 +8201,7 @@
       <c r="B128" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C128" s="79" t="s">
+      <c r="C128" t="s">
         <v>800</v>
       </c>
     </row>
@@ -8229,7 +8212,7 @@
       <c r="B129" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C129" s="79" t="s">
+      <c r="C129" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8240,7 +8223,7 @@
       <c r="B130" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C130" s="79" t="s">
+      <c r="C130" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8251,7 +8234,7 @@
       <c r="B131" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C131" s="79" t="s">
+      <c r="C131" t="s">
         <v>806</v>
       </c>
     </row>
@@ -8259,7 +8242,7 @@
       <c r="B132" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C132" s="79" t="s">
+      <c r="C132" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8270,7 +8253,7 @@
       <c r="B133" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" t="s">
         <v>806</v>
       </c>
     </row>
@@ -8281,7 +8264,7 @@
       <c r="B134" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C134" s="79" t="s">
+      <c r="C134" t="s">
         <v>806</v>
       </c>
     </row>
@@ -8292,7 +8275,7 @@
       <c r="B135" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C135" s="79" t="s">
+      <c r="C135" t="s">
         <v>823</v>
       </c>
     </row>
@@ -8303,7 +8286,7 @@
       <c r="B136" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C136" s="79" t="s">
+      <c r="C136" t="s">
         <v>820</v>
       </c>
     </row>
@@ -8314,7 +8297,7 @@
       <c r="B137" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C137" s="79" t="s">
+      <c r="C137" t="s">
         <v>821</v>
       </c>
     </row>
@@ -8325,7 +8308,7 @@
       <c r="B138" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="79" t="s">
+      <c r="C138" t="s">
         <v>801</v>
       </c>
     </row>
@@ -8336,7 +8319,7 @@
       <c r="B139" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C139" s="79" t="s">
+      <c r="C139" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8347,7 +8330,7 @@
       <c r="B140" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C140" s="79" t="s">
+      <c r="C140" t="s">
         <v>804</v>
       </c>
     </row>
@@ -8355,7 +8338,7 @@
       <c r="B141" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C141" s="79" t="s">
+      <c r="C141" t="s">
         <v>801</v>
       </c>
     </row>
@@ -8366,7 +8349,7 @@
       <c r="B142" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C142" s="79" t="s">
+      <c r="C142" t="s">
         <v>824</v>
       </c>
     </row>
@@ -8377,7 +8360,7 @@
       <c r="B143" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C143" s="79" t="s">
+      <c r="C143" t="s">
         <v>825</v>
       </c>
     </row>
@@ -8388,7 +8371,7 @@
       <c r="B144" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C144" s="79" t="s">
+      <c r="C144" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8399,7 +8382,7 @@
       <c r="B145" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C145" s="79" t="s">
+      <c r="C145" t="s">
         <v>826</v>
       </c>
     </row>
@@ -8410,7 +8393,7 @@
       <c r="B146" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C146" s="79" t="s">
+      <c r="C146" t="s">
         <v>805</v>
       </c>
     </row>
@@ -8418,7 +8401,7 @@
       <c r="B147" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C147" s="79" t="s">
+      <c r="C147" t="s">
         <v>807</v>
       </c>
     </row>
@@ -8426,7 +8409,7 @@
       <c r="B148" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C148" s="79" t="s">
+      <c r="C148" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8434,7 +8417,7 @@
       <c r="B149" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C149" s="79" t="s">
+      <c r="C149" t="s">
         <v>800</v>
       </c>
     </row>
@@ -8445,7 +8428,7 @@
       <c r="B150" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C150" s="79" t="s">
+      <c r="C150" t="s">
         <v>820</v>
       </c>
     </row>
@@ -42062,8 +42045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C76D2-A016-B148-9046-56FC93233128}">
   <dimension ref="A1:Q130"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32:P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data collection/data_collection.xlsx
+++ b/Data collection/data_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A5FA5-BCEA-9D46-9D6E-FB94EB2DAF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F931117-8781-6A48-9F95-06E177B92547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" firstSheet="6" activeTab="9" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{D7C45010-D6C4-164A-BB57-7D0C69B150A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction form" sheetId="1" r:id="rId1"/>
@@ -6896,7 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761A1C02-1324-E746-B63A-80AB98C7BAC0}">
   <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -29828,8 +29828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899CF305-EC0C-8440-A2B9-CB6CC01EBB57}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
